--- a/data/szekelyhon_data.xlsx
+++ b/data/szekelyhon_data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skydrive\Github\szekelydata\medveterkep\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F015018-881B-40DA-A405-EEA6A6AD3A38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
   <si>
     <t>date</t>
   </si>
@@ -31,6 +25,9 @@
     <t>image</t>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/06_julius/sm_medvecsapda-3-ba-3.jpg</t>
   </si>
   <si>
+    <t>Székelyhon</t>
+  </si>
+  <si>
     <t>Még a rókák is kerülik az Udvarhelyhez közeli üregbe húzódott bocsos anyamedvét</t>
   </si>
   <si>
@@ -229,7 +229,7 @@
     <t>Egyedül bóklászó egyéves medvebocsot gázolt el egy autó péntekre virradóan Újszékely határában. A vadállat az ütközést követően elpusztult – számol be a Hargita megyei önkormányzat sajtóirodája.</t>
   </si>
   <si>
-    <t>Ismét medvebiztos szeméttárolóba rekedt egy bocs szerdára virradóan a tusnádfürdői vasútállomás közelében. A vadállatot a Hargita megyei csendőrök szabadították ki, miután az anyamedvét többször is elriasztották a helyszínről. </t>
+    <t xml:space="preserve">Ismét medvebiztos szeméttárolóba rekedt egy bocs szerdára virradóan a tusnádfürdői vasútállomás közelében. A vadállatot a Hargita megyei csendőrök szabadították ki, miután az anyamedvét többször is elriasztották a helyszínről. </t>
   </si>
   <si>
     <t>A Ro-Alert riasztórendszeren keresztül figyelmeztették szerdán reggel a hatóságok a sepsiszentgyörgyieket, hogy medve kószál a városban.</t>
@@ -256,7 +256,7 @@
     <t>Villanypásztort szereltek fel a Csíkszeredai Megyei Sürgősségi Kórház körül húzódó kerítésre kedden. Az eszköz az intézmény területére korábban több alkalommal behatoló medvéket hivatott távol tartani.</t>
   </si>
   <si>
-    <t>A napokban hoz döntést a kőrispataki medvetámadás miatt félárván maradt két kiskorú elhelyezéséről a Hargita Megyei Szociális és Gyermekvédelmi Igazgatóság. </t>
+    <t xml:space="preserve">A napokban hoz döntést a kőrispataki medvetámadás miatt félárván maradt két kiskorú elhelyezéséről a Hargita Megyei Szociális és Gyermekvédelmi Igazgatóság. </t>
   </si>
   <si>
     <t>Videót készített a kőrispataki medvéről, a barlangjáról és a pénteki medvetámadás helyszínéről a Hubertus Vadásztársaság igazgatója. A felvétel azonban hamar megszakad, ugyanis az állat a köztük lévő mély árkot megkerülve a vadászok felé rohan.</t>
@@ -304,11 +304,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,14 +385,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -439,7 +431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,27 +463,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,24 +497,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -716,21 +672,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:N19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -771,29 +722,32 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
         <v>43530</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -801,125 +755,134 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>87</v>
       </c>
       <c r="M2">
-        <v>46.304999600000002</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>25.292647899999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>46.3049996</v>
+      </c>
+      <c r="O2">
+        <v>25.2926479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
         <v>43540</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>46.260836599999998</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>24.973189399999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>46.2608366</v>
+      </c>
+      <c r="O3">
+        <v>24.9731894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>43544</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>46.146075199999999</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>25.856958899999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>46.1460752</v>
+      </c>
+      <c r="O4">
+        <v>25.8569589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>43544</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -927,83 +890,89 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>90</v>
       </c>
       <c r="M5">
-        <v>45.860937499999999</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>25.788579599999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45.8609375</v>
+      </c>
+      <c r="O5">
+        <v>25.7885796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>43546</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
       </c>
       <c r="M6">
-        <v>46.417812300000001</v>
+        <v>0</v>
       </c>
       <c r="N6">
+        <v>46.4178123</v>
+      </c>
+      <c r="O6">
         <v>24.9703704</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>43547</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1011,41 +980,44 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
       </c>
       <c r="M7">
-        <v>46.417812300000001</v>
+        <v>0</v>
       </c>
       <c r="N7">
+        <v>46.4178123</v>
+      </c>
+      <c r="O7">
         <v>24.9703704</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>43549</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1053,41 +1025,44 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
       </c>
       <c r="M8">
-        <v>46.417812300000001</v>
+        <v>0</v>
       </c>
       <c r="N8">
+        <v>46.4178123</v>
+      </c>
+      <c r="O8">
         <v>24.9703704</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
         <v>43550</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1095,41 +1070,44 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>91</v>
       </c>
       <c r="M9">
-        <v>46.417812300000001</v>
+        <v>0</v>
       </c>
       <c r="N9">
+        <v>46.4178123</v>
+      </c>
+      <c r="O9">
         <v>24.9703704</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
         <v>43550</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1137,41 +1115,44 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>90</v>
       </c>
       <c r="M10">
-        <v>45.860937499999999</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>25.788579599999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45.8609375</v>
+      </c>
+      <c r="O10">
+        <v>25.7885796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="B11" s="2">
         <v>43551</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1179,41 +1160,44 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>91</v>
       </c>
       <c r="M11">
-        <v>46.417812300000001</v>
+        <v>0</v>
       </c>
       <c r="N11">
+        <v>46.4178123</v>
+      </c>
+      <c r="O11">
         <v>24.9703704</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>43551</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1221,41 +1205,44 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>92</v>
       </c>
       <c r="M12">
-        <v>46.369557399999998</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>25.795365499999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>46.3695574</v>
+      </c>
+      <c r="O12">
+        <v>25.7953655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
         <v>43551</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1263,83 +1250,89 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>91</v>
       </c>
       <c r="M13">
-        <v>46.417812300000001</v>
+        <v>0</v>
       </c>
       <c r="N13">
+        <v>46.4178123</v>
+      </c>
+      <c r="O13">
         <v>24.9703704</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="B14" s="2">
         <v>43551</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>91</v>
       </c>
       <c r="M14">
-        <v>46.417812300000001</v>
+        <v>0</v>
       </c>
       <c r="N14">
+        <v>46.4178123</v>
+      </c>
+      <c r="O14">
         <v>24.9703704</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
         <v>43551</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1347,32 +1340,35 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1"/>
       <c r="B16" s="2">
         <v>43554</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1380,32 +1376,35 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1"/>
       <c r="B17" s="2">
         <v>43561</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>84</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1413,83 +1412,89 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>93</v>
       </c>
       <c r="M17">
-        <v>46.853258099999998</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>24.819102900000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>46.8532581</v>
+      </c>
+      <c r="O17">
+        <v>24.8191029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1"/>
       <c r="B18" s="2">
         <v>43562</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>2</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>14</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>94</v>
       </c>
       <c r="M18">
-        <v>46.334716999999998</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>25.009115600000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>46.334717</v>
+      </c>
+      <c r="O18">
+        <v>25.0091156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
         <v>43572</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1497,59 +1502,61 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>87</v>
       </c>
       <c r="M19">
-        <v>46.304999600000002</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>25.292647899999999</v>
+        <v>46.3049996</v>
+      </c>
+      <c r="O19">
+        <v>25.2926479</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="D5" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+    <hyperlink ref="D7" r:id="rId12"/>
+    <hyperlink ref="C8" r:id="rId13"/>
+    <hyperlink ref="D8" r:id="rId14"/>
+    <hyperlink ref="C9" r:id="rId15"/>
+    <hyperlink ref="D9" r:id="rId16"/>
+    <hyperlink ref="C10" r:id="rId17"/>
+    <hyperlink ref="D10" r:id="rId18"/>
+    <hyperlink ref="C11" r:id="rId19"/>
+    <hyperlink ref="D11" r:id="rId20"/>
+    <hyperlink ref="C12" r:id="rId21"/>
+    <hyperlink ref="D12" r:id="rId22"/>
+    <hyperlink ref="C13" r:id="rId23"/>
+    <hyperlink ref="D13" r:id="rId24"/>
+    <hyperlink ref="C14" r:id="rId25"/>
+    <hyperlink ref="D14" r:id="rId26"/>
+    <hyperlink ref="C15" r:id="rId27"/>
+    <hyperlink ref="D15" r:id="rId28"/>
+    <hyperlink ref="C16" r:id="rId29"/>
+    <hyperlink ref="D16" r:id="rId30"/>
+    <hyperlink ref="C17" r:id="rId31"/>
+    <hyperlink ref="D17" r:id="rId32"/>
+    <hyperlink ref="C18" r:id="rId33"/>
+    <hyperlink ref="D18" r:id="rId34"/>
+    <hyperlink ref="C19" r:id="rId35"/>
+    <hyperlink ref="D19" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/data/szekelyhon_data.xlsx
+++ b/data/szekelyhon_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skydrive\Github\szekelydata\medveterkep\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1E49A1-FDF5-4EF0-8293-F8506AE3427E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1170" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>date</t>
   </si>
@@ -61,51 +67,6 @@
     <t>checked</t>
   </si>
   <si>
-    <t>https://szekelyhon.ro/aktualis/meg-a-rokak-is-kerulik-az-udvarhelyhez-kozeli-uregbe-huzodott-bocsos-anyamedvet</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/elpusztult-az-ujszekely-hataraban-elgazolt-medvebocs</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/ujabb-bocsot-szabaditottak-ki-az-egyik-tusnadfurdoi-szemettarolobol</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/elesben-a-ro-alert-medve-miatt-riasztottak-a-lakossagot</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/nem-elte-tul-a-korispataki-medvetamadast-az-aldozat</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/engedelyezik-a-korispataki-ferfit-halalosan-megsebesito-medve-kiloveset</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/nyomozas-indult-a-halalos-medvetamadas-miatt</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/ha-blecsillapodikr-a-korispataki-medve-nem-lesz-indokolt-a-kilovese</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/a-medvehelyzet-visszassagaira-hivjak-fel-a-figyelmet-minden-termeszetjaro-potencialis-aldozat</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/adomanygyujtes-a-korispataki-medvetamadasban-arvan-maradt-gyerekek-eletkorulmenyeinek-jobba-teteleert</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/villanypasztort-szereltek-a-csikszeredai-megyei-surgossegi-korhaz-kore</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/neveloszulot-keresnek-a-medvetamadas-miatt-felarvan-maradt-ket-kiskoru-felnevelesere</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/video-a-medverol-es-a-tamadas-helyszinerol</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/sokamedve</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/szekelyfoldi-medveradar-n-terkepen-osszegzik-a-nagyvad-eszlelesenek-helyeit</t>
-  </si>
-  <si>
     <t>https://szekelyhon.ro/aktualis/medvetamadasok-utan-helyszini-terepszemlet-tart-a-prefektus</t>
   </si>
   <si>
@@ -115,105 +76,72 @@
     <t>https://szekelyhon.ro/aktualis/legalabb-tizenot-medve-jar-be-szekelyudvarhelyre</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/12_januar/sm_medveveszely-budvar-ba-13.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/10_marcius/sm_medvebocs-ujszekely-hmt02.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/01_kiemelesek/sm_medve_tusnadfurdo_mti_veres-2.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/04_szeptember/02/sm_ro-alert-gn_-5.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/05_augusztus/sm_mentoauto-ba-1.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2013/09_aprilis/sm_fegyver-vn-009.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-60.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/10_marcius/01/sm_medve-korispatak-ba-3.jpg</t>
+    <t>https://szekelyhon.ro/aktualis/celkeresztbe-kerulhet-a-szentabrahamon-juhokat-elpusztito-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/fenykeppel-nyomatekositjak-csak-ovatosan-mert-medvek-vannak</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/korabbi-elohelyen-engedtek-szabadon-a-tavaly-elutott-medvebocsot</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medve-tamadt-egy-madarasi-juhaszra</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/szurkulettel-jovo-felelem-harombocsos-medvetol-rettegnek-a-bardosiak</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/faklyaval-igyekeznek-elriasztani-a-medvet-amig-ki-nem-lohetik</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tovabballt-az-agyagdombi-medvecsalad</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kamerafelvetelek-nyomok-barlangok-n-igy-szamoljak-a-vadakat</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/gyerekek-kozelebol-kergettek-el-a-medveket-1</t>
   </si>
   <si>
     <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medvek-pixabay.jpg</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/10_marcius/01/sm_medve-korispatak-ba-6.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/10_marcius/sm_villanypasztor-korhaz-01.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/10_marcius/01/sm_medve-korisp-ba-6.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-90.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-56.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/2018-kepvalogatas/sm_or_medve-kiloves-remete-ba-17.jpg</t>
-  </si>
-  <si>
     <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medvekar-szentabraham-2k19_aprilis_05.jpg</t>
   </si>
   <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/06_julius/sm_medvecsapda-3-ba-3.jpg</t>
   </si>
   <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/08_majus/01/sm_medve-kiloves-remete-ba-9.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medve1-kamera-koronka.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-66.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/09_aprilis/sm_mentoauto-illusztracionak-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/07_junius/02/sm_medveles-bogoz-ba-29.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2016/10_marcius/sm_faklyas-felvo-marc15-ab-19.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/08_majus/01/sm_budvari-medve-ba-5.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/123rf/2019/sm_hiuz-123rf-1.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/08_majus/02/sm_sanyi-a-medve-elszallitasa-pnt-8.jpg</t>
+  </si>
+  <si>
     <t>Székelyhon</t>
   </si>
   <si>
-    <t>Még a rókák is kerülik az Udvarhelyhez közeli üregbe húzódott bocsos anyamedvét</t>
-  </si>
-  <si>
-    <t>Elpusztult az Újszékely határában elgázolt medvebocs</t>
-  </si>
-  <si>
-    <t>Újabb bocsot szabadítottak ki az egyik tusnádfürdői szeméttárolóból</t>
-  </si>
-  <si>
-    <t>Élesben a Ro-Alert: medve miatt riasztották a lakosságot</t>
-  </si>
-  <si>
-    <t>Nem élte túl a kőrispataki medvetámadást az áldozat</t>
-  </si>
-  <si>
-    <t>Engedélyezik a kőrispataki férfit halálosan megsebesítő medve kilövését</t>
-  </si>
-  <si>
-    <t>Nyomozás indult a halálos medvetámadás miatt</t>
-  </si>
-  <si>
-    <t>Ha „lecsillapodik” a kőrispataki medve, nem lesz indokolt a kilövése</t>
-  </si>
-  <si>
-    <t>A medvehelyzet visszásságaira hívják fel a figyelmet: minden természetjáró potenciális áldozat</t>
-  </si>
-  <si>
-    <t>Adománygyűjtés a kőrispataki medvetámadásban árván maradt gyerekek életkörülményeinek jobbá tételéért</t>
-  </si>
-  <si>
-    <t>Villanypásztort szereltek a Csíkszeredai Megyei Sürgősségi Kórház köré</t>
-  </si>
-  <si>
-    <t>Nevelőszülőt keresnek a medvetámadás miatt félárván maradt két kiskorú felnevelésére</t>
-  </si>
-  <si>
-    <t>Videó a kőrispataki medvéről és a támadás helyszínéről</t>
-  </si>
-  <si>
-    <t>#Sokamedve</t>
-  </si>
-  <si>
-    <t>Székelyföldi medveradar – térképen összegzik a nagyvad észlelésének helyeit</t>
-  </si>
-  <si>
     <t>Medvetámadások után helyszíni terepszemlét tart a prefektus</t>
   </si>
   <si>
@@ -223,49 +151,31 @@
     <t>Legalább tizenöt medve jár be Székelyudvarhelyre</t>
   </si>
   <si>
-    <t>A későbbiekben is érdemes elkerülni a Székelyudvarhely határában lévő Agyagdomb környékét, hiszen jó eséllyel még az üregében van a veszélyesnek számító bocsos anyamedve. A vadászok a megfelelő időpontot várják az elköltöztetésre.</t>
-  </si>
-  <si>
-    <t>Egyedül bóklászó egyéves medvebocsot gázolt el egy autó péntekre virradóan Újszékely határában. A vadállat az ütközést követően elpusztult – számol be a Hargita megyei önkormányzat sajtóirodája.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ismét medvebiztos szeméttárolóba rekedt egy bocs szerdára virradóan a tusnádfürdői vasútállomás közelében. A vadállatot a Hargita megyei csendőrök szabadították ki, miután az anyamedvét többször is elriasztották a helyszínről. </t>
-  </si>
-  <si>
-    <t>A Ro-Alert riasztórendszeren keresztül figyelmeztették szerdán reggel a hatóságok a sepsiszentgyörgyieket, hogy medve kószál a városban.</t>
-  </si>
-  <si>
-    <t>Rárontott és súlyosan megsebesített egy medve egy kőrispataki férfit a település határában pénteken délben. Az áldozat mentőbe került, de a kórházba szállítás közben életét vesztette.</t>
-  </si>
-  <si>
-    <t>Ha a környezetvédelmi minisztérium megkapja a Hubertus Vadásztársaság kérését, engedélyezik annak a veszélyes medvének a kilövését, amely pénteken halálosan megsebesített egy 35 éves családapát.</t>
-  </si>
-  <si>
-    <t>A rendőrségi vizsgálatok szerint a Kőrispatakon halálos sérüléseket szenvedett férfit nem váratlanul támadta meg egy bocsos medve, az áldozat maga ment a vadállat rejtekhelyéhez, amit meg is dobált. A rendőrség azt is közölte, hogy az áldozat alkoholos befolyásoltság alatt állt.</t>
-  </si>
-  <si>
-    <t>Még várni kell a kőrispataki halálos kimenetelű medvetámadás kapcsán kért kilövési engedély elbírálására. A Hargita Megyei Környezetvédelmi Ügynökség keddi szakvéleményezésében ugyanis türelmi időt kért a minisztériumtól, hogy megfigyelhessék a medve viselkedését.</t>
-  </si>
-  <si>
-    <t>Egyre több lesz a vadkár és az áldozat a háromszéki vadásztársaságok vezetői szerint, ha a hatóságok nem alkalmazzák a törvényt a medvék jelentette veszély elhárítására. Közölték, az elszaporodott ragadozók egyre szokatlanabbul viselkednek, a bukaresti illetékesek pedig gúnyt űznek a lakosok panaszaiból.</t>
-  </si>
-  <si>
-    <t>Két gyerek maradt árván a pénteki kőrispataki medvetámadást követően. Megsegítésükre széleskörű adománygyűjtést szerveztek, hogy megfelelő életkörülményeket lehessen biztosítani számukra.</t>
-  </si>
-  <si>
-    <t>Villanypásztort szereltek fel a Csíkszeredai Megyei Sürgősségi Kórház körül húzódó kerítésre kedden. Az eszköz az intézmény területére korábban több alkalommal behatoló medvéket hivatott távol tartani.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A napokban hoz döntést a kőrispataki medvetámadás miatt félárván maradt két kiskorú elhelyezéséről a Hargita Megyei Szociális és Gyermekvédelmi Igazgatóság. </t>
-  </si>
-  <si>
-    <t>Videót készített a kőrispataki medvéről, a barlangjáról és a pénteki medvetámadás helyszínéről a Hubertus Vadásztársaság igazgatója. A felvétel azonban hamar megszakad, ugyanis az állat a köztük lévő mély árkot megkerülve a vadászok felé rohan.</t>
-  </si>
-  <si>
-    <t>Teljesen értelmetlen médiaháborúba fordult a kőrispataki medvetámadás ügye. A tragikus esetet, mint minden medvés hírt Borboly Csaba adta közre a Facebook-oldalán.</t>
-  </si>
-  <si>
-    <t>Az egyre szaporodó medvekárok ihlették meg Csala Dénes adatbloggert, hogy elkészítse a Székelydata oldalán működő medveészlelőt. Egy olyan térkép készül, amelyből majd kiderül, hol van nagy esélyük az embereknek a nagyvaddal való találkozásra.</t>
+    <t>Célkeresztbe kerülhet a Szentábrahámon juhokat elpusztító medve</t>
+  </si>
+  <si>
+    <t>Fényképpel nyomatékosítják, csak óvatosan, mert medvék vannak</t>
+  </si>
+  <si>
+    <t>Korábbi élőhelyén engedték szabadon a tavaly elütött medvebocsot</t>
+  </si>
+  <si>
+    <t>Medve támadt egy madarasi juhászra</t>
+  </si>
+  <si>
+    <t>Szürkülettel jövő félelem: hárombocsos medvétől rettegnek a bárdosiak</t>
+  </si>
+  <si>
+    <t>Fáklyával igyekeznek elriasztani a medvét, amíg ki nem lőhetik</t>
+  </si>
+  <si>
+    <t>Továbbállt az agyagdombi medvecsalád</t>
+  </si>
+  <si>
+    <t>Kamerafelvételek, nyomok, barlangok – így számolják a vadakat</t>
+  </si>
+  <si>
+    <t>Gyerekek közeléből kergették el a medvéket</t>
   </si>
   <si>
     <t>Két medvetámadás történt tíz nap alatt Maros megyében. A Szászrégen melletti Idecsen egy pásztorfiút sebesítette meg a nagyvad, a Görgény völgyében pedig két erdészeti szakmunkásra támadott a medve: az egyiknek a combjába harapott bele a medve, majd el akarta vonszolni, a másikat a hátán karmolta meg.</t>
@@ -277,38 +187,74 @@
     <t>Idén már tizenöt olyan medvét azonosított be a Nagy-Küküllő Vadász- és Sporthorgász-egyesület, amelyek bejártak Székelyudvarhelyre, ezért óvatosságra intik a lakókat. Az Agyagdomb közelében lebocsozott nagyvad pedig még jó eséllyel az üregében van.</t>
   </si>
   <si>
+    <t>A Szentábrahámon juhokat elpusztító medve is kilövésre kerülhet rövidesen, ugyanis az illetékes vadásztársaság szóban már ígéretet kapott a környezetvédelmi tárcától a garázdálkodó egyed ártalmatlanításának jóváhagyására.</t>
+  </si>
+  <si>
+    <t>Marosvásárhely szomszédságában, a jeddi, koronkai és székelybósi erdőkben kaptak lencsevégre több medvét az elmúlt napokban.</t>
+  </si>
+  <si>
+    <t>Szabadon engedték azt a medvebocsot, amelyet tavaly ősszel a háromszéki Sepsibükszád közelében ütött el a vonat. A bocs súlyosan megsérült, ám a sürgős beavatkozásnak köszönhetően sikerült az életét megmenteni.</t>
+  </si>
+  <si>
+    <t>Legeltetés közben támadt egy 52 éves csíkmadarasi juhászra egy medve szerda délután egy esztena közelében.</t>
+  </si>
+  <si>
+    <t>Elkergették, de visszajött a Marosszentannához tartozó Bárdosra egy anyamedve három kis boccsal. A lakók félnek, a vadásztársaság sötétedéskor járőrözik, hogy védje az embereket.</t>
+  </si>
+  <si>
+    <t>A minisztérium illetékeseinek szóbeli ígéretei ellenére nem kapott még kilövési engedélyt a Szentábrahámon garázdálkodó medvére a Hubertus Vadásztársaság.</t>
+  </si>
+  <si>
+    <t>Üresen találták a vadászok nemrég a székelyudvarhelyi Agyagdombon lebocsozó anyamedve üregét. A nyomokból és a szemtanúk beszámolójából úgy ítélték meg, hogy jelenleg a Szejkefürdő határában lévő erdőben lehetnek a nagyvadak.</t>
+  </si>
+  <si>
+    <t>Vadszámlálást végeznek a medvék, hiúzok és vadmacskák esetében. Azt már most tudni, hogy az országban Maros megyében van a legtöbb hiúz, az általunk megkérdezett szakértő azt is elmondta, hogy miért.</t>
+  </si>
+  <si>
+    <t>Egy kétbocsos anyamedve miatt riasztották kedd délután a Szent Anna-tóhoz a csendőröket: a vadállatok egy csoport gyereket közelítettek meg. Két órával később egy másik medve is felbukkant Tusnádfürdő határában.</t>
+  </si>
+  <si>
+    <t>Szászrégen</t>
+  </si>
+  <si>
+    <t>Szentábrahám</t>
+  </si>
+  <si>
     <t>Székelyudvarhely</t>
   </si>
   <si>
-    <t>Újszékely</t>
+    <t>Jedd</t>
+  </si>
+  <si>
+    <t>Koronka</t>
+  </si>
+  <si>
+    <t>Székelybós</t>
+  </si>
+  <si>
+    <t>Sepsibükszád</t>
+  </si>
+  <si>
+    <t>Csíkmadaras</t>
+  </si>
+  <si>
+    <t>Marosszentanna</t>
   </si>
   <si>
     <t>Tusnádfürdő</t>
   </si>
   <si>
-    <t>Sepsiszentgyörgy</t>
-  </si>
-  <si>
-    <t>Kőrispatak</t>
-  </si>
-  <si>
-    <t>Csíkszereda</t>
-  </si>
-  <si>
-    <t>Idecspatak</t>
-  </si>
-  <si>
-    <t>Szentábrahám</t>
+    <t>Szent Anna-tó</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,6 +331,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -431,7 +385,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,9 +417,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,6 +469,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -672,14 +662,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:O16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -726,31 +721,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
-        <v>43530</v>
+        <v>43561</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -759,88 +754,88 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>46.3049996</v>
+        <v>46.771093100000002</v>
       </c>
       <c r="O2">
-        <v>25.2926479</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>24.700762000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
-        <v>43540</v>
+        <v>43562</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>46.2608366</v>
+        <v>46.334716999999998</v>
       </c>
       <c r="O3">
-        <v>24.9731894</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>25.009115600000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
-        <v>43544</v>
+        <v>43572</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -849,37 +844,37 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>46.1460752</v>
+        <v>46.304999600000002</v>
       </c>
       <c r="O4">
-        <v>25.8569589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>25.292647899999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
-        <v>43544</v>
+        <v>43587</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -894,88 +889,88 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>45.8609375</v>
+        <v>46.334716999999998</v>
       </c>
       <c r="O5">
-        <v>25.7885796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>25.009115600000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
-        <v>43546</v>
+        <v>43587</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>46.4178123</v>
+        <v>46.549011399999998</v>
       </c>
       <c r="O6">
-        <v>24.9703704</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>24.628958399999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
-        <v>43547</v>
+        <v>43587</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
         <v>56</v>
       </c>
-      <c r="G7" t="s">
-        <v>74</v>
-      </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -984,43 +979,43 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>46.4178123</v>
+        <v>46.520620299999997</v>
       </c>
       <c r="O7">
-        <v>24.9703704</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>24.618893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
-        <v>43549</v>
+        <v>43587</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
-        <v>50</v>
-      </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1029,37 +1024,37 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>46.4178123</v>
+        <v>46.531350099999997</v>
       </c>
       <c r="O8">
-        <v>24.9703704</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>24.669752200000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
-        <v>43550</v>
+        <v>43599</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1074,43 +1069,43 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>46.4178123</v>
+        <v>46.0077474</v>
       </c>
       <c r="O9">
-        <v>24.9703704</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>25.841102599999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
-        <v>43550</v>
+        <v>43600</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1119,43 +1114,43 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>45.8609375</v>
+        <v>46.493200700000003</v>
       </c>
       <c r="O10">
-        <v>25.7885796</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>25.745834899999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2">
-        <v>43551</v>
+        <v>43600</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1164,37 +1159,37 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>46.4178123</v>
+        <v>46.581355000000002</v>
       </c>
       <c r="O11">
-        <v>24.9703704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24.554603400000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
-        <v>43551</v>
+        <v>43600</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1209,37 +1204,37 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>46.3695574</v>
+        <v>46.334716999999998</v>
       </c>
       <c r="O12">
-        <v>25.7953655</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25.009115600000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
-        <v>43551</v>
+        <v>43609</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1254,43 +1249,43 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>46.4178123</v>
+        <v>46.304999600000002</v>
       </c>
       <c r="O13">
-        <v>24.9703704</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>25.292647899999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2">
-        <v>43551</v>
+        <v>43610</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
-        <v>63</v>
-      </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1298,44 +1293,35 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14" t="s">
-        <v>91</v>
-      </c>
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14">
-        <v>46.4178123</v>
-      </c>
-      <c r="O14">
-        <v>24.9703704</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
-        <v>43551</v>
+        <v>43613</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1343,35 +1329,44 @@
       <c r="K15">
         <v>0</v>
       </c>
+      <c r="L15" t="s">
+        <v>73</v>
+      </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="N15">
+        <v>46.146075199999999</v>
+      </c>
+      <c r="O15">
+        <v>25.856958899999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2">
-        <v>43554</v>
+        <v>43613</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1379,184 +1374,47 @@
       <c r="K16">
         <v>0</v>
       </c>
+      <c r="L16" t="s">
+        <v>74</v>
+      </c>
       <c r="M16">
         <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2">
-        <v>43561</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>93</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>46.8532581</v>
-      </c>
-      <c r="O17">
-        <v>24.8191029</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2">
-        <v>43562</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18">
-        <v>14</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>94</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>46.334717</v>
-      </c>
-      <c r="O18">
-        <v>25.0091156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2">
-        <v>43572</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>46.3049996</v>
-      </c>
-      <c r="O19">
-        <v>25.2926479</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
-    <hyperlink ref="C4" r:id="rId5"/>
-    <hyperlink ref="D4" r:id="rId6"/>
-    <hyperlink ref="C5" r:id="rId7"/>
-    <hyperlink ref="D5" r:id="rId8"/>
-    <hyperlink ref="C6" r:id="rId9"/>
-    <hyperlink ref="D6" r:id="rId10"/>
-    <hyperlink ref="C7" r:id="rId11"/>
-    <hyperlink ref="D7" r:id="rId12"/>
-    <hyperlink ref="C8" r:id="rId13"/>
-    <hyperlink ref="D8" r:id="rId14"/>
-    <hyperlink ref="C9" r:id="rId15"/>
-    <hyperlink ref="D9" r:id="rId16"/>
-    <hyperlink ref="C10" r:id="rId17"/>
-    <hyperlink ref="D10" r:id="rId18"/>
-    <hyperlink ref="C11" r:id="rId19"/>
-    <hyperlink ref="D11" r:id="rId20"/>
-    <hyperlink ref="C12" r:id="rId21"/>
-    <hyperlink ref="D12" r:id="rId22"/>
-    <hyperlink ref="C13" r:id="rId23"/>
-    <hyperlink ref="D13" r:id="rId24"/>
-    <hyperlink ref="C14" r:id="rId25"/>
-    <hyperlink ref="D14" r:id="rId26"/>
-    <hyperlink ref="C15" r:id="rId27"/>
-    <hyperlink ref="D15" r:id="rId28"/>
-    <hyperlink ref="C16" r:id="rId29"/>
-    <hyperlink ref="D16" r:id="rId30"/>
-    <hyperlink ref="C17" r:id="rId31"/>
-    <hyperlink ref="D17" r:id="rId32"/>
-    <hyperlink ref="C18" r:id="rId33"/>
-    <hyperlink ref="D18" r:id="rId34"/>
-    <hyperlink ref="C19" r:id="rId35"/>
-    <hyperlink ref="D19" r:id="rId36"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/data/szekelyhon_data.xlsx
+++ b/data/szekelyhon_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skydrive\Github\szekelydata\medveterkep\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1E49A1-FDF5-4EF0-8293-F8506AE3427E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15C69EE-1A23-482B-BEFA-D7E19EDBE9F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>date</t>
   </si>
@@ -67,21 +67,12 @@
     <t>checked</t>
   </si>
   <si>
-    <t>https://szekelyhon.ro/aktualis/medvetamadasok-utan-helyszini-terepszemlet-tart-a-prefektus</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/halomra-olte-a-birkakat-a-medve</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/legalabb-tizenot-medve-jar-be-szekelyudvarhelyre</t>
+    <t>https://szekelyhon.ro/aktualis/fenykeppel-nyomatekositjak-csak-ovatosan-mert-medvek-vannak</t>
   </si>
   <si>
     <t>https://szekelyhon.ro/aktualis/celkeresztbe-kerulhet-a-szentabrahamon-juhokat-elpusztito-medve</t>
   </si>
   <si>
-    <t>https://szekelyhon.ro/aktualis/fenykeppel-nyomatekositjak-csak-ovatosan-mert-medvek-vannak</t>
-  </si>
-  <si>
     <t>https://szekelyhon.ro/aktualis/korabbi-elohelyen-engedtek-szabadon-a-tavaly-elutott-medvebocsot</t>
   </si>
   <si>
@@ -97,27 +88,24 @@
     <t>https://szekelyhon.ro/aktualis/tovabballt-az-agyagdombi-medvecsalad</t>
   </si>
   <si>
+    <t>https://szekelyhon.ro/aktualis/gyerekek-kozelebol-kergettek-el-a-medveket-1</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/turistakra-tamadt-a-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medve-szentegyhaza-hataraban</t>
+  </si>
+  <si>
     <t>https://szekelyhon.ro/aktualis/kamerafelvetelek-nyomok-barlangok-n-igy-szamoljak-a-vadakat</t>
   </si>
   <si>
-    <t>https://szekelyhon.ro/aktualis/gyerekek-kozelebol-kergettek-el-a-medveket-1</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medvek-pixabay.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medvekar-szentabraham-2k19_aprilis_05.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/06_julius/sm_medvecsapda-3-ba-3.jpg</t>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medve1-kamera-koronka.jpg</t>
   </si>
   <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/08_majus/01/sm_medve-kiloves-remete-ba-9.jpg</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medve1-kamera-koronka.jpg</t>
-  </si>
-  <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-66.jpg</t>
   </si>
   <si>
@@ -133,30 +121,27 @@
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/08_majus/01/sm_budvari-medve-ba-5.jpg</t>
   </si>
   <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/08_majus/02/sm_sanyi-a-medve-elszallitasa-pnt-8.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/08_majus/02/sm_sanyi-a-medve-elszallitasa-pnt-6.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medve-szentegyhaza.jpg</t>
+  </si>
+  <si>
     <t>https://media.szekelyhon.ro/pictures/123rf/2019/sm_hiuz-123rf-1.jpg</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/08_majus/02/sm_sanyi-a-medve-elszallitasa-pnt-8.jpg</t>
-  </si>
-  <si>
     <t>Székelyhon</t>
   </si>
   <si>
-    <t>Medvetámadások után helyszíni terepszemlét tart a prefektus</t>
-  </si>
-  <si>
-    <t>Halomra ölte a birkákat a medve</t>
-  </si>
-  <si>
-    <t>Legalább tizenöt medve jár be Székelyudvarhelyre</t>
+    <t>Fényképpel nyomatékosítják, csak óvatosan, mert medvék vannak</t>
   </si>
   <si>
     <t>Célkeresztbe kerülhet a Szentábrahámon juhokat elpusztító medve</t>
   </si>
   <si>
-    <t>Fényképpel nyomatékosítják, csak óvatosan, mert medvék vannak</t>
-  </si>
-  <si>
     <t>Korábbi élőhelyén engedték szabadon a tavaly elütött medvebocsot</t>
   </si>
   <si>
@@ -172,27 +157,24 @@
     <t>Továbbállt az agyagdombi medvecsalád</t>
   </si>
   <si>
+    <t>Gyerekek közeléből kergették el a medvéket</t>
+  </si>
+  <si>
+    <t>Turistákra támadt a medve</t>
+  </si>
+  <si>
+    <t>Medve Szentegyháza határában</t>
+  </si>
+  <si>
     <t>Kamerafelvételek, nyomok, barlangok – így számolják a vadakat</t>
   </si>
   <si>
-    <t>Gyerekek közeléből kergették el a medvéket</t>
-  </si>
-  <si>
-    <t>Két medvetámadás történt tíz nap alatt Maros megyében. A Szászrégen melletti Idecsen egy pásztorfiút sebesítette meg a nagyvad, a Görgény völgyében pedig két erdészeti szakmunkásra támadott a medve: az egyiknek a combjába harapott bele a medve, majd el akarta vonszolni, a másikat a hátán karmolta meg.</t>
-  </si>
-  <si>
-    <t>Tizennégy juhot pusztított el, illetve sebesített meg egy medve vasárnapra virradóan Szentábrahámon. A nagyvad már korábban is garázdálkodott a településen, de az illetékes vadásztársaság akkor nem kapott kilövési engedélyt rá.</t>
-  </si>
-  <si>
-    <t>Idén már tizenöt olyan medvét azonosított be a Nagy-Küküllő Vadász- és Sporthorgász-egyesület, amelyek bejártak Székelyudvarhelyre, ezért óvatosságra intik a lakókat. Az Agyagdomb közelében lebocsozott nagyvad pedig még jó eséllyel az üregében van.</t>
+    <t>Marosvásárhely szomszédságában, a jeddi, koronkai és székelybósi erdőkben kaptak lencsevégre több medvét az elmúlt napokban.</t>
   </si>
   <si>
     <t>A Szentábrahámon juhokat elpusztító medve is kilövésre kerülhet rövidesen, ugyanis az illetékes vadásztársaság szóban már ígéretet kapott a környezetvédelmi tárcától a garázdálkodó egyed ártalmatlanításának jóváhagyására.</t>
   </si>
   <si>
-    <t>Marosvásárhely szomszédságában, a jeddi, koronkai és székelybósi erdőkben kaptak lencsevégre több medvét az elmúlt napokban.</t>
-  </si>
-  <si>
     <t>Szabadon engedték azt a medvebocsot, amelyet tavaly ősszel a háromszéki Sepsibükszád közelében ütött el a vonat. A bocs súlyosan megsérült, ám a sürgős beavatkozásnak köszönhetően sikerült az életét megmenteni.</t>
   </si>
   <si>
@@ -208,43 +190,52 @@
     <t>Üresen találták a vadászok nemrég a székelyudvarhelyi Agyagdombon lebocsozó anyamedve üregét. A nyomokból és a szemtanúk beszámolójából úgy ítélték meg, hogy jelenleg a Szejkefürdő határában lévő erdőben lehetnek a nagyvadak.</t>
   </si>
   <si>
+    <t>Egy kétbocsos anyamedve miatt riasztották kedd délután a Szent Anna-tóhoz a csendőröket: a vadállatok egy csoport gyereket közelítettek meg. Két órával később egy másik medve is felbukkant Tusnádfürdő határában.</t>
+  </si>
+  <si>
+    <t>Két külföldi turistára támadt a medve szerdán a Fogarasi-havasokban – számol be az Agerpres hírügynökség.</t>
+  </si>
+  <si>
+    <t>Nem kis fennakadást okozott egy medve Szentegyháza közelében pénteken, a déli órákban, hiszen több turista és zarándok is megállt az úton, hogy lencsevégre kaphassa.</t>
+  </si>
+  <si>
     <t>Vadszámlálást végeznek a medvék, hiúzok és vadmacskák esetében. Azt már most tudni, hogy az országban Maros megyében van a legtöbb hiúz, az általunk megkérdezett szakértő azt is elmondta, hogy miért.</t>
   </si>
   <si>
-    <t>Egy kétbocsos anyamedve miatt riasztották kedd délután a Szent Anna-tóhoz a csendőröket: a vadállatok egy csoport gyereket közelítettek meg. Két órával később egy másik medve is felbukkant Tusnádfürdő határában.</t>
-  </si>
-  <si>
-    <t>Szászrégen</t>
+    <t>Marosvásárhely</t>
+  </si>
+  <si>
+    <t>Jedd</t>
+  </si>
+  <si>
+    <t>Koronka</t>
+  </si>
+  <si>
+    <t>Székelybós</t>
   </si>
   <si>
     <t>Szentábrahám</t>
   </si>
   <si>
+    <t>Sepsibükszád</t>
+  </si>
+  <si>
+    <t>Csíkmadaras</t>
+  </si>
+  <si>
+    <t>Bárdos</t>
+  </si>
+  <si>
     <t>Székelyudvarhely</t>
   </si>
   <si>
-    <t>Jedd</t>
-  </si>
-  <si>
-    <t>Koronka</t>
-  </si>
-  <si>
-    <t>Székelybós</t>
-  </si>
-  <si>
-    <t>Sepsibükszád</t>
-  </si>
-  <si>
-    <t>Csíkmadaras</t>
-  </si>
-  <si>
-    <t>Marosszentanna</t>
-  </si>
-  <si>
     <t>Tusnádfürdő</t>
   </si>
   <si>
-    <t>Szent Anna-tó</t>
+    <t>Fogarasi havasok</t>
+  </si>
+  <si>
+    <t>Szentegyháza</t>
   </si>
 </sst>
 </file>
@@ -663,15 +654,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:O16"/>
+      <selection activeCell="F14" sqref="A1:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -724,28 +715,28 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
-        <v>43561</v>
+        <v>43587</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -754,88 +745,88 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>46.771093100000002</v>
+        <v>46.538586199999997</v>
       </c>
       <c r="O2">
-        <v>24.700762000000001</v>
+        <v>24.551439200000001</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
-        <v>43562</v>
+        <v>43587</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>46.334716999999998</v>
+        <v>46.549011399999998</v>
       </c>
       <c r="O3">
-        <v>25.009115600000001</v>
+        <v>24.628958399999998</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
-        <v>43572</v>
+        <v>43587</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -844,16 +835,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>46.304999600000002</v>
+        <v>46.520620299999997</v>
       </c>
       <c r="O4">
-        <v>25.292647899999999</v>
+        <v>24.618893</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -862,25 +853,25 @@
         <v>43587</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -889,16 +880,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>46.334716999999998</v>
+        <v>46.531350099999997</v>
       </c>
       <c r="O5">
-        <v>25.009115600000001</v>
+        <v>24.669752200000001</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -907,25 +898,25 @@
         <v>43587</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -934,43 +925,43 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>46.549011399999998</v>
+        <v>46.334716999999998</v>
       </c>
       <c r="O6">
-        <v>24.628958399999998</v>
+        <v>25.009115600000001</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
-        <v>43587</v>
+        <v>43599</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -979,43 +970,43 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>46.520620299999997</v>
+        <v>46.0077474</v>
       </c>
       <c r="O7">
-        <v>24.618893</v>
+        <v>25.841102599999999</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
-        <v>43587</v>
+        <v>43600</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1024,43 +1015,43 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>46.531350099999997</v>
+        <v>46.493200700000003</v>
       </c>
       <c r="O8">
-        <v>24.669752200000001</v>
+        <v>25.745834899999998</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1069,16 +1060,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M9">
         <v>0</v>
-      </c>
-      <c r="N9">
-        <v>46.0077474</v>
-      </c>
-      <c r="O9">
-        <v>25.841102599999999</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1087,25 +1072,25 @@
         <v>43600</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1114,43 +1099,43 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>46.493200700000003</v>
+        <v>46.334716999999998</v>
       </c>
       <c r="O10">
-        <v>25.745834899999998</v>
+        <v>25.009115600000001</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2">
-        <v>43600</v>
+        <v>43609</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1159,43 +1144,43 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>46.581355000000002</v>
+        <v>46.304999600000002</v>
       </c>
       <c r="O11">
-        <v>24.554603400000001</v>
+        <v>25.292647899999999</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
-        <v>43600</v>
+        <v>43613</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1204,43 +1189,43 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>46.334716999999998</v>
+        <v>46.146075199999999</v>
       </c>
       <c r="O12">
-        <v>25.009115600000001</v>
+        <v>25.856958899999999</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
-        <v>43609</v>
+        <v>43615</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1249,43 +1234,37 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M13">
         <v>0</v>
-      </c>
-      <c r="N13">
-        <v>46.304999600000002</v>
-      </c>
-      <c r="O13">
-        <v>25.292647899999999</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2">
-        <v>43610</v>
+        <v>43623</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1293,35 +1272,44 @@
       <c r="K14">
         <v>0</v>
       </c>
+      <c r="L14" t="s">
+        <v>71</v>
+      </c>
       <c r="M14">
         <v>0</v>
+      </c>
+      <c r="N14">
+        <v>46.326699400000003</v>
+      </c>
+      <c r="O14">
+        <v>25.514806799999999</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
-        <v>43613</v>
+        <v>43625</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1329,55 +1317,7 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15" t="s">
-        <v>73</v>
-      </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>46.146075199999999</v>
-      </c>
-      <c r="O15">
-        <v>25.856958899999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2">
-        <v>43613</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>74</v>
-      </c>
-      <c r="M16">
         <v>0</v>
       </c>
     </row>
@@ -1411,10 +1351,8 @@
     <hyperlink ref="D14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="C15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="D15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/data/szekelyhon_data.xlsx
+++ b/data/szekelyhon_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skydrive\Github\szekelydata\medveterkep\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csala\OneDrive\Github\szekelydata\medveterkep\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15C69EE-1A23-482B-BEFA-D7E19EDBE9F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE25F9AB-14B4-49F0-B90D-CC60FB4746F6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1785" yWindow="5595" windowWidth="27900" windowHeight="20745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="240">
   <si>
     <t>date</t>
   </si>
@@ -67,175 +67,679 @@
     <t>checked</t>
   </si>
   <si>
-    <t>https://szekelyhon.ro/aktualis/fenykeppel-nyomatekositjak-csak-ovatosan-mert-medvek-vannak</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/celkeresztbe-kerulhet-a-szentabrahamon-juhokat-elpusztito-medve</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/korabbi-elohelyen-engedtek-szabadon-a-tavaly-elutott-medvebocsot</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/medve-tamadt-egy-madarasi-juhaszra</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/szurkulettel-jovo-felelem-harombocsos-medvetol-rettegnek-a-bardosiak</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/faklyaval-igyekeznek-elriasztani-a-medvet-amig-ki-nem-lohetik</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/tovabballt-az-agyagdombi-medvecsalad</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/gyerekek-kozelebol-kergettek-el-a-medveket-1</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/turistakra-tamadt-a-medve</t>
-  </si>
-  <si>
     <t>https://szekelyhon.ro/aktualis/medve-szentegyhaza-hataraban</t>
   </si>
   <si>
-    <t>https://szekelyhon.ro/aktualis/kamerafelvetelek-nyomok-barlangok-n-igy-szamoljak-a-vadakat</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medve1-kamera-koronka.jpg</t>
+    <t>https://szekelyhon.ro/aktualis/amikor-farkas-provokalja-a-medveket</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvebocsot-kinoztak-eljaras-indul-ellenuk</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvecsalad-bukkant-fel-csikszentimre-hataraban</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/semmi-kulonos-csak-a-szekely-eteti-a-medvet-az-uton</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tulelte-a-gazolast-a-brasso-hataraban-elutott-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ime-a-vitatema-megszamoltak-a-medveket</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medve-szentegyhaza.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_farkasmedvetalalkozas-01.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-80.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_medvek-szentimren.png</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/09_kiemelesek/sm_medve-etetes.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/123rf/2018/sm_rendorseg-szirena-baleset-123rf.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-7.jpg</t>
+  </si>
+  <si>
+    <t>Székelyhon</t>
+  </si>
+  <si>
+    <t>Medve Szentegyháza határában</t>
+  </si>
+  <si>
+    <t>Amikor farkas provokálja a medvéket</t>
+  </si>
+  <si>
+    <t>Medvebocsot kínoztak, eljárás indul ellenük</t>
+  </si>
+  <si>
+    <t>Medvecsalád bukkant fel Csíkszentimre határában</t>
+  </si>
+  <si>
+    <t>Semmi különös, csak a székely eteti a medvét az úton</t>
+  </si>
+  <si>
+    <t>Túlélte a gázolást a Brassó határában elütött medve</t>
+  </si>
+  <si>
+    <t>Íme, a vitatéma: megszámolták a medvéket</t>
+  </si>
+  <si>
+    <t>Nem kis fennakadást okozott egy medve Szentegyháza közelében pénteken, a déli órákban, hiszen több turista és zarándok is megállt az úton, hogy lencsevégre kaphassa.</t>
+  </si>
+  <si>
+    <t>Rendhagyó videófelvételt küldött szerkesztőségünknek egy olvasónk: a Sepsibükszád melletti medvelesnél múlt pénteken készült képsorokon az látható, amint egy fiatal farkas két táplálkozó nagyvadat „cukkol”.</t>
+  </si>
+  <si>
+    <t>Nagy felháborodás övezi azt a videót, amin több férfi egy kétségbeesetten üvöltő medvebocsot kínoz a Brassó megyei Ágostonfalva határában. A Facebookon és a Youtube videomegosztó portálon terjengő felvételen látszik, egy férfi egy üvöltöző medvebocsot tart a kezében. Az állatot egy másik férfi bottal ingereli.</t>
+  </si>
+  <si>
+    <t>Egy hárombocsos anyamedve látogatja napok óta a csíkszentimrei Henter-kúriához közeli falurészt. A helyiek esténként biztonságos távolból, távcsövekkel figyelik a vadak mozgását, noha előfordult, hogy a medvecsalád egészen a 133-as községi útig, az iskola mellé is „elmerészkedett”.</t>
+  </si>
+  <si>
+    <t>Nagy népszerűségnek örvend az a Facebookon közzétett videó, amin egy idős férfi etet egy békésnek tűnő medvét az úton, a háromszéki Ozsdola közelében.</t>
+  </si>
+  <si>
+    <t>Elgázolt az autó egy medvét az 1-es országúton, Brassó kijáratánál. A sérült medvét a zernyesti rezervátumba szállítják.</t>
+  </si>
+  <si>
+    <t>Évről évre jelentést tesznek ugyan a védett vadak számáról, de a becslésekből származó hivatalos adatokat még maguk az érintettek is vitatják. A medvepopuláció méretéről annyira eltérően vélekednek, hogy volt, ahonnan két adatot továbbítottak erről a szaktárcának.</t>
+  </si>
+  <si>
+    <t>Szentegyháza</t>
+  </si>
+  <si>
+    <t>Sepsibükszád</t>
+  </si>
+  <si>
+    <t>Ágostonfalva</t>
+  </si>
+  <si>
+    <t>Csíkszentimre</t>
+  </si>
+  <si>
+    <t>Ozsdola</t>
+  </si>
+  <si>
+    <t>Brassó</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/harom-ejszaka-hat-medvetamadas-csikpalfalvan</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_palfalvi-medvejaras-bn02.jpg</t>
+  </si>
+  <si>
+    <t>Három éjszaka, hat medvetámadás Csíkpálfalván</t>
+  </si>
+  <si>
+    <t>Már a harmadik egymást követő éjszakán végzett pusztítást egy medve Csíkpálfalván. Keddre virradóan két gazdánál is kárt okozott, egyik helyszínen egy nyúlketrec fedelét törte össze, és el is pusztított egy állatot, a másiknál pedig tizenegy méhkaptárt zúzott össze.</t>
+  </si>
+  <si>
+    <t>Csíkpálfalva</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/a-kiabalas-sem-riasztja-el-a-csikpalfalvi-udvarokra-visszajaro-medvet</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/09_kiemelesek/sm_medve-palfalva-2-.png</t>
+  </si>
+  <si>
+    <t>A kiabálás sem riasztja el a csíkpálfalvi udvarokra visszajáró medvét – videó</t>
+  </si>
+  <si>
+    <t>Három napja jár vissza több csíkpálfalvi portára a medve, amely háziállatokat pusztított el és a lakókat is rettegésben tartja. Mint a László Károly által küldött videón is látszik, a medve a kiabálástól és a kutyaugatástól sem ijed meg, mondhatni zavartalanul kutat tovább az élelem után.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/nagyon-kornyekezik-marosvasarhelyt-a-medvek</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-10.jpg</t>
+  </si>
+  <si>
+    <t>Nagyon környékezik Marosvásárhelyt a medvék</t>
+  </si>
+  <si>
+    <t>Medvék jelenléte miatt Marosvásárhelyen és Marosszentgyörgyön több százan kaptak figyelmeztető telefonos üzenetet a Ro-Alert rendszeren keresztül csütörtökön kevéssel éjfél előtt.</t>
+  </si>
+  <si>
+    <t>Marosvásárhely</t>
+  </si>
+  <si>
+    <t>Marosszentgyörgy</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/vigyazat-medve-n-telefonon-riasztottak-a-csikpalfalviakat-a-telepulesre-visszajaro-nagyvad-miatt</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_roalert-palfalvimedve01.jpg</t>
+  </si>
+  <si>
+    <t>Vigyázat, medve! – telefonon riasztották a csíkpálfalviakat a településre visszajáró nagyvad miatt</t>
+  </si>
+  <si>
+    <t>Kétszer is riasztotta a csendőröket egy csíkpálfalvi férfi péntekre virradóan, miután a háza közelében újra felbukkant az utóbbi napokban a településen garázdálkodó medve. Mire a hatóságiak a helyszínre érkeztek, a nagyvad továbbállt. Közben a Ro-Alert rendszeren is figyelmeztették a falu lakóit.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/140-medve-kiloveset-engedelyezte-a-kornyezetvedelmi-miniszter</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_ne-etesd-a-medvet-pnt.jpg</t>
+  </si>
+  <si>
+    <t>140 medve kilövését engedélyezte a környezetvédelmi miniszter</t>
+  </si>
+  <si>
+    <t>140 egyed kilövését engedélyezte a beavatkozási kvóta keretében a környezetvédelmi miniszter, mert egyre több medvetámadás történik – közölte hétfőn Graţiela Gavrilescu. Hozzátette, utasította a környezetőrséget, hogy bírságolja meg azokat, akik törvénytelenül etetik a medvéket.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/felev-merlege-otszaz-alkalommal-hivtak-a-csendoroket-medve-miatt</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-10.jpg</t>
+  </si>
+  <si>
+    <t>Félév mérlege: ötszáz alkalommal hívták a csendőröket medve miatt</t>
+  </si>
+  <si>
+    <t>Az első félévben országos szinten több mint ötszáz alkalommal riasztották a csendőröket, hogy a vadaktól védjék az embereket és javaikat – derül ki a csendőrség mérlegéből. A közleményben az áll, hogy 81 személy életét veszélyeztették a vadállatok.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/lakoovezet-kozeleben-olt-juhot-a-medve</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/02/sm_villanypasztor_illusztracio_ga-3.jpg</t>
+  </si>
+  <si>
+    <t>Lakóövezet közelében ölt juhot a medve</t>
+  </si>
+  <si>
+    <t>Hiába volt körbekerítve villanypásztorral a zsögödi Natúr lakópark körüli magánterület, a medve úgyis bejutott és megölt egy juhot szerda késő este. A gazda attól tart, hogy a vadállat visszatér.</t>
+  </si>
+  <si>
+    <t>Zsögöd</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/alaposan-raijesztett-a-gyerekekre-egy-medve-de-nem-tamadt-rajuk</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/02/sm_zsogod_naturpark_illusztracio_ga-2.jpg</t>
+  </si>
+  <si>
+    <t>Alaposan ráijesztett a gyerekekre egy medve, de nem támadt rájuk</t>
+  </si>
+  <si>
+    <t>Medve támadt egy hétéves gyerekre péntek reggel Csíkzsögödben – adta hírül délután Facebook-oldalán Borboly Csaba, Hargita Megye Tanácsának elnöke. Mint megtudtuk, tényleg visszatért a korábban juhokat ölő medve a csíkszeredai városrészbe, de nem támadt rá a gyerekre, viszont alapos riadalmat okozott.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/bocsos-medvet-uztek-el-tusvanyos-kozelebol-a-csendorok</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/02/sm_tusvanyos_medve_belo-9.jpg</t>
+  </si>
+  <si>
+    <t>Bocsos medvét űztek el Tusványos közeléből a csendőrök</t>
+  </si>
+  <si>
+    <t>A csendőrök beavatkozására volt szükség, akik elűztek egy anyamedvét és annak bocsát péntek virradóra a Bálványosi Szabadegyetem és Diáktábor (Tusványos) területének közeléből.</t>
+  </si>
+  <si>
+    <t>Tusnádfürdő</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ujabb-ot-juhot-olt-meg-a-zsogodi-lakoparkhoz-visszajaro-medve</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/09_kiemelesek/sm_medvetamadas-zsogod-juhok-2-.jpg</t>
+  </si>
+  <si>
+    <t>Újabb öt juhot ölt meg a zsögödi lakóparkhoz visszajáró medve</t>
+  </si>
+  <si>
+    <t>Újra visszatért a medve a csíkzsögödi Natúr lakópark közelébe péntek este. Azok után, hogy a napokban megölt egy juhot, majd riadalmat okozott egy ház udvarán a gyerekek között, ezúttal újabb öt juhot ölt meg.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/szekelyfoldi-medvekerdes-az-elszallitas-nem-megoldas</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-13.jpg</t>
+  </si>
+  <si>
+    <t>Székelyföldi medvekérdés: az elszállítás nem megoldás</t>
+  </si>
+  <si>
+    <t>A 2016-ban eltörölt kilövési kvóta újbóli jóváhagyása jelenthetne megoldást az egyre nagyobb gondot okozó medvekérdés ügyében – vélik a megkérdezett szakemberek. A gond csak az, hogy egyelőre nem hogy megoldás, de még erre vonatkozó javaslat sem létezik, eközben pedig egyre több a medve.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ujabb-juhot-olt-meg-a-zsogodbe-visszajaro-medve</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/09_kiemelesek/sm_megolt-juh-zsogod-medve.jpg</t>
+  </si>
+  <si>
+    <t>Újabb juhot ölt meg a Zsögödbe visszajáró medve</t>
+  </si>
+  <si>
+    <t>Már hétre emelkedett az elpusztított juhok száma a zsögödi Natúr Lakópark közelében levő gazdaságban – tájékoztatott a károsult.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/nem-az-ujonnan-elfogadott-beavatkozasi-kvota-fogja-megoldani-a-medveproblemakat</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-4.jpg</t>
+  </si>
+  <si>
+    <t>Nem az újonnan elfogadott beavatkozási kvóta fogja megoldani a medveproblémákat</t>
+  </si>
+  <si>
+    <t>A medveproblémákat illetően nem remélnek kedvező változást a vadászok attól a 140 egyed ártalmatlanítására vonatkozó beavatkozási kvótától, amelyet nemrégiben hagyott jóvá a környezetvédelmi tárca vezetője.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tizenket-ora-utan-kaptak-engedelyt-arra-hogy-elaltassak-a-serult-medvet</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/04_szeptember/02/sm_elgazolt-medve-kiemeles.jpg</t>
+  </si>
+  <si>
+    <t>Tizenkét óra után kaptak engedélyt arra, hogy elaltassák a sérült medvét</t>
+  </si>
+  <si>
+    <t>Tizenkét órán át szenvedett hétfőn egy sérült medve a háromszéki Bodok község közelében, az Olt folyóba ömlő Talamér-patak árkába húzódva, miközben a helyi hatóságok a bukaresti környezetvédelmi minisztériumtól várták az utasítást.</t>
+  </si>
+  <si>
+    <t>Bodok</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/hasznos-tanacsok-medvetipusu-talalkozasokra</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-67.jpg</t>
+  </si>
+  <si>
+    <t>Hasznos tanácsok medvetípusú találkozásokra</t>
+  </si>
+  <si>
+    <t>A kirándulók egyik legnagyobb félelme mostanság, hogy medvével találkoznak a hegyekben, az erdőszélen. Nem csoda, hiszen ez egyre gyakrabban előfordul, ezért már a hegyimentők is figyelmeztetnek. De mit tehetünk a megelőzésért, illetve mit csináljunk, ha mégis találkozunk? A futás és a fára mászás nem a legjobb megoldás.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/juhokat-olt-meg-a-medve-csikcsomortanban</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-81.jpg</t>
+  </si>
+  <si>
+    <t>Juhokat ölt meg a medve Csíkcsomortánban</t>
+  </si>
+  <si>
+    <t>Két juhot is megölt egy medve a Csíkpálfalva községhez tartozó Csíkcsomortánban, szerdára virradóra.</t>
+  </si>
+  <si>
+    <t>Csíkcsomortán</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/harom-csikcsomortani-portan-hat-barannyal-vegzett-a-visszajaro-medve</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/09_kiemelesek/sm_megolt-juh-csomortan-1-.jpg</t>
+  </si>
+  <si>
+    <t>Három csíkcsomortáni portán öt báránnyal végzett a visszajáró medve</t>
+  </si>
+  <si>
+    <t>Három csíkcsomortáni portára is betört szerdára virradóra az a fiatal medve, amely az elmúlt időszakban többször is pusztítást végzett a szomszédos Csíkpálfalván. Ezúttal öt bárányt pusztított el, a lakókat a Ro-Alert mobiltelefonos riasztórendszeren keresztül is figyelmeztették a veszélyre.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/igy-hurcol-el-es-ol-meg-egy-juhot-a-csikcsomortani-portakon-garazdalkodo-medve-n-video</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/09_kiemelesek/sm_medve-terfigyelo.png</t>
+  </si>
+  <si>
+    <t>Így hurcol el és öl meg egy juhot a csíkcsomortáni portákon garázdálkodó medve – videó</t>
+  </si>
+  <si>
+    <t>Térfigyelő kamera rögzítette, ahogy kiráncigál és megöl egy juhot a medve egy csíkcsomortáni portán.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvebiztos-szemettaroloval-probalnak-vedekezni-a-nagyvadak-ellen</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-15.jpg</t>
+  </si>
+  <si>
+    <t>Medvebiztos szeméttárolóval próbálnak védekezni a nagyvadak ellen</t>
+  </si>
+  <si>
+    <t>Sikaszóban és Ivóban napi rendszerességgel kukáznak az emberekre is veszélyes medvék, megrongálva a szeméttárolókat. A probléma megoldását keresve egy Tusnádfürdőről kölcsönkért medvebiztos tározót helyezett el Sikaszóban a zetelaki önkormányzat.</t>
+  </si>
+  <si>
+    <t>Sikaszó</t>
+  </si>
+  <si>
+    <t>Ivó</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/szinte-vegelathatatlanul-hosszu-ut-vezet-a-problemas-medvek-kiloveseig</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/08_majus/01/sm_medve-kiloves-remete-ba-17.jpg</t>
+  </si>
+  <si>
+    <t>Szinte végeláthatatlanul hosszú út vezet a problémás medvék kilövéséig</t>
+  </si>
+  <si>
+    <t>Különböző engedélyek, láttamozások, rengeteg papírmunka, többhetes várakozás és hosszas terepmunka előzi meg egyetlen medve kilövését. Szakembert kérdeztünk arról, hogy felbukkanásától kezdve milyen lépések vezetnek a gondokat okozó egyed állományból történő kiemelésig.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/csikszeken-garazdalkodo-medveket-lohetnek-ki</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/08_majus/01/sm_medve-kiloves-remete-ba-13.jpg</t>
+  </si>
+  <si>
+    <t>Csíkszéken garázdálkodó medvéket lőhetnek ki</t>
+  </si>
+  <si>
+    <t>Két, Hargita megyében garázdálkodó medve kilövésére adott engedélyt a környezetvédelmi minisztérium. A nagyvadak juhokat, libákat és szarvasmarhát öltek, az egyik egy méhészetben is károkat okozott.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medve-tamadt-egy-csikszentimrei-ferfire</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-73.jpg</t>
+  </si>
+  <si>
+    <t>Medve támadt egy csíkszentimrei férfira</t>
+  </si>
+  <si>
+    <t>Negyven éves férfira támadt kedden egy medve Csíkszentimrén. Az áldozat sérülései nem életveszélyesek.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/mondhatni-mar-mindennapos-tobbszor-is-riasztottak-a-csendoroket-a-tusnadfurdoi-medvek-miatt</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-8.jpg</t>
+  </si>
+  <si>
+    <t>Mondhatni már mindennapos: többször is riasztották a csendőröket a tusnádfürdői medvék miatt</t>
+  </si>
+  <si>
+    <t>Az elmúlt napokban három alkalommal is riasztották a csendőröket Tusnádfürdőn, miután medvét láttak a településen.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/vilag/medvet-gazoltak-az-a1-es-autopalyan-tobben-megserultek-a-balesetben</t>
+  </si>
+  <si>
+    <t>Medvét gázoltak az A1-es autópályán, többen megsérültek a balesetben</t>
+  </si>
+  <si>
+    <t>Négy személygépkocsi ütközött egy medvével péntek este a romániai A1-es, dél erdélyi autópályán a Szeben megyei Ecsellő térségében – közölte az Agerpres hírügynökség.</t>
+  </si>
+  <si>
+    <t>Ecsellő</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/hetvegi-hazakba-tor-be-etelt-keres-n-jol-ismerik-megsem-tehetnek-ellene-semmit</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/09_kiemelesek/sm_balvanyis_medve.jpg</t>
+  </si>
+  <si>
+    <t>Hétvégi házakba tör be, ételt keres – jól ismerik, mégsem tehetnek ellene semmit</t>
+  </si>
+  <si>
+    <t>Rendszeresen betör egy bocsos medve a bálványosi hétvégi házakba élelem után kutatva. Hatalmas kárt okoz, mert összetöri az ajtót, ablakot, a berendezést, hűtőket, háztartási gépeket. A vendéglőt is villanypásztorral kerítették be, noha az odalátogató turistáknak furcsa látvány, másként nem tudnak védekezni.</t>
+  </si>
+  <si>
+    <t>Bálványos</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/egy-anyamedvet-es-a-bocsat-riasztottak-el-a-tusnadfurdoi-allomas-mellol-a-csendorok</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-6.jpg</t>
+  </si>
+  <si>
+    <t>Egy anyamedvét és a bocsát riasztották el a tusnádfürdői állomás mellől a csendőrök</t>
+  </si>
+  <si>
+    <t>Egy anyamedvét és a bocsát riasztották el hétfőn este a tusnádfürdői állomás mellől a csendőrök – tájékoztatta az Agerpres hírügynökséget a Hargita megyei csendőrség.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ahol-minden-utcara-mas-medve-jut</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/05_augusztus/sm_medve-eted-ba-12.jpg</t>
+  </si>
+  <si>
+    <t>Ahol minden utcára más medve jut</t>
+  </si>
+  <si>
+    <t>Disznókat, juhokat, szarvasmarhákat és tyúkokat ölnek, valamint gyümölcsfákat, kerítéseket törnek össze a medvék Etéd községben, ahol mindennaposak a károk. A nagyvadak egyáltalán nem félnek az emberektől, már nappal is látni őket a falvakban. A helyiek aláírásokat gyűjtenek.</t>
+  </si>
+  <si>
+    <t>Etéd</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medve-tamadt-egy-csicsoi-ferfira</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_mentoauto_illusztracio_ga-3.jpg</t>
+  </si>
+  <si>
+    <t>Medve támadt egy csicsói férfira</t>
+  </si>
+  <si>
+    <t>Újabb medvetámadás történt pénteken este, ezúttal csicsóban támadt rá egy 50 éves férfira a vadállat – számolt be Facebook-oldalán Borboly Csaba, Hargita Megye Tanácsának elnöke.</t>
+  </si>
+  <si>
+    <t>Csíkcsicsó</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/harom-hetes-bkeslekedesr-n-nem-lottek-meg-ki-a-csikpalfalva-kozsegben-garazdalkodo-medvet</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-2.jpg</t>
+  </si>
+  <si>
+    <t>Három hetes „késlekedés” – nem lőtték még ki a Csíkpálfalva községben garázdálkodó medvét</t>
+  </si>
+  <si>
+    <t>Lassan három hete, hogy jóváhagyták a júliusban Csíkpálfalva községben garázdálkodó fiatal medve kilövését, a nagyvadat azonban máig nem emelték ki az állományból. A késlekedés oka igencsak egyszerű: a medve azóta nem bukkant fel a településen.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvebocsot-gazoltak-el-ujtusnad-kozeleben</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/05_augusztus/sm_elgazolt_medvebocs_ga-5.jpg</t>
+  </si>
+  <si>
+    <t>Medvebocsot gázoltak el Újtusnád közelében</t>
+  </si>
+  <si>
+    <t>Alig féléves medvebocsot ütöttek el hétfő este Újtusnád és Nagytusnád között. Az illetékes hatóságok képviselői másnap a helyszínen vették jegyzőkönyvbe, hogy baleset következtében pusztult el a vadállat. A helyi vadászegyesület elszállította, hogy megsemmisítse a tetemet. </t>
+  </si>
+  <si>
+    <t>Újtusnád</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/faluszeli-kukoricasban-tanyazik-a-medvecsalad</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/04_szeptember/sm_delnei-medvejarta-kukoricas-pnt-2.jpg</t>
+  </si>
+  <si>
+    <t>Faluszéli kukoricásban tanyázik a medvecsalád</t>
+  </si>
+  <si>
+    <t>Ismét a Ro-Alert riasztórendszeren keresztül figyelmeztették a csíkdelneieket medveveszély miatt keddre virradóan, ezúttal azonban nem a községben korábban gondokat okozó fiatal példány, hanem egy kétbocsos anyamedve miatt. Utóbbiak már egy ideje a falu szélén található kukoricásban tanyázna</t>
+  </si>
+  <si>
+    <t>Csíkdelne</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/videora-vettek-ahogy-elhurcolja-a-megolt-tehenet-a-medve</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/09_kiemelesek/sm_medve_video_fokep_2k19_szept.jpg</t>
+  </si>
+  <si>
+    <t>Videóra vették, ahogy elhurcolja a megölt tehenet a medve</t>
+  </si>
+  <si>
+    <t>Három nap leforgása alatt három tehenet öltek meg a medvék Pálpataka határában. A szétszórt tanyai település lakóinak többsége állattartásból él, de a történtek miatt legtöbbjük már nem meri kihajtani a legelőre állatait, félnek az újabb medvetámadásoktól.</t>
+  </si>
+  <si>
+    <t>Pálpataka</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/egy-het-alatt-ket-kozuti-balesetet-okoztak-a-medvek-ezen-a-gyergyoszeki-utszakaszon</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/05_augusztus/sm_elgazolt_medvebocs_ga-9.jpg</t>
+  </si>
+  <si>
+    <t>Egy hét alatt két közúti balesetet okoztak a medvék ezen a gyergyószéki útszakaszon</t>
+  </si>
+  <si>
+    <t>Alig egy hét leforgása alatt két közúti balesetet okoztak a nagyvadak Gyergyószéken. Legutóbb szerda este zuhant árokba és borult fel egy autós, mert az úton áthaladó medvét próbálta kikerülni. A szakember szerint mintegy tíz-tizenöt medve tanyázhat az Alfalu és Szárhegy közötti mezőgazdasági területeken.</t>
+  </si>
+  <si>
+    <t>Szárhegy</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kiloves-var-a-szentabraham-kornyeken-garazdalkodo-medvere</t>
   </si>
   <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/08_majus/01/sm_medve-kiloves-remete-ba-9.jpg</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-66.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/09_aprilis/sm_mentoauto-illusztracionak-pnt.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/07_junius/02/sm_medveles-bogoz-ba-29.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2016/10_marcius/sm_faklyas-felvo-marc15-ab-19.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/08_majus/01/sm_budvari-medve-ba-5.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/08_majus/02/sm_sanyi-a-medve-elszallitasa-pnt-8.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/08_majus/02/sm_sanyi-a-medve-elszallitasa-pnt-6.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medve-szentegyhaza.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/123rf/2019/sm_hiuz-123rf-1.jpg</t>
-  </si>
-  <si>
-    <t>Székelyhon</t>
-  </si>
-  <si>
-    <t>Fényképpel nyomatékosítják, csak óvatosan, mert medvék vannak</t>
-  </si>
-  <si>
-    <t>Célkeresztbe kerülhet a Szentábrahámon juhokat elpusztító medve</t>
-  </si>
-  <si>
-    <t>Korábbi élőhelyén engedték szabadon a tavaly elütött medvebocsot</t>
-  </si>
-  <si>
-    <t>Medve támadt egy madarasi juhászra</t>
-  </si>
-  <si>
-    <t>Szürkülettel jövő félelem: hárombocsos medvétől rettegnek a bárdosiak</t>
-  </si>
-  <si>
-    <t>Fáklyával igyekeznek elriasztani a medvét, amíg ki nem lőhetik</t>
-  </si>
-  <si>
-    <t>Továbbállt az agyagdombi medvecsalád</t>
-  </si>
-  <si>
-    <t>Gyerekek közeléből kergették el a medvéket</t>
-  </si>
-  <si>
-    <t>Turistákra támadt a medve</t>
-  </si>
-  <si>
-    <t>Medve Szentegyháza határában</t>
-  </si>
-  <si>
-    <t>Kamerafelvételek, nyomok, barlangok – így számolják a vadakat</t>
-  </si>
-  <si>
-    <t>Marosvásárhely szomszédságában, a jeddi, koronkai és székelybósi erdőkben kaptak lencsevégre több medvét az elmúlt napokban.</t>
-  </si>
-  <si>
-    <t>A Szentábrahámon juhokat elpusztító medve is kilövésre kerülhet rövidesen, ugyanis az illetékes vadásztársaság szóban már ígéretet kapott a környezetvédelmi tárcától a garázdálkodó egyed ártalmatlanításának jóváhagyására.</t>
-  </si>
-  <si>
-    <t>Szabadon engedték azt a medvebocsot, amelyet tavaly ősszel a háromszéki Sepsibükszád közelében ütött el a vonat. A bocs súlyosan megsérült, ám a sürgős beavatkozásnak köszönhetően sikerült az életét megmenteni.</t>
-  </si>
-  <si>
-    <t>Legeltetés közben támadt egy 52 éves csíkmadarasi juhászra egy medve szerda délután egy esztena közelében.</t>
-  </si>
-  <si>
-    <t>Elkergették, de visszajött a Marosszentannához tartozó Bárdosra egy anyamedve három kis boccsal. A lakók félnek, a vadásztársaság sötétedéskor járőrözik, hogy védje az embereket.</t>
-  </si>
-  <si>
-    <t>A minisztérium illetékeseinek szóbeli ígéretei ellenére nem kapott még kilövési engedélyt a Szentábrahámon garázdálkodó medvére a Hubertus Vadásztársaság.</t>
-  </si>
-  <si>
-    <t>Üresen találták a vadászok nemrég a székelyudvarhelyi Agyagdombon lebocsozó anyamedve üregét. A nyomokból és a szemtanúk beszámolójából úgy ítélték meg, hogy jelenleg a Szejkefürdő határában lévő erdőben lehetnek a nagyvadak.</t>
-  </si>
-  <si>
-    <t>Egy kétbocsos anyamedve miatt riasztották kedd délután a Szent Anna-tóhoz a csendőröket: a vadállatok egy csoport gyereket közelítettek meg. Két órával később egy másik medve is felbukkant Tusnádfürdő határában.</t>
-  </si>
-  <si>
-    <t>Két külföldi turistára támadt a medve szerdán a Fogarasi-havasokban – számol be az Agerpres hírügynökség.</t>
-  </si>
-  <si>
-    <t>Nem kis fennakadást okozott egy medve Szentegyháza közelében pénteken, a déli órákban, hiszen több turista és zarándok is megállt az úton, hogy lencsevégre kaphassa.</t>
-  </si>
-  <si>
-    <t>Vadszámlálást végeznek a medvék, hiúzok és vadmacskák esetében. Azt már most tudni, hogy az országban Maros megyében van a legtöbb hiúz, az általunk megkérdezett szakértő azt is elmondta, hogy miért.</t>
-  </si>
-  <si>
-    <t>Marosvásárhely</t>
-  </si>
-  <si>
-    <t>Jedd</t>
-  </si>
-  <si>
-    <t>Koronka</t>
-  </si>
-  <si>
-    <t>Székelybós</t>
+    <t>Kilövés vár a Szentábrahám környékén garázdálkodó medvére</t>
+  </si>
+  <si>
+    <t>Közel egy év és megannyi károkozás után a környezetvédelmi minisztérium engedélyezte a Szentábrahámon pusztító medve kilövését.</t>
   </si>
   <si>
     <t>Szentábrahám</t>
   </si>
   <si>
-    <t>Sepsibükszád</t>
-  </si>
-  <si>
-    <t>Csíkmadaras</t>
-  </si>
-  <si>
-    <t>Bárdos</t>
+    <t>https://szekelyhon.ro/aktualis/mar-a-haromszeki-prefektusnak-is-nagyon-elege-van-a-medvekbol</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2017/04_szeptember/sm_medveles01_scs-3.jpg</t>
+  </si>
+  <si>
+    <t>Már a háromszéki prefektusnak is nagyon elege van a medvékből</t>
+  </si>
+  <si>
+    <t>Napról napra nagyobb gondot jelentenek a medvék Kovászna megyében, a környezetvédelmi minisztérium elsősorban ezt kellene orvosolja. Ez a kérdés a „napelemprogramnál” is fontosabb – nyilatkozta csütörtökön Sebastian Cucu prefektus.</t>
+  </si>
+  <si>
+    <t>Sepsiszentgyörgy</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kutba-esett-egy-medve-bibarfalvan</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/haromszek/aktualis/2018/sm_borju-mentes-kutbol-1.jpg</t>
+  </si>
+  <si>
+    <t>Kútba esett egy medve Bibarcfalván</t>
+  </si>
+  <si>
+    <t>Beleesett egy medve a kútba az erdővidéki Bibarcfalván – tájékoztatta portálunkat Kelemen Gellért, az illetékes vadászegyesület munkatársa.</t>
+  </si>
+  <si>
+    <t>Bibarcfalva</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/szekelyudvarhely-utcain-portyazott-a-bocsos-medve</t>
+  </si>
+  <si>
+    <t>Székelyudvarhely utcáin portyázott a bocsos medve</t>
+  </si>
+  <si>
+    <t>Videó is készült arról a bocsos anyamedvéről, amely szombaton éjjel a Szabók utcai felbukkanásától a terelőútig juthatott, majdnem egy kilométeres távot megtéve Székelyudvarhely utcáin. Szakember adott tanácsot, mi a teendő medvével való találkozás esetén.</t>
   </si>
   <si>
     <t>Székelyudvarhely</t>
   </si>
   <si>
-    <t>Tusnádfürdő</t>
-  </si>
-  <si>
-    <t>Fogarasi havasok</t>
-  </si>
-  <si>
-    <t>Szentegyháza</t>
+    <t>https://szekelyhon.ro/vilag/medve-tamadt-egy-lengyel-turistara</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-84.jpg</t>
+  </si>
+  <si>
+    <t>Medve támadt egy lengyel turistára</t>
+  </si>
+  <si>
+    <t>Lengyel turistára támadt egy medve a Radnai-havasokban levő Şetref-hágó (818 méteres magasság) egyik kijelölt turistaösvényén. A férfinak sikerült bemenekülnie egy elhagyatott menedékházba, így nem esett baja.</t>
+  </si>
+  <si>
+    <t>Şetref-hágó</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/letorte-a-csur-ajtajat-is-a-medve-a-juhokert</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/04_szeptember/sm_almas_medvekar_hs02.jpg</t>
+  </si>
+  <si>
+    <t>Letörte a csűr ajtaját is a medve a juhokért</t>
+  </si>
+  <si>
+    <t>Csűrbe zárta estére a megmaradt jószágait a homoródalmási Mihály Csaba, miután a kertben tartott juhok közül többet is megölt a medve. A nagyvad visszatért, és mint láthatjuk, a csűrkapu sem volt számára akadály.</t>
+  </si>
+  <si>
+    <t>Homoródalmás</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/halalra-gazoltak-egy-medvet-majd-az-uttesten-hagytak-a-tetemet</t>
+  </si>
+  <si>
+    <t>Halálra gázoltak egy medvét, majd az úttesten hagyták a tetemet</t>
+  </si>
+  <si>
+    <t>Elütöttek és az úton hagytak egy medvét kedden késő este Maros megyében, a Körtvélyfája és Petele közötti gyorsforgalmi úton, Szászrégen közelében. A rendőrség vizsgálódik, a tetem további sorsáról a vadásztársaság dönt.</t>
+  </si>
+  <si>
+    <t>Körtvélyfája</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ro-alert-csiksomlyon-jar-a-medve</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/04_kiemelesek/sm_csiksomlyo-madartavlat2.jpg</t>
+  </si>
+  <si>
+    <t>RO-Alert: Csíksomlyón jár a medve</t>
+  </si>
+  <si>
+    <t>A RO-Alert rendszeren keresztül figyelmeztette a csíkszeredaiakat egy medve jelenlétére Csíksomlyón a Hargita Megyei Vészhelyzeti Felügyelőség.</t>
+  </si>
+  <si>
+    <t>Csíksomlyó</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/harombocsos-anyamedve-kozelitette-meg-a-csiksomlyoi-altalanos-iskolat-es-ovodat</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/04_szeptember/sm_medveriasztas-csiksomlyon-pnt-4.jpg</t>
+  </si>
+  <si>
+    <t>Hárombocsos anyamedve közelítette meg a csíksomlyói általános iskolát és óvodát</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egy hárombocsos anyamedve közelítette meg a Xantus János Általános Iskola csíksomlyói épületét szerda délelőtt, a vadállatokra az udvaron játszó gyerekek lettek figyelmesek. A helyszínre a csendőrség és a tűzoltóság több egysége is kivonult, a medvecsalád azonban időközben továbbállt. Az oktatási intézményn&amp;						</t>
   </si>
 </sst>
 </file>
@@ -654,15 +1158,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="A1:O15"/>
+      <selection activeCell="A2" sqref="A2:O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -715,23 +1219,23 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
-        <v>43587</v>
+        <v>43623</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
       <c r="H2">
         <v>1</v>
       </c>
@@ -745,38 +1249,38 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>46.538586199999997</v>
+        <v>46.326699400000003</v>
       </c>
       <c r="O2">
-        <v>24.551439200000001</v>
+        <v>25.514806799999999</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
-        <v>43587</v>
+        <v>43629</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
       <c r="H3">
         <v>1</v>
       </c>
@@ -790,37 +1294,37 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>46.549011399999998</v>
+        <v>46.0077474</v>
       </c>
       <c r="O3">
-        <v>24.628958399999998</v>
+        <v>25.841102599999999</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
-        <v>43587</v>
+        <v>43633</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -835,37 +1339,37 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>46.520620299999997</v>
+        <v>46.004596700000008</v>
       </c>
       <c r="O4">
-        <v>24.618893</v>
+        <v>25.555311199999998</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
-        <v>43587</v>
+        <v>43641</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -880,43 +1384,43 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>46.531350099999997</v>
+        <v>46.261650799999998</v>
       </c>
       <c r="O5">
-        <v>24.669752200000001</v>
+        <v>25.796607000000002</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
-        <v>43587</v>
+        <v>43644</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -925,37 +1429,37 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>46.334716999999998</v>
+        <v>45.980499100000003</v>
       </c>
       <c r="O6">
-        <v>25.009115600000001</v>
+        <v>26.263009</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
-        <v>43599</v>
+        <v>43644</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -970,43 +1474,43 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>46.0077474</v>
+        <v>45.657975499999999</v>
       </c>
       <c r="O7">
-        <v>25.841102599999999</v>
+        <v>25.6011977</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
-        <v>43600</v>
+        <v>43645</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1014,35 +1518,26 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>66</v>
-      </c>
       <c r="M8">
         <v>0</v>
-      </c>
-      <c r="N8">
-        <v>46.493200700000003</v>
-      </c>
-      <c r="O8">
-        <v>25.745834899999998</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
-        <v>43600</v>
+        <v>43662</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
         <v>53</v>
@@ -1051,91 +1546,97 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="M9">
         <v>0</v>
+      </c>
+      <c r="N9">
+        <v>46.394837799999998</v>
+      </c>
+      <c r="O9">
+        <v>25.834104499999999</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
-        <v>43600</v>
+        <v>43662</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
         <v>54</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>64</v>
-      </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>46.334716999999998</v>
+        <v>46.394837799999998</v>
       </c>
       <c r="O10">
-        <v>25.009115600000001</v>
+        <v>25.834104499999999</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2">
-        <v>43609</v>
+        <v>43665</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1144,37 +1645,37 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>46.304999600000002</v>
+        <v>46.538586199999997</v>
       </c>
       <c r="O11">
-        <v>25.292647899999999</v>
+        <v>24.551439200000001</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
-        <v>43613</v>
+        <v>43665</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1189,43 +1690,43 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>46.146075199999999</v>
+        <v>46.579243499999997</v>
       </c>
       <c r="O12">
-        <v>25.856958899999999</v>
+        <v>24.608682000000002</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
-        <v>43615</v>
+        <v>43665</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1234,37 +1735,43 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="M13">
         <v>0</v>
+      </c>
+      <c r="N13">
+        <v>46.394837799999998</v>
+      </c>
+      <c r="O13">
+        <v>25.834104499999999</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2">
-        <v>43623</v>
+        <v>43668</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1272,38 +1779,29 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14" t="s">
-        <v>71</v>
-      </c>
       <c r="M14">
         <v>0</v>
-      </c>
-      <c r="N14">
-        <v>46.326699400000003</v>
-      </c>
-      <c r="O14">
-        <v>25.514806799999999</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
-        <v>43625</v>
+        <v>43669</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1319,6 +1817,1641 @@
       </c>
       <c r="M15">
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2">
+        <v>43671</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>46.339373500000001</v>
+      </c>
+      <c r="O16">
+        <v>25.808864799999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2">
+        <v>43672</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>46.339373500000001</v>
+      </c>
+      <c r="O17">
+        <v>25.808864799999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2">
+        <v>43672</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>46.146075199999999</v>
+      </c>
+      <c r="O18">
+        <v>25.856958899999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2">
+        <v>43673</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>46.339373500000001</v>
+      </c>
+      <c r="O19">
+        <v>25.808864799999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2">
+        <v>43674</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2">
+        <v>43674</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>46.339373500000001</v>
+      </c>
+      <c r="O21">
+        <v>25.808864799999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2">
+        <v>43675</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2">
+        <v>43676</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2">
+        <v>43682</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2">
+        <v>43684</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>120</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>46.395003299999999</v>
+      </c>
+      <c r="O25">
+        <v>25.854643599999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2">
+        <v>43684</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>120</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>46.395003299999999</v>
+      </c>
+      <c r="O26">
+        <v>25.854643599999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2">
+        <v>43684</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>46.394837799999998</v>
+      </c>
+      <c r="O27">
+        <v>25.834104499999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2">
+        <v>43684</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>120</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>46.395003299999999</v>
+      </c>
+      <c r="O28">
+        <v>25.854643599999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2">
+        <v>43687</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>133</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2">
+        <v>43687</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>134</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2">
+        <v>43688</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2">
+        <v>43690</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2">
+        <v>43690</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>46.261650799999998</v>
+      </c>
+      <c r="O33">
+        <v>25.796607000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2">
+        <v>43691</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>90</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>46.146075199999999</v>
+      </c>
+      <c r="O34">
+        <v>25.856958899999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2">
+        <v>43694</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" t="s">
+        <v>153</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>154</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>45.829615599999997</v>
+      </c>
+      <c r="O35">
+        <v>23.874923899999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2">
+        <v>43696</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>159</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2">
+        <v>43697</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" t="s">
+        <v>163</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>90</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>46.146075199999999</v>
+      </c>
+      <c r="O37">
+        <v>25.856958899999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>168</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>46.448393099999997</v>
+      </c>
+      <c r="O38">
+        <v>25.0531787</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" t="s">
+        <v>172</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>173</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>46.4374818</v>
+      </c>
+      <c r="O39">
+        <v>25.753151599999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2">
+        <v>43703</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G40" t="s">
+        <v>177</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>54</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>46.394837799999998</v>
+      </c>
+      <c r="O40">
+        <v>25.834104499999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2">
+        <v>43704</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" t="s">
+        <v>181</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>182</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>46.193813400000003</v>
+      </c>
+      <c r="O41">
+        <v>25.897228800000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2">
+        <v>43718</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>185</v>
+      </c>
+      <c r="G42" t="s">
+        <v>186</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>187</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>46.412106000000001</v>
+      </c>
+      <c r="O42">
+        <v>25.826389800000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2">
+        <v>43719</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
+        <v>190</v>
+      </c>
+      <c r="G43" t="s">
+        <v>191</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>192</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>46.510928300000003</v>
+      </c>
+      <c r="O43">
+        <v>25.212713999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2">
+        <v>43719</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>195</v>
+      </c>
+      <c r="G44" t="s">
+        <v>196</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>197</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>46.744118499999999</v>
+      </c>
+      <c r="O44">
+        <v>25.531788500000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2">
+        <v>43719</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
+        <v>200</v>
+      </c>
+      <c r="G45" t="s">
+        <v>201</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>202</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>46.334716999999998</v>
+      </c>
+      <c r="O45">
+        <v>25.009115600000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2">
+        <v>43720</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>205</v>
+      </c>
+      <c r="G46" t="s">
+        <v>206</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>207</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>45.860937499999999</v>
+      </c>
+      <c r="O46">
+        <v>25.788579599999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2">
+        <v>43721</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" t="s">
+        <v>210</v>
+      </c>
+      <c r="G47" t="s">
+        <v>211</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>212</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>46.093322299999997</v>
+      </c>
+      <c r="O47">
+        <v>25.652470300000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2">
+        <v>43724</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s">
+        <v>214</v>
+      </c>
+      <c r="G48" t="s">
+        <v>215</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>216</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>46.304999600000002</v>
+      </c>
+      <c r="O48">
+        <v>25.292647899999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2">
+        <v>43725</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" t="s">
+        <v>219</v>
+      </c>
+      <c r="G49" t="s">
+        <v>220</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>221</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2">
+        <v>43725</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s">
+        <v>224</v>
+      </c>
+      <c r="G50" t="s">
+        <v>225</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>226</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>46.234391799999997</v>
+      </c>
+      <c r="O50">
+        <v>25.4569963</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2">
+        <v>43726</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>228</v>
+      </c>
+      <c r="G51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>230</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>46.690682700000004</v>
+      </c>
+      <c r="O51">
+        <v>24.664941899999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2">
+        <v>43726</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" t="s">
+        <v>233</v>
+      </c>
+      <c r="G52" t="s">
+        <v>234</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>235</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>46.3753277</v>
+      </c>
+      <c r="O52">
+        <v>25.819270299999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2">
+        <v>43726</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" t="s">
+        <v>238</v>
+      </c>
+      <c r="G53" t="s">
+        <v>239</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>235</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>46.3753277</v>
+      </c>
+      <c r="O53">
+        <v>25.819270299999999</v>
       </c>
     </row>
   </sheetData>
@@ -1337,22 +3470,98 @@
     <hyperlink ref="D7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="C8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="D8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C9" r:id="rId15" xr:uid="{32BAD751-8C9E-4C5E-8A08-8B2C2D0C2B53}"/>
+    <hyperlink ref="D9" r:id="rId16" xr:uid="{1370A11E-CB14-4BB5-AF81-0369AB50B350}"/>
+    <hyperlink ref="C10" r:id="rId17" xr:uid="{C7D386A6-23B3-4E5F-ABBA-2E422F63A0C6}"/>
+    <hyperlink ref="D10" r:id="rId18" xr:uid="{C872F3BE-4E0A-4B0D-8B85-8A6987FEB4E7}"/>
+    <hyperlink ref="C11" r:id="rId19" xr:uid="{3C302D98-EAFF-4BE0-9A2F-D87B89D9ED8B}"/>
+    <hyperlink ref="D11" r:id="rId20" xr:uid="{85B1E743-079A-49B9-8CAD-122451282443}"/>
+    <hyperlink ref="C12" r:id="rId21" xr:uid="{A79B0740-C569-4F6F-A9BA-AB4189E742C7}"/>
+    <hyperlink ref="D12" r:id="rId22" xr:uid="{6EF80DFF-2437-49F3-AA47-39572EA9554E}"/>
+    <hyperlink ref="C13" r:id="rId23" xr:uid="{BF557099-303D-4AC8-985C-3CDD08255A64}"/>
+    <hyperlink ref="D13" r:id="rId24" xr:uid="{327EDA52-D8BB-4C07-9F24-81689EF338CB}"/>
+    <hyperlink ref="C14" r:id="rId25" xr:uid="{F4157862-502D-493F-B531-7EF4A8FB2308}"/>
+    <hyperlink ref="D14" r:id="rId26" xr:uid="{BEADAD81-EC2A-4EA1-9D73-7A95D933510E}"/>
+    <hyperlink ref="C15" r:id="rId27" xr:uid="{11CF76FA-413C-477A-BD0B-84D4CA09C3B9}"/>
+    <hyperlink ref="D15" r:id="rId28" xr:uid="{B90367FD-C545-4650-A027-1B3373342E28}"/>
+    <hyperlink ref="C16" r:id="rId29" xr:uid="{1881C703-8594-44A5-A4D3-96C37133DFB3}"/>
+    <hyperlink ref="D16" r:id="rId30" xr:uid="{F41136D3-800E-47A9-AF9A-8F7C0C06EAF9}"/>
+    <hyperlink ref="C17" r:id="rId31" xr:uid="{56949B96-D2C2-4EB2-8825-1AB683F02A6A}"/>
+    <hyperlink ref="D17" r:id="rId32" xr:uid="{8CB6CCF5-8817-4C56-B54D-DB67048B6618}"/>
+    <hyperlink ref="C18" r:id="rId33" xr:uid="{147B6CC3-86F4-4946-9005-A0B8805980FC}"/>
+    <hyperlink ref="D18" r:id="rId34" xr:uid="{7ED447A6-5DE6-4F9F-87A8-6D4AFDDA9993}"/>
+    <hyperlink ref="C19" r:id="rId35" xr:uid="{27DDC9E1-FF5E-4F34-B911-2B6251526604}"/>
+    <hyperlink ref="D19" r:id="rId36" xr:uid="{9F7506FF-1AEE-4039-95B5-7B14C1FFDCE1}"/>
+    <hyperlink ref="C20" r:id="rId37" xr:uid="{04A81958-0010-47AB-9D05-8C91FA8643FA}"/>
+    <hyperlink ref="D20" r:id="rId38" xr:uid="{6CC34E9C-FD08-4F47-833A-B0B646694F13}"/>
+    <hyperlink ref="C21" r:id="rId39" xr:uid="{D9C2709B-6EA1-4B5B-8C22-9A14A40E0CA9}"/>
+    <hyperlink ref="D21" r:id="rId40" xr:uid="{1E860877-AABE-4E6D-8D09-548F984E8AAF}"/>
+    <hyperlink ref="C22" r:id="rId41" xr:uid="{6471E159-9066-4B48-A779-0C3589D6A076}"/>
+    <hyperlink ref="D22" r:id="rId42" xr:uid="{25EBAE54-52D0-4102-B61D-F0844812718C}"/>
+    <hyperlink ref="C23" r:id="rId43" xr:uid="{F1172906-842D-411B-9195-A7E3F7C79E14}"/>
+    <hyperlink ref="D23" r:id="rId44" xr:uid="{489FB506-00C6-448F-9483-BD409EA8CE3A}"/>
+    <hyperlink ref="C24" r:id="rId45" xr:uid="{887CA29A-12C0-4C89-886C-2E9E215A93DB}"/>
+    <hyperlink ref="D24" r:id="rId46" xr:uid="{46EAF53B-1B37-433F-B95C-7E033CBFC70C}"/>
+    <hyperlink ref="C25" r:id="rId47" xr:uid="{42DCADCE-21C5-4351-BEE1-834C74595099}"/>
+    <hyperlink ref="D25" r:id="rId48" xr:uid="{0BF45F32-D979-4EB2-A8E3-0A894A23CC13}"/>
+    <hyperlink ref="C26" r:id="rId49" xr:uid="{11D28952-CDD4-4CC9-8065-714578ACD04B}"/>
+    <hyperlink ref="D26" r:id="rId50" xr:uid="{A624D1B5-A010-42E4-8E7D-060A925D3935}"/>
+    <hyperlink ref="C27" r:id="rId51" xr:uid="{9D9FE391-1AC5-48DA-AA07-545690813570}"/>
+    <hyperlink ref="D27" r:id="rId52" xr:uid="{786A9206-F95E-4B1D-BCC0-0821D542C755}"/>
+    <hyperlink ref="C28" r:id="rId53" xr:uid="{1EB53562-BAE3-4BE6-9C5F-6E4BD9B2B592}"/>
+    <hyperlink ref="D28" r:id="rId54" xr:uid="{EAFDDFDD-8D33-473F-8FB8-AE67E9D27338}"/>
+    <hyperlink ref="C29" r:id="rId55" xr:uid="{B7366672-C6C9-4134-A1A9-B3B594BD0A43}"/>
+    <hyperlink ref="D29" r:id="rId56" xr:uid="{AB65D9E6-0E16-4E22-9D26-0CC5DDD53AB1}"/>
+    <hyperlink ref="C30" r:id="rId57" xr:uid="{947E2590-4FF2-4159-8E45-001853722B07}"/>
+    <hyperlink ref="D30" r:id="rId58" xr:uid="{50B0E373-4FBF-4E09-8726-8D947DC20B27}"/>
+    <hyperlink ref="C31" r:id="rId59" xr:uid="{C8F3C224-47B4-4246-B9BB-1FD58342C841}"/>
+    <hyperlink ref="D31" r:id="rId60" xr:uid="{AB4583F0-8DB5-4276-99D2-2D2EB97F3E5B}"/>
+    <hyperlink ref="C32" r:id="rId61" xr:uid="{E84666EF-7E53-4008-A994-B266654B33FC}"/>
+    <hyperlink ref="D32" r:id="rId62" xr:uid="{8E33169F-B2D4-411A-9DA1-52EC13F00FD2}"/>
+    <hyperlink ref="C33" r:id="rId63" xr:uid="{D69C64BB-3815-4428-BE43-54F1CAD8824E}"/>
+    <hyperlink ref="D33" r:id="rId64" xr:uid="{39F1EBB6-FF53-47D0-BFCD-1C02ADA7B261}"/>
+    <hyperlink ref="C34" r:id="rId65" xr:uid="{1BD18602-3E39-4882-9E38-4721C8E71126}"/>
+    <hyperlink ref="D34" r:id="rId66" xr:uid="{A0066EE9-EEC8-4EB5-B242-A690C855564B}"/>
+    <hyperlink ref="C35" r:id="rId67" xr:uid="{81F4720D-1E08-4E5B-95A6-59A4E20223EC}"/>
+    <hyperlink ref="D35" r:id="rId68" xr:uid="{D6A54D9C-B878-470F-85E8-549721F117AA}"/>
+    <hyperlink ref="C36" r:id="rId69" xr:uid="{3B41AFAF-7DB8-4585-8432-593500EAE4FF}"/>
+    <hyperlink ref="D36" r:id="rId70" xr:uid="{FA354111-865A-4CDD-8CAB-FE8D5A8889BF}"/>
+    <hyperlink ref="C37" r:id="rId71" xr:uid="{22F72A17-43D3-4D94-973E-70C18DCDAF72}"/>
+    <hyperlink ref="D37" r:id="rId72" xr:uid="{C3CED68E-C870-4F8D-9B12-4E1686B545C8}"/>
+    <hyperlink ref="C38" r:id="rId73" xr:uid="{4B0E7CEB-0D35-4D3A-9481-391D3FF8B710}"/>
+    <hyperlink ref="D38" r:id="rId74" xr:uid="{690058D0-1CF3-4387-8465-8928B713B6A1}"/>
+    <hyperlink ref="C39" r:id="rId75" xr:uid="{16C3A5B6-90BA-4EBC-A823-9DBFE3107562}"/>
+    <hyperlink ref="D39" r:id="rId76" xr:uid="{8B324018-0178-49D7-94C4-F166D29B655A}"/>
+    <hyperlink ref="C40" r:id="rId77" xr:uid="{56BE0934-3218-4701-85FD-38BD409EC46F}"/>
+    <hyperlink ref="D40" r:id="rId78" xr:uid="{6858B741-1B57-4ECB-BDBC-4F7D7D4A2B67}"/>
+    <hyperlink ref="C41" r:id="rId79" xr:uid="{87116235-C3AC-4FC6-8A68-1B070C6A6704}"/>
+    <hyperlink ref="D41" r:id="rId80" xr:uid="{42023B23-D42F-455A-AC1A-48A9C628B44A}"/>
+    <hyperlink ref="C42" r:id="rId81" xr:uid="{46FD5899-22C7-4DE1-8C70-47CC290ACE6D}"/>
+    <hyperlink ref="D42" r:id="rId82" xr:uid="{A6CC2388-B50D-4B1D-99DA-F6E1604449CA}"/>
+    <hyperlink ref="C43" r:id="rId83" xr:uid="{7B9D731B-3EB8-4D3C-B1F9-68CE2C2EF38F}"/>
+    <hyperlink ref="D43" r:id="rId84" xr:uid="{5F48ACFC-9192-4CF3-B9C1-D05537F1D139}"/>
+    <hyperlink ref="C44" r:id="rId85" xr:uid="{D9CD854A-3859-4EAD-864A-B42B3A1BCD26}"/>
+    <hyperlink ref="D44" r:id="rId86" xr:uid="{81BD2DB0-2799-433E-BB1B-38ECD7BE99FD}"/>
+    <hyperlink ref="C45" r:id="rId87" xr:uid="{089C5875-CF65-4142-B86B-C8520ADFF1CD}"/>
+    <hyperlink ref="D45" r:id="rId88" xr:uid="{F2EDBE6A-A1CC-4C3E-8159-994BBCC77C64}"/>
+    <hyperlink ref="C46" r:id="rId89" xr:uid="{CF1CEF77-C597-4242-A2D0-708286E326E3}"/>
+    <hyperlink ref="D46" r:id="rId90" xr:uid="{174010D1-9AA7-4E78-BD5D-F14F0D5D97A6}"/>
+    <hyperlink ref="C47" r:id="rId91" xr:uid="{153D19C6-3854-40BD-9D2B-958BA2C7215B}"/>
+    <hyperlink ref="D47" r:id="rId92" xr:uid="{8D9F5409-CEF3-4AE3-9D4C-A58A830EB937}"/>
+    <hyperlink ref="C48" r:id="rId93" xr:uid="{43058687-94C6-4B7A-A0CF-6E3443C43872}"/>
+    <hyperlink ref="D48" r:id="rId94" xr:uid="{CC7F798E-C175-41B3-9FC7-06EBD22BBAA4}"/>
+    <hyperlink ref="C49" r:id="rId95" xr:uid="{A3D27F2E-5CF7-4286-988F-45BB5F8F3A8B}"/>
+    <hyperlink ref="D49" r:id="rId96" xr:uid="{9A131F2A-628C-49DF-8277-CFADA5BD8D8C}"/>
+    <hyperlink ref="C50" r:id="rId97" xr:uid="{02C37765-AE50-43B9-81C9-AB35F7FD1199}"/>
+    <hyperlink ref="D50" r:id="rId98" xr:uid="{D957ECD0-C490-4A34-9C1A-6B01A59F9C97}"/>
+    <hyperlink ref="C51" r:id="rId99" xr:uid="{C12692BD-CD9C-4213-A98E-18F64778FA7E}"/>
+    <hyperlink ref="D51" r:id="rId100" xr:uid="{36AD3BFE-DA41-4632-AD65-3A82B4DF557E}"/>
+    <hyperlink ref="C52" r:id="rId101" xr:uid="{9307182B-636E-47A0-A7F3-121034553C17}"/>
+    <hyperlink ref="D52" r:id="rId102" xr:uid="{C2647896-933A-47AA-BF01-38804AD97CC9}"/>
+    <hyperlink ref="C53" r:id="rId103" xr:uid="{E6C3BE4E-3967-4AEF-8A68-DB22495DA7F4}"/>
+    <hyperlink ref="D53" r:id="rId104" xr:uid="{9A54E0F6-449C-4984-BCB0-A283519615E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId105"/>
 </worksheet>
 </file>
--- a/data/szekelyhon_data.xlsx
+++ b/data/szekelyhon_data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skydrive\Github\szekelydata\medveterkep\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5BBAA4-50C2-472E-A0D0-DAF89C5644C6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>date</t>
   </si>
@@ -67,62 +61,203 @@
     <t>checked</t>
   </si>
   <si>
-    <t>https://szekelyhon.ro/aktualis/szetvertek-a-medvek-a-szalloda-egy-reszet</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/emberre-tamadt-a-medve-a-haromszeki-nagyborosnyon</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/villanypasztor-allja-a-kukazo-medvek-utjat</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/09_kiemelesek/sm_medve_balvanyos_kamera.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/kronika_2016/et/sm_medve-vn-003_or.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/04_szeptember/sm_villanypasztor-medvebiztoskuka-pnt-6.jpg</t>
+    <t>https://szekelyhon.ro/aktualis/ujabb-medvet-gazoltak-el-ezuttal-kovaszna-megye-hataraban</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/megtermett-medve-garazdalkodik-homorodalmason-varjak-hogy-kilohessek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/bocsaval-egyutt-tort-be-az-udvarra-az-anyamedve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/meg-a-kormanyvalsag-is-a-garazdalkodo-medveknek-kedvez</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/nagykadacson-es-felsoboldogfalvan-is-medve-miatt-riasztottak-a-csendoroket</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/nem-sokat-er-a-medvebiztos-kuka-ha-melle-teszik-a-szemetet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/mar-most-kellene-szamolni-a-medvekkel-a-marosvasarhelynjaszvasar-autopalya-epitesenel</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/vilag/medgyes-utcairol-zavartak-el-a-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/vilag/lepcsohazban-jart-a-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/sebzett-medvet-uldoznek-a-vadaszok-szekelyudvarhely-hataraban</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ot-medve-pusztult-el-egy-het-alatt-haromszeken</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/juhokat-olt-a-medve-szekelyudvarhelyen</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/autot-rongalt-a-medve</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/05_augusztus/sm_elgazolt_medvebocs_ga-5.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/10_kiemelesek/sm_medve_homorodalmas.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/04_szeptember/sm_medveriasztas-csiksomlyon-pnt-5.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/02/sm_tusvanyos_medve_belo-3.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/04_szeptember/sm_medveriasztas-csiksomlyon-pnt-6.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-14.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/vasarhely/aktualis/2019/09_aprilis/sm_autopalya_20_hv.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/05_augusztus/sm_medvekiloves-csikszereda-gn_-16.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2013/02_november/sm_gyaroklat-vn-056.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/03_oktober/03/sm_medve-elutottek-ebe-5.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/05_augusztus/sm_elgazolt_medvebocs_ga-4.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/03_oktober/03/sm_medvetamadas_belo-6.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/10_kiemelesek/sm_megrongalt-auto-medve.jpg</t>
   </si>
   <si>
     <t>Székelyhon</t>
   </si>
   <si>
-    <t>Szétverték a medvék a szálloda egy részét</t>
-  </si>
-  <si>
-    <t>Emberre támadt a medve a háromszéki Nagyborosnyón</t>
-  </si>
-  <si>
-    <t>Villanypásztor állja a kukázó medvék útját</t>
-  </si>
-  <si>
-    <t>Jelentős kárt okoztak a héten egy bálványosi szállodában a garázdálkodó medvék. A vadak éjszaka betörtek az épületbe, felforgatták a konyhát, összetörtek egy mosodát és a vendéglői bejáratot. A térfigyelő kamerák rögzítették, amint a medvék ki-be járnak az ajtókon.</t>
-  </si>
-  <si>
-    <t>Emberre támadt a medve Nagyborosnyón csütörtökön. Az áldozat súlyos sérülésekkel került kórházba, de nincs életveszélyben – mondta el portálunknak Kanyó Antal, Nagyborosnyó alpolgármestere.</t>
-  </si>
-  <si>
-    <t>Mivel önmagukban nem váltak be, tovább növelték a medvebiztos szeméttárolók hatékonyságát Tusnádfürdőn: villanypásztorral vették körbe ezeket két helyszínen is. A területileg illetékes vadásztársaságnak vannak fenntartásai, az önkormányzat azonban a lehetséges kockázatokra is gondolt.</t>
-  </si>
-  <si>
-    <t>Bálványos</t>
-  </si>
-  <si>
-    <t>Nagyborosnyó</t>
+    <t>Újabb medvét gázoltak el, ezúttal Kovászna megye határában</t>
+  </si>
+  <si>
+    <t>Érdeklődik a medve a füstölt sonka iránt, de azért csapdába nem sétál érte</t>
+  </si>
+  <si>
+    <t>Bocsával együtt tört be az udvarra az anyamedve</t>
+  </si>
+  <si>
+    <t>Még a kormányválság is a garázdálkodó medvéknek kedvez</t>
+  </si>
+  <si>
+    <t>Nagykadácson és Felsőboldogfalván is medve miatt riasztották a csendőröket</t>
+  </si>
+  <si>
+    <t>Nem sokat ér a medvebiztos kuka, ha mellé teszik a szemetet</t>
+  </si>
+  <si>
+    <t>Már most kellene számolni a medvékkel a Marosvásárhely–Jászvásár autópálya építésénél</t>
+  </si>
+  <si>
+    <t>Medgyes utcáiról zavarták el a medvét</t>
+  </si>
+  <si>
+    <t>Lépcsőházban járt a medve</t>
+  </si>
+  <si>
+    <t>Sebzett medvét üldöznek a vadászok Székelyudvarhely határában</t>
+  </si>
+  <si>
+    <t>Öt medve pusztult el egy hét alatt Háromszéken</t>
+  </si>
+  <si>
+    <t>Juhokat ölt a medve Székelyudvarhelyen</t>
+  </si>
+  <si>
+    <t>Autót rongált a medve</t>
+  </si>
+  <si>
+    <t>Elgázolt vasárnap este egy gépkocsi egy medvét a Kovászna megyei Ozsdola és Tulnici között, a 2D jelzésű országúton – írja a Vrancea Megyei Rendőr-főkapitányságra hivatkozva az Agerpres.</t>
+  </si>
+  <si>
+    <t>Több háziállatot is megölt Homoródalmáson egy medve, amelyre közel egy hónapja kért – eddig eredménytelenül – kilövési engedélyt az illetékes vadásztársaság. Azóta csapdát és vadkamerát is kihelyeztek a helyszínen, és az is kiderült, hogy a továbbra is károkat okozó medve egy kifejlett, felnőtt egyed.</t>
+  </si>
+  <si>
+    <t>Ismét medvéhez riasztották keddre virradóan a csendőröket Tusnádfürdőn. A nagyvad egy asszony udvarára tört be, a környékbeli lakosságnak a Ro-Alert rendszerrel hívták fel a figyelmét a veszélyre – tájékoztatott az Agerpres hírügynökség.</t>
+  </si>
+  <si>
+    <t>Már a veszélyes medvék kilövésére sem kapnak engedélyt a vadásztársaságok, ugyanis a kormányválság miatt nem állít ki ilyen jellegű jóváhagyásokat a tárcavezető nélkül maradt környezetvédelmi minisztérium.</t>
+  </si>
+  <si>
+    <t>Medve miatt riasztották csütörtökre virradóra a Hargita megyei csendőröket a Siménfalvához tartozó Nagykadácson és Felsőboldogfalván.</t>
+  </si>
+  <si>
+    <t>Még nem tudni, hogy bevált-e a nyáron Sikaszóban felszerelt medvebiztos kuka, hiszen azóta más községbeli településekről sem érkeztek panaszok a nagyvadakra. Ami viszont rossz, hogy egyesek továbbra is a tárolók mellé teszik a szemetüket ahelyett, hogy beledobnák.</t>
+  </si>
+  <si>
+    <t>Tíz százalékkal növelné a Marosvásárhely–Jászvásár autópálya költségeit, ha megépítenék a vadátkelőket. Ha megteszik, példaértékű autópálya épülhet, ha azonban nem, akkor sok állat elpusztulna, és még több az emberek lakta települések felé terelődne.</t>
+  </si>
+  <si>
+    <t>A csendőrök, rendőrök és erdészek visszazavarták az erdőbe azt a medvét, amelyik szombat reggel Medgyesen kószált.</t>
+  </si>
+  <si>
+    <t>Egy fogarasi tömbház lépcsőházában látott medve miatt figyelmeztették a lakosságot a Ro-Alert rendszeren keresztül vasárnap este, tájékoztatott a Brassó Megyei Katasztrófavédelmi Felügyelőségre (ISU) hivatkozva az Agerpres.</t>
+  </si>
+  <si>
+    <t>Kétbocsos anyamedvét ütöttek el hétfőn este Székelyudvarhely és Felsőboldogfalva között. A nagyvad nem vesztette életét, hanem a Nagy-oldalban lévő terepmotor-pályához közeli erdőbe menekült. A vadásztársulat jelenlegi is keresi a veszélyesnek minősülő sebzett medvét, így arra kérik a lakókat, hogy kerüljék a környéket.</t>
+  </si>
+  <si>
+    <t>Az elmúlt egy hét alatt öt medve pusztult el Háromszéken: kettőt a vonat ütött el, hármat az országúton gázoltak el a gépkocsik. Az árván maradt bocsokat Foksányba szállítják.</t>
+  </si>
+  <si>
+    <t>Egy juhot megölt, a másikat pedig halálosan megsebesítette a medve, amely szerdán hajnalban garázdálkodott a székelyudvarhelyi Rét utcai portán. A gazda a nagyvad visszatérésétől tart, a többi jószágát féltve. A vadászok csapdával igyekeznek befogni a kártékony medvét.</t>
+  </si>
+  <si>
+    <t>Gépkocsit rongált meg egy medve Bálványoson szerdára virradóan. A fürdőtelep Torja községhez tartozik, Daragus Attila polgármester lapunknak azt mondta, nem ez az első eset, hogy autókat „szednek szét” a medvék, előfordult, hogy egyetlen éjszaka alatt hat autót is összetörtek.</t>
+  </si>
+  <si>
+    <t>Ozsdola</t>
+  </si>
+  <si>
+    <t>Homoródalmás</t>
   </si>
   <si>
     <t>Tusnádfürdő</t>
+  </si>
+  <si>
+    <t>Felsőboldogfalva</t>
+  </si>
+  <si>
+    <t>Zetelaka</t>
+  </si>
+  <si>
+    <t>Marosvásárhely</t>
+  </si>
+  <si>
+    <t>Fogaras</t>
+  </si>
+  <si>
+    <t>Brassó</t>
+  </si>
+  <si>
+    <t>Székelyudvarhely</t>
+  </si>
+  <si>
+    <t>Torja</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,14 +334,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -253,7 +380,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,27 +412,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,24 +446,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -530,19 +621,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -589,31 +675,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
-        <v>43730</v>
+        <v>43759</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -622,37 +708,43 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>45.9804991</v>
+      </c>
+      <c r="O2">
+        <v>26.263009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
-        <v>43734</v>
+        <v>43759</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -661,73 +753,562 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>45.821108899999999</v>
+        <v>46.2343918</v>
       </c>
       <c r="O3">
-        <v>26.015429000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25.4569963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
-        <v>43734</v>
+        <v>43760</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>46.1460752</v>
+      </c>
+      <c r="O4">
+        <v>25.8569589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2">
+        <v>43760</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2">
+        <v>43762</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>46.2743433</v>
+      </c>
+      <c r="O6">
+        <v>25.2775321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2">
+        <v>43763</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>46.3910308</v>
+      </c>
+      <c r="O7">
+        <v>25.3679291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2">
+        <v>43764</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>46.5385862</v>
+      </c>
+      <c r="O8">
+        <v>24.5514392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2">
+        <v>43764</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2">
+        <v>43766</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>45.84164029999999</v>
+      </c>
+      <c r="O10">
+        <v>24.9730954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2">
+        <v>43766</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>45.6579755</v>
+      </c>
+      <c r="O11">
+        <v>25.6011977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2">
+        <v>43767</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>46.2743433</v>
+      </c>
+      <c r="O12">
+        <v>25.2775321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2">
+        <v>43768</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2">
+        <v>43768</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>46.3049996</v>
+      </c>
+      <c r="O14">
+        <v>25.2926479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2">
+        <v>43769</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>46.146075199999999</v>
-      </c>
-      <c r="O4">
-        <v>25.856958899999999</v>
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>46.0512486</v>
+      </c>
+      <c r="O15">
+        <v>26.0422426</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="D5" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+    <hyperlink ref="D7" r:id="rId12"/>
+    <hyperlink ref="C8" r:id="rId13"/>
+    <hyperlink ref="D8" r:id="rId14"/>
+    <hyperlink ref="C9" r:id="rId15"/>
+    <hyperlink ref="D9" r:id="rId16"/>
+    <hyperlink ref="C10" r:id="rId17"/>
+    <hyperlink ref="D10" r:id="rId18"/>
+    <hyperlink ref="C11" r:id="rId19"/>
+    <hyperlink ref="D11" r:id="rId20"/>
+    <hyperlink ref="C12" r:id="rId21"/>
+    <hyperlink ref="D12" r:id="rId22"/>
+    <hyperlink ref="C13" r:id="rId23"/>
+    <hyperlink ref="D13" r:id="rId24"/>
+    <hyperlink ref="C14" r:id="rId25"/>
+    <hyperlink ref="D14" r:id="rId26"/>
+    <hyperlink ref="C15" r:id="rId27"/>
+    <hyperlink ref="D15" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/data/szekelyhon_data.xlsx
+++ b/data/szekelyhon_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Github\szekelydata\medveterkep\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C65D1D-29B7-43B7-91E3-02E2E80E3192}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>date</t>
   </si>
@@ -61,203 +67,146 @@
     <t>checked</t>
   </si>
   <si>
-    <t>https://szekelyhon.ro/aktualis/ujabb-medvet-gazoltak-el-ezuttal-kovaszna-megye-hataraban</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/megtermett-medve-garazdalkodik-homorodalmason-varjak-hogy-kilohessek</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/bocsaval-egyutt-tort-be-az-udvarra-az-anyamedve</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/meg-a-kormanyvalsag-is-a-garazdalkodo-medveknek-kedvez</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/nagykadacson-es-felsoboldogfalvan-is-medve-miatt-riasztottak-a-csendoroket</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/nem-sokat-er-a-medvebiztos-kuka-ha-melle-teszik-a-szemetet</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/mar-most-kellene-szamolni-a-medvekkel-a-marosvasarhelynjaszvasar-autopalya-epitesenel</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/vilag/medgyes-utcairol-zavartak-el-a-medvet</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/vilag/lepcsohazban-jart-a-medve</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/sebzett-medvet-uldoznek-a-vadaszok-szekelyudvarhely-hataraban</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/ot-medve-pusztult-el-egy-het-alatt-haromszeken</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/juhokat-olt-a-medve-szekelyudvarhelyen</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/autot-rongalt-a-medve</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/05_augusztus/sm_elgazolt_medvebocs_ga-5.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/10_kiemelesek/sm_medve_homorodalmas.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/04_szeptember/sm_medveriasztas-csiksomlyon-pnt-5.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/02/sm_tusvanyos_medve_belo-3.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/04_szeptember/sm_medveriasztas-csiksomlyon-pnt-6.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-14.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/vasarhely/aktualis/2019/09_aprilis/sm_autopalya_20_hv.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/05_augusztus/sm_medvekiloves-csikszereda-gn_-16.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2013/02_november/sm_gyaroklat-vn-056.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/03_oktober/03/sm_medve-elutottek-ebe-5.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/05_augusztus/sm_elgazolt_medvebocs_ga-4.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/03_oktober/03/sm_medvetamadas_belo-6.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/10_kiemelesek/sm_megrongalt-auto-medve.jpg</t>
+    <t>https://szekelyhon.ro/aktualis/medveproblema-brusszeli-nyomasgyakorlasban-biznak-a-szekelyfoldi-megyek-vezetoi</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/sokkos-allapotban-kerult-korhazba-a-medvetamadas-aldozata</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kilonek-a-hidegkuton-emberre-tamado-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/szeben-es-feher-megye-is-csatlakozott-a-bmedvepeticiohozr</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/megteritik-a-gazdaknak-az-elmult-harom-evben-tortent-medvekarokat</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/csiksomlyon-jar-a-medve-n-figyelmeztet-a-ro-alert</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kilottek-a-medvet-amely-majus-ota-tartotta-rettegesben-a-specialis-iskola-tanuloit</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/szamitani-kell-arra-hogy-telen-is-aktivak-lehetnek-a-medvek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/a-haztaji-gazdasagban-levo-osszes-birkat-megolte-a-medve-gyergyovaslabon</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/05_augusztus/01/sm_medve-cekend-ba-5.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/06_julius/sm_egeszsegugy-vn-048.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/08_majus/01/sm_medve-kiloves-remete-ba-5.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-4.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/03_oktober/03/sm_medvetamadas_belo-4.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/01_december/sm_ro-alert-somlyo01.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/08_majus/01/sm_medve-kiloves-remete-ba-13.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-24.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2015/03_oktober/sm_farkastamadas-felsoboldogfalva-ab-76.jpg</t>
   </si>
   <si>
     <t>Székelyhon</t>
   </si>
   <si>
-    <t>Újabb medvét gázoltak el, ezúttal Kovászna megye határában</t>
-  </si>
-  <si>
-    <t>Érdeklődik a medve a füstölt sonka iránt, de azért csapdába nem sétál érte</t>
-  </si>
-  <si>
-    <t>Bocsával együtt tört be az udvarra az anyamedve</t>
-  </si>
-  <si>
-    <t>Még a kormányválság is a garázdálkodó medvéknek kedvez</t>
-  </si>
-  <si>
-    <t>Nagykadácson és Felsőboldogfalván is medve miatt riasztották a csendőröket</t>
-  </si>
-  <si>
-    <t>Nem sokat ér a medvebiztos kuka, ha mellé teszik a szemetet</t>
-  </si>
-  <si>
-    <t>Már most kellene számolni a medvékkel a Marosvásárhely–Jászvásár autópálya építésénél</t>
-  </si>
-  <si>
-    <t>Medgyes utcáiról zavarták el a medvét</t>
-  </si>
-  <si>
-    <t>Lépcsőházban járt a medve</t>
-  </si>
-  <si>
-    <t>Sebzett medvét üldöznek a vadászok Székelyudvarhely határában</t>
-  </si>
-  <si>
-    <t>Öt medve pusztult el egy hét alatt Háromszéken</t>
-  </si>
-  <si>
-    <t>Juhokat ölt a medve Székelyudvarhelyen</t>
-  </si>
-  <si>
-    <t>Autót rongált a medve</t>
-  </si>
-  <si>
-    <t>Elgázolt vasárnap este egy gépkocsi egy medvét a Kovászna megyei Ozsdola és Tulnici között, a 2D jelzésű országúton – írja a Vrancea Megyei Rendőr-főkapitányságra hivatkozva az Agerpres.</t>
-  </si>
-  <si>
-    <t>Több háziállatot is megölt Homoródalmáson egy medve, amelyre közel egy hónapja kért – eddig eredménytelenül – kilövési engedélyt az illetékes vadásztársaság. Azóta csapdát és vadkamerát is kihelyeztek a helyszínen, és az is kiderült, hogy a továbbra is károkat okozó medve egy kifejlett, felnőtt egyed.</t>
-  </si>
-  <si>
-    <t>Ismét medvéhez riasztották keddre virradóan a csendőröket Tusnádfürdőn. A nagyvad egy asszony udvarára tört be, a környékbeli lakosságnak a Ro-Alert rendszerrel hívták fel a figyelmét a veszélyre – tájékoztatott az Agerpres hírügynökség.</t>
-  </si>
-  <si>
-    <t>Már a veszélyes medvék kilövésére sem kapnak engedélyt a vadásztársaságok, ugyanis a kormányválság miatt nem állít ki ilyen jellegű jóváhagyásokat a tárcavezető nélkül maradt környezetvédelmi minisztérium.</t>
-  </si>
-  <si>
-    <t>Medve miatt riasztották csütörtökre virradóra a Hargita megyei csendőröket a Siménfalvához tartozó Nagykadácson és Felsőboldogfalván.</t>
-  </si>
-  <si>
-    <t>Még nem tudni, hogy bevált-e a nyáron Sikaszóban felszerelt medvebiztos kuka, hiszen azóta más községbeli településekről sem érkeztek panaszok a nagyvadakra. Ami viszont rossz, hogy egyesek továbbra is a tárolók mellé teszik a szemetüket ahelyett, hogy beledobnák.</t>
-  </si>
-  <si>
-    <t>Tíz százalékkal növelné a Marosvásárhely–Jászvásár autópálya költségeit, ha megépítenék a vadátkelőket. Ha megteszik, példaértékű autópálya épülhet, ha azonban nem, akkor sok állat elpusztulna, és még több az emberek lakta települések felé terelődne.</t>
-  </si>
-  <si>
-    <t>A csendőrök, rendőrök és erdészek visszazavarták az erdőbe azt a medvét, amelyik szombat reggel Medgyesen kószált.</t>
-  </si>
-  <si>
-    <t>Egy fogarasi tömbház lépcsőházában látott medve miatt figyelmeztették a lakosságot a Ro-Alert rendszeren keresztül vasárnap este, tájékoztatott a Brassó Megyei Katasztrófavédelmi Felügyelőségre (ISU) hivatkozva az Agerpres.</t>
-  </si>
-  <si>
-    <t>Kétbocsos anyamedvét ütöttek el hétfőn este Székelyudvarhely és Felsőboldogfalva között. A nagyvad nem vesztette életét, hanem a Nagy-oldalban lévő terepmotor-pályához közeli erdőbe menekült. A vadásztársulat jelenlegi is keresi a veszélyesnek minősülő sebzett medvét, így arra kérik a lakókat, hogy kerüljék a környéket.</t>
-  </si>
-  <si>
-    <t>Az elmúlt egy hét alatt öt medve pusztult el Háromszéken: kettőt a vonat ütött el, hármat az országúton gázoltak el a gépkocsik. Az árván maradt bocsokat Foksányba szállítják.</t>
-  </si>
-  <si>
-    <t>Egy juhot megölt, a másikat pedig halálosan megsebesítette a medve, amely szerdán hajnalban garázdálkodott a székelyudvarhelyi Rét utcai portán. A gazda a nagyvad visszatérésétől tart, a többi jószágát féltve. A vadászok csapdával igyekeznek befogni a kártékony medvét.</t>
-  </si>
-  <si>
-    <t>Gépkocsit rongált meg egy medve Bálványoson szerdára virradóan. A fürdőtelep Torja községhez tartozik, Daragus Attila polgármester lapunknak azt mondta, nem ez az első eset, hogy autókat „szednek szét” a medvék, előfordult, hogy egyetlen éjszaka alatt hat autót is összetörtek.</t>
-  </si>
-  <si>
-    <t>Ozsdola</t>
-  </si>
-  <si>
-    <t>Homoródalmás</t>
-  </si>
-  <si>
-    <t>Tusnádfürdő</t>
-  </si>
-  <si>
-    <t>Felsőboldogfalva</t>
-  </si>
-  <si>
-    <t>Zetelaka</t>
-  </si>
-  <si>
-    <t>Marosvásárhely</t>
-  </si>
-  <si>
-    <t>Fogaras</t>
-  </si>
-  <si>
-    <t>Brassó</t>
-  </si>
-  <si>
-    <t>Székelyudvarhely</t>
-  </si>
-  <si>
-    <t>Torja</t>
+    <t>Medveprobléma: brüsszeli nyomásgyakorlásban bíznak a székelyföldi megyék vezetői</t>
+  </si>
+  <si>
+    <t>Sokkos állapotban került kórházba a medvetámadás áldozata</t>
+  </si>
+  <si>
+    <t>Kilőnék a Hidegkúton emberre támadó medvét</t>
+  </si>
+  <si>
+    <t>Szeben és Fehér megye is csatlakozott a „medvepetícióhoz”</t>
+  </si>
+  <si>
+    <t>Megtérítik a gazdáknak az elmúlt három évben történt medvekárokat</t>
+  </si>
+  <si>
+    <t>Csíksomlyón jár a medve – figyelmeztet a Ro-Alert</t>
+  </si>
+  <si>
+    <t>Kilőtték a medvét, amely május óta rettegésben tartotta a speciális iskola tanulóit</t>
+  </si>
+  <si>
+    <t>Számítani kell arra, hogy télen is aktívak lehetnek a medvék</t>
+  </si>
+  <si>
+    <t>A háztáji gazdaságban levő összes birkát megölte a medve Gyergyóvaslábon</t>
+  </si>
+  <si>
+    <t>Brüsszelben keresnek támogatást az egyre súlyosbodó medveproblémára Hargita, Kovászna, Maros és Brassó megye vezetői. Úgy vélik, „Bukarestben akkor kapják fel a fejüket, ha Brüsszelből kapnak egy intést”. </t>
+  </si>
+  <si>
+    <t>Mellkasi sérülései a legsúlyosabbak annak a férfinak, aki medvetámadásban szerzett többszöri zúzott sebeket testének gyomortájékán, az ágyéki részen és könyökén kedd este. Az elsődleges információk szerint a hidegkúti férfi az esztenáról tért haza, amikor saját kertjében rátámadt a nagyvad.</t>
+  </si>
+  <si>
+    <t>Kérni fogja az engedélyt a székelykeresztúri Hubertus Vadászegyesület a környezetvédelmi minisztériumtól azon medve kilövésére, amely kedden rátámadt egy férfire Hidegkúton.</t>
+  </si>
+  <si>
+    <t>Szeben és Fehér megyék vezetői is aláírták az Európai Parlament (EP) Petíciós Bizottságához benyújtandó folyamodványt, amelyben ismertetik, hogy az elszaporodott medveállomány veszélyezteti az emberéletet, és a mezőgazdasági javak sincsenek biztonságban.</t>
+  </si>
+  <si>
+    <t>Biztosítják az önkormányzatok működését az idei évre, kifizetik a Helyi Fejlesztési Országos Program támogatásait, és az elmúlt három év medvekárait is megtérítik a gazdáknak – jelentették be Csíkszeredában az RMDSZ politikusai a kormány által meghozott költségvetés-kiigazítást ismertetve.</t>
+  </si>
+  <si>
+    <t>Csíksomlyón, a sípálya környékén felbukkant medvéről kaptak bejelentést a hatóságok hétfő késődélután, a vészhelyzeti felügyelőség azonnal figyelmeztető üzenetet küldött a Ro-Alert rendszeren keresztül a környéken lévőknek.</t>
+  </si>
+  <si>
+    <t>Kilőtték hétvégén azt a medvét, amely május óta tartotta rettegésben az oltszemi speciális iskolában tanuló ötven, állami gondozásban lévő gyermeket, illetve gondozóikat.</t>
+  </si>
+  <si>
+    <t>Egyértelmű, hogy Székelyföldön még nem vonultak téli álomra a medvék, ezért arra voltunk kíváncsiak, hogy ez általában milyen körülmények között történik meg. A vadászok szerint az elkövetkező hónapokban is számíthatunk nagyvadak által okozott károkra.</t>
+  </si>
+  <si>
+    <t>Tizenegy birkát ölt meg a hétfőről keddre virradó éjszaka egy nőstény medve Gyergyóvasláb község egyik, vonatállomáshoz közeli házának udvarán.</t>
+  </si>
+  <si>
+    <t>Csíkszereda</t>
+  </si>
+  <si>
+    <t>Hidegkút</t>
+  </si>
+  <si>
+    <t>Székelykeresztúr</t>
+  </si>
+  <si>
+    <t>Szeben</t>
+  </si>
+  <si>
+    <t>Csíksomlyó</t>
+  </si>
+  <si>
+    <t>Oltszem</t>
+  </si>
+  <si>
+    <t>Vasláb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +283,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -380,7 +337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,9 +369,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,6 +421,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,14 +614,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -675,31 +673,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
-        <v>43759</v>
+        <v>43795</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -708,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>45.9804991</v>
+        <v>46.369557399999998</v>
       </c>
       <c r="O2">
-        <v>26.263009</v>
+        <v>25.795365499999999</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
-        <v>43759</v>
+        <v>43795</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -753,43 +751,43 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>46.2343918</v>
+        <v>46.335918399999997</v>
       </c>
       <c r="O3">
-        <v>25.4569963</v>
+        <v>24.894142599999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
-        <v>43760</v>
+        <v>43796</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -798,37 +796,37 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>46.1460752</v>
+        <v>46.292452599999997</v>
       </c>
       <c r="O4">
-        <v>25.8569589</v>
+        <v>25.0317145</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
-        <v>43760</v>
+        <v>43797</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -842,35 +840,38 @@
       <c r="K5">
         <v>0</v>
       </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
       <c r="M5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
-        <v>43762</v>
+        <v>43798</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -879,43 +880,43 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>46.2743433</v>
+        <v>46.369557399999998</v>
       </c>
       <c r="O6">
-        <v>25.2775321</v>
+        <v>25.795365499999999</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
-        <v>43763</v>
+        <v>43801</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -924,37 +925,37 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>46.3910308</v>
+        <v>46.3753277</v>
       </c>
       <c r="O7">
-        <v>25.3679291</v>
+        <v>25.819270299999999</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
-        <v>43764</v>
+        <v>43801</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -969,43 +970,43 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>46.5385862</v>
+        <v>45.970976</v>
       </c>
       <c r="O8">
-        <v>24.5514392</v>
+        <v>25.845801900000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
-        <v>43764</v>
+        <v>43802</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1017,298 +1018,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
-        <v>43766</v>
+        <v>43802</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>45.84164029999999</v>
+        <v>46.646074800000008</v>
       </c>
       <c r="O10">
-        <v>24.9730954</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2">
-        <v>43766</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>45.6579755</v>
-      </c>
-      <c r="O11">
-        <v>25.6011977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2">
-        <v>43767</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>46.2743433</v>
-      </c>
-      <c r="O12">
-        <v>25.2775321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2">
-        <v>43768</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2">
-        <v>43768</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>76</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>46.3049996</v>
-      </c>
-      <c r="O14">
-        <v>25.2926479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2">
-        <v>43769</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>46.0512486</v>
-      </c>
-      <c r="O15">
-        <v>26.0422426</v>
+        <v>25.623710500000001</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
-    <hyperlink ref="C4" r:id="rId5"/>
-    <hyperlink ref="D4" r:id="rId6"/>
-    <hyperlink ref="C5" r:id="rId7"/>
-    <hyperlink ref="D5" r:id="rId8"/>
-    <hyperlink ref="C6" r:id="rId9"/>
-    <hyperlink ref="D6" r:id="rId10"/>
-    <hyperlink ref="C7" r:id="rId11"/>
-    <hyperlink ref="D7" r:id="rId12"/>
-    <hyperlink ref="C8" r:id="rId13"/>
-    <hyperlink ref="D8" r:id="rId14"/>
-    <hyperlink ref="C9" r:id="rId15"/>
-    <hyperlink ref="D9" r:id="rId16"/>
-    <hyperlink ref="C10" r:id="rId17"/>
-    <hyperlink ref="D10" r:id="rId18"/>
-    <hyperlink ref="C11" r:id="rId19"/>
-    <hyperlink ref="D11" r:id="rId20"/>
-    <hyperlink ref="C12" r:id="rId21"/>
-    <hyperlink ref="D12" r:id="rId22"/>
-    <hyperlink ref="C13" r:id="rId23"/>
-    <hyperlink ref="D13" r:id="rId24"/>
-    <hyperlink ref="C14" r:id="rId25"/>
-    <hyperlink ref="D14" r:id="rId26"/>
-    <hyperlink ref="C15" r:id="rId27"/>
-    <hyperlink ref="D15" r:id="rId28"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/data/szekelyhon_data.xlsx
+++ b/data/szekelyhon_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Github\szekelydata\medveterkep\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C65D1D-29B7-43B7-91E3-02E2E80E3192}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2AB913-5B65-4EAF-8158-98A1B6452CE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="-120" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>date</t>
   </si>
@@ -67,136 +67,154 @@
     <t>checked</t>
   </si>
   <si>
-    <t>https://szekelyhon.ro/aktualis/medveproblema-brusszeli-nyomasgyakorlasban-biznak-a-szekelyfoldi-megyek-vezetoi</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/sokkos-allapotban-kerult-korhazba-a-medvetamadas-aldozata</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/kilonek-a-hidegkuton-emberre-tamado-medvet</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/szeben-es-feher-megye-is-csatlakozott-a-bmedvepeticiohozr</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/megteritik-a-gazdaknak-az-elmult-harom-evben-tortent-medvekarokat</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/csiksomlyon-jar-a-medve-n-figyelmeztet-a-ro-alert</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/kilottek-a-medvet-amely-majus-ota-tartotta-rettegesben-a-specialis-iskola-tanuloit</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/szamitani-kell-arra-hogy-telen-is-aktivak-lehetnek-a-medvek</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/a-haztaji-gazdasagban-levo-osszes-birkat-megolte-a-medve-gyergyovaslabon</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/05_augusztus/01/sm_medve-cekend-ba-5.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/06_julius/sm_egeszsegugy-vn-048.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/08_majus/01/sm_medve-kiloves-remete-ba-5.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-4.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/03_oktober/03/sm_medvetamadas_belo-4.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/01_december/sm_ro-alert-somlyo01.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/08_majus/01/sm_medve-kiloves-remete-ba-13.jpg</t>
+    <t>https://szekelyhon.ro/aktualis/feldulva-talaltak-a-sirhelyeket</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/elutasitotta-medveugyben-a-zetelaki-terulettulajdonosi-tarsulas-keresetet-a-tablabirosag</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ki-akadalyozta-meg-hogy-a-barnamedve-lekeruljon-a-szigoruan-vedett-allatfajok-listajarol-romaniaban</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/penzt-iger-a-miniszter-a-medvek-altal-veszelyeztetett-telepulesek-vedelmere</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/hargita-megye-megvan-az-ev-elso-112-s-medveeszlelese</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/aktivak-a-medvek-szekelyudvarhely-kornyeken</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/lemondott-a-vadasztarsasag-az-emberre-tamado-hidegkuti-medve-kiloveserol</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/szagra-jonnek-a-medvek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medveradar-zetelakan-es-farkaslakan-voltak-a-legaktivabbak-tavaly-a-nagyvadak</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/gyergyoszentmiklos-utcain-koborolt-egy-medve</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/10_kiemelesek/sm_feldult-temeto-vaslab-9.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-18.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-3.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/03_oktober/03/sm_medve-elutottek-ebe-3.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-8.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2016/12_januar/sm_medvebarlang-ab-1.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-12.jpg</t>
   </si>
   <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-24.jpg</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2015/03_oktober/sm_farkastamadas-felsoboldogfalva-ab-76.jpg</t>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2013/12_januar/sm_medvek_kr_10.jpg</t>
   </si>
   <si>
     <t>Székelyhon</t>
   </si>
   <si>
-    <t>Medveprobléma: brüsszeli nyomásgyakorlásban bíznak a székelyföldi megyék vezetői</t>
-  </si>
-  <si>
-    <t>Sokkos állapotban került kórházba a medvetámadás áldozata</t>
-  </si>
-  <si>
-    <t>Kilőnék a Hidegkúton emberre támadó medvét</t>
-  </si>
-  <si>
-    <t>Szeben és Fehér megye is csatlakozott a „medvepetícióhoz”</t>
-  </si>
-  <si>
-    <t>Megtérítik a gazdáknak az elmúlt három évben történt medvekárokat</t>
-  </si>
-  <si>
-    <t>Csíksomlyón jár a medve – figyelmeztet a Ro-Alert</t>
-  </si>
-  <si>
-    <t>Kilőtték a medvét, amely május óta rettegésben tartotta a speciális iskola tanulóit</t>
-  </si>
-  <si>
-    <t>Számítani kell arra, hogy télen is aktívak lehetnek a medvék</t>
-  </si>
-  <si>
-    <t>A háztáji gazdaságban levő összes birkát megölte a medve Gyergyóvaslábon</t>
-  </si>
-  <si>
-    <t>Brüsszelben keresnek támogatást az egyre súlyosbodó medveproblémára Hargita, Kovászna, Maros és Brassó megye vezetői. Úgy vélik, „Bukarestben akkor kapják fel a fejüket, ha Brüsszelből kapnak egy intést”. </t>
-  </si>
-  <si>
-    <t>Mellkasi sérülései a legsúlyosabbak annak a férfinak, aki medvetámadásban szerzett többszöri zúzott sebeket testének gyomortájékán, az ágyéki részen és könyökén kedd este. Az elsődleges információk szerint a hidegkúti férfi az esztenáról tért haza, amikor saját kertjében rátámadt a nagyvad.</t>
-  </si>
-  <si>
-    <t>Kérni fogja az engedélyt a székelykeresztúri Hubertus Vadászegyesület a környezetvédelmi minisztériumtól azon medve kilövésére, amely kedden rátámadt egy férfire Hidegkúton.</t>
-  </si>
-  <si>
-    <t>Szeben és Fehér megyék vezetői is aláírták az Európai Parlament (EP) Petíciós Bizottságához benyújtandó folyamodványt, amelyben ismertetik, hogy az elszaporodott medveállomány veszélyezteti az emberéletet, és a mezőgazdasági javak sincsenek biztonságban.</t>
-  </si>
-  <si>
-    <t>Biztosítják az önkormányzatok működését az idei évre, kifizetik a Helyi Fejlesztési Országos Program támogatásait, és az elmúlt három év medvekárait is megtérítik a gazdáknak – jelentették be Csíkszeredában az RMDSZ politikusai a kormány által meghozott költségvetés-kiigazítást ismertetve.</t>
-  </si>
-  <si>
-    <t>Csíksomlyón, a sípálya környékén felbukkant medvéről kaptak bejelentést a hatóságok hétfő késődélután, a vészhelyzeti felügyelőség azonnal figyelmeztető üzenetet küldött a Ro-Alert rendszeren keresztül a környéken lévőknek.</t>
-  </si>
-  <si>
-    <t>Kilőtték hétvégén azt a medvét, amely május óta tartotta rettegésben az oltszemi speciális iskolában tanuló ötven, állami gondozásban lévő gyermeket, illetve gondozóikat.</t>
-  </si>
-  <si>
-    <t>Egyértelmű, hogy Székelyföldön még nem vonultak téli álomra a medvék, ezért arra voltunk kíváncsiak, hogy ez általában milyen körülmények között történik meg. A vadászok szerint az elkövetkező hónapokban is számíthatunk nagyvadak által okozott károkra.</t>
-  </si>
-  <si>
-    <t>Tizenegy birkát ölt meg a hétfőről keddre virradó éjszaka egy nőstény medve Gyergyóvasláb község egyik, vonatállomáshoz közeli házának udvarán.</t>
+    <t>Feldúlva találták a sírhelyeket</t>
+  </si>
+  <si>
+    <t>Elutasította medveügyben a Zetelaki Területtulajdonosi Társulás keresetét a táblabíróság</t>
+  </si>
+  <si>
+    <t>Ki akadályozta meg, hogy a barnamedve lekerüljön a szigorúan védett állatfajok listájáról Romániában?</t>
+  </si>
+  <si>
+    <t>Pénzt ígér a miniszter a medvék által veszélyeztetett települések védelmére</t>
+  </si>
+  <si>
+    <t>Hargita megye: megvan az év első 112-s medveészlelése</t>
+  </si>
+  <si>
+    <t>Aktívak a medvék Székelyudvarhely környékén</t>
+  </si>
+  <si>
+    <t>Lemondott a vadásztársaság az emberre támadó hidegkúti medve kilövéséről</t>
+  </si>
+  <si>
+    <t>Amíg elérhető közelségben van az ételmaradék, addig a medvék jelenlétére is számítani kell</t>
+  </si>
+  <si>
+    <t>Medveradar: Zetelakán és Farkaslakán voltak a legaktívabbak tavaly a nagyvadak</t>
+  </si>
+  <si>
+    <t>Gyergyószentmiklós utcáin kóborolt egy medve</t>
+  </si>
+  <si>
+    <t>Feldúlva találták a sírhelyeket, illetve azok környékét a Vasláb községhez tartozó hevederi temetőben. A nyomok alapján medvejárásra gyanakodnak.</t>
+  </si>
+  <si>
+    <t>Elutasította a Marosvásárhelyi Táblabíróság a Zetelaki Területtulajdonosi Társulás keresetét, amelyet a társulás a Környezetvédelmi Minisztérium ellen indított a vadgazdálkodási szabályozások alkalmazásának elmulasztása miatt. A társulás vezetője fellebbezést tervez.</t>
+  </si>
+  <si>
+    <t>Az állatvédők és az Európai Bizottság akadályozta meg, hogy a barnamedve öt évre lekerüljön a szigorúan védett állatfajok listájáról Romániában – állítja Benkő Erika RMDSZ-képviselő. </t>
+  </si>
+  <si>
+    <t>A háromszéki Zabolán tartott terepszemlét Costel Alexe környezetvédelmi miniszter, aki a látogatást követően arról számol be, hogy körvonalazódott egy olyan finanszírozási program, amely lehetővé teszi a medvék által veszélyeztetett települések védelmét.</t>
+  </si>
+  <si>
+    <t>Medvét látott a kertjében egy parajdi férfi a Sóhát utcában szombaton délután. A nagyvadat a gyümölcsfáknál fedezte fel, mintegy száz méterre a lakóháztól. Az esetet a 112-n jelentette, a helyszínre egy csendőri és egy mentőegység szállt ki.</t>
+  </si>
+  <si>
+    <t>Noha a magasabban fekvő térségekben már téli álmot alszanak a medvék, más területeken ez nem így van. Székelyudvarhely környékén például legalább tizenegy medve aktív jelenleg is, ezért a vadászok óvatosságra intenek.</t>
+  </si>
+  <si>
+    <t>Megúszta a kilövést a Hidegkúton emberre támadó medve, az illetékes vadásztársaságnál lemondtak arról, hogy a vad ártalmatlanítására rendkívüli jóváhagyást igényeljenek a környezetvédelmi minisztériumtól.</t>
+  </si>
+  <si>
+    <t>A szeméttárolók vonzzák a székelyudvarhelyi Cserehát lakónegyedbe az aktív nagyvadakat, ezért a Nagy-Küküllő Vadász- és Sporthorgász Egyesület medvebiztos kukákat rendelt, amelyeket a szemételszállító vállalattal egyeztetve helyezne ki. A medvék befogásával is próbálkoznak.</t>
+  </si>
+  <si>
+    <t>A kezdeti fellendülés után kissé lankadt az aktivitás a székelyföldi medveradar és -térkép néven emlegetett medveészlelő portálon, amelyet tavaly márciusban hozott létre Csala Dénes adatblogger. Ettől eltekintve a több mint 700 bejegyzést számláló medvetérkép a legszerteágazóbb adatbázisnak számít.</t>
+  </si>
+  <si>
+    <t>Egy városszéli üzemanyagtöltő állomásnál felbukkant medve miatt riasztották keddre virradóan a hatóságokat Gyergyószentmiklóson. Míg a csendőrök a nagyvadat kutatták, a vészhelyzeti felügyelőség a Ro-Alert rendszeren figyelmeztette a lakókat a veszélyre. A medvét végül megtalálták és elűzték.</t>
+  </si>
+  <si>
+    <t>Vasláb</t>
+  </si>
+  <si>
+    <t>Zetelaka</t>
+  </si>
+  <si>
+    <t>Sepsiszentgyörgy</t>
+  </si>
+  <si>
+    <t>Zabola</t>
+  </si>
+  <si>
+    <t>Parajd</t>
+  </si>
+  <si>
+    <t>Székelyudvarhely</t>
+  </si>
+  <si>
+    <t>Hidegkút</t>
   </si>
   <si>
     <t>Csíkszereda</t>
   </si>
   <si>
-    <t>Hidegkút</t>
-  </si>
-  <si>
-    <t>Székelykeresztúr</t>
-  </si>
-  <si>
-    <t>Szeben</t>
-  </si>
-  <si>
-    <t>Csíksomlyó</t>
-  </si>
-  <si>
-    <t>Oltszem</t>
-  </si>
-  <si>
-    <t>Vasláb</t>
+    <t>Gyergyószentmiklós</t>
   </si>
 </sst>
 </file>
@@ -615,15 +633,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A2" sqref="A2:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -676,28 +694,28 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
-        <v>43795</v>
+        <v>43824</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -706,43 +724,43 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>46.369557399999998</v>
+        <v>46.646074800000008</v>
       </c>
       <c r="O2">
-        <v>25.795365499999999</v>
+        <v>25.623710500000001</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
-        <v>43795</v>
+        <v>43825</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -751,37 +769,37 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>46.335918399999997</v>
+        <v>46.391030800000003</v>
       </c>
       <c r="O3">
-        <v>24.894142599999999</v>
+        <v>25.367929100000001</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
-        <v>43796</v>
+        <v>43834</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -796,37 +814,37 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>46.292452599999997</v>
+        <v>45.860937499999999</v>
       </c>
       <c r="O4">
-        <v>25.0317145</v>
+        <v>25.788579599999998</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
-        <v>43797</v>
+        <v>43836</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -841,37 +859,43 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M5">
         <v>0</v>
+      </c>
+      <c r="N5">
+        <v>45.887702999999988</v>
+      </c>
+      <c r="O5">
+        <v>26.189789000000001</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
-        <v>43798</v>
+        <v>43841</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -880,43 +904,43 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>46.369557399999998</v>
+        <v>46.555342899999999</v>
       </c>
       <c r="O6">
-        <v>25.795365499999999</v>
+        <v>25.127272300000001</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
-        <v>43801</v>
+        <v>43843</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -925,37 +949,37 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>46.3753277</v>
+        <v>46.304999600000002</v>
       </c>
       <c r="O7">
-        <v>25.819270299999999</v>
+        <v>25.292647899999999</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
-        <v>43801</v>
+        <v>43846</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -970,37 +994,37 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>45.970976</v>
+        <v>46.335918399999997</v>
       </c>
       <c r="O8">
-        <v>25.845801900000001</v>
+        <v>24.894142599999999</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
-        <v>43802</v>
+        <v>43851</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1014,53 +1038,107 @@
       <c r="K9">
         <v>0</v>
       </c>
+      <c r="L9" t="s">
+        <v>61</v>
+      </c>
       <c r="M9">
         <v>0</v>
+      </c>
+      <c r="N9">
+        <v>46.304999600000002</v>
+      </c>
+      <c r="O9">
+        <v>25.292647899999999</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
-        <v>43802</v>
+        <v>43856</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>46.646074800000008</v>
+        <v>46.369557399999998</v>
       </c>
       <c r="O10">
-        <v>25.623710500000001</v>
+        <v>25.795365499999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2">
+        <v>43858</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>46.721211199999999</v>
+      </c>
+      <c r="O11">
+        <v>25.585527500000001</v>
       </c>
     </row>
   </sheetData>
@@ -1083,8 +1161,10 @@
     <hyperlink ref="D9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="C10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="D10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/data/szekelyhon_data.xlsx
+++ b/data/szekelyhon_data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Github\szekelydata\medveterkep\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2AB913-5B65-4EAF-8158-98A1B6452CE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="-120" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>date</t>
   </si>
@@ -67,164 +61,182 @@
     <t>checked</t>
   </si>
   <si>
-    <t>https://szekelyhon.ro/aktualis/feldulva-talaltak-a-sirhelyeket</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/elutasitotta-medveugyben-a-zetelaki-terulettulajdonosi-tarsulas-keresetet-a-tablabirosag</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/ki-akadalyozta-meg-hogy-a-barnamedve-lekeruljon-a-szigoruan-vedett-allatfajok-listajarol-romaniaban</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/penzt-iger-a-miniszter-a-medvek-altal-veszelyeztetett-telepulesek-vedelmere</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/hargita-megye-megvan-az-ev-elso-112-s-medveeszlelese</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/aktivak-a-medvek-szekelyudvarhely-kornyeken</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/lemondott-a-vadasztarsasag-az-emberre-tamado-hidegkuti-medve-kiloveserol</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/szagra-jonnek-a-medvek</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/medveradar-zetelakan-es-farkaslakan-voltak-a-legaktivabbak-tavaly-a-nagyvadak</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/gyergyoszentmiklos-utcain-koborolt-egy-medve</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/10_kiemelesek/sm_feldult-temeto-vaslab-9.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-18.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-3.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/03_oktober/03/sm_medve-elutottek-ebe-3.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-8.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2016/12_januar/sm_medvebarlang-ab-1.jpg</t>
+    <t>https://szekelyhon.ro/aktualis/elpusztult-egy-medve-eted-hataraban-orvvadaszat-gyanujaval-vizsgalodik-a-rendorseg</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/celkeresztben-a-bmedvetorvenyr-n-a-vadaszok-szerint-a-szaktarca-osszemossa-a-fogalmakat</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tehetetlenek-a-lakok-az-ablakbol-kenytelenek-vegignezni-ahogy-a-medvek-elpusztitjak-a-haszonallataikat</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/harom-juhot-olt-meg-a-medve-egy-farcadi-gazda-udvaran</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/athelyezik-egy-masik-teruletre-a-tusnadfurdore-napi-rendszeresseggel-bejaro-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvek-miatt-riasztottak-a-hatosagokat-es-ebresztettek-fel-almukbol-a-kornyeken-eloket</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kulon-megelozesi-kvotat-es-a-medvekarok-kifizeteset-kerik</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/vilag/a-kormoran-lekerulhet-a-vedett-fajok-listajarol-a-medve-viszont-mar-nem</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medve-hatolt-be-egy-tusnadfurdoi-portara</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/harombocsos-anyamedve-bukkant-fel-gyergyoszentmikloson</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/boncolas-utan-ugy-velik-auto-uthette-el-az-elpusztult-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/a-villanypasztor-sem-allitotta-meg-a-medvet</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetetem-eted-ebe-04.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-90.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-89.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/vasarhely/aktualis/2020/11_februar/sm_medvezoo_06_hv.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-4.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/123rf/2020/sm_alvas-telefon-123rf.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetamadas-ebe-23.jpg</t>
   </si>
   <si>
     <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-12.jpg</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-24.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2013/12_januar/sm_medvek_kr_10.jpg</t>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-8.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/05_augusztus/sm_medvekiloves-csikszereda-gn_-21.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetetem-eted-ebe-03.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/08-maj/sm_eted-medvetamadas-ebe-64.jpg</t>
   </si>
   <si>
     <t>Székelyhon</t>
   </si>
   <si>
-    <t>Feldúlva találták a sírhelyeket</t>
-  </si>
-  <si>
-    <t>Elutasította medveügyben a Zetelaki Területtulajdonosi Társulás keresetét a táblabíróság</t>
-  </si>
-  <si>
-    <t>Ki akadályozta meg, hogy a barnamedve lekerüljön a szigorúan védett állatfajok listájáról Romániában?</t>
-  </si>
-  <si>
-    <t>Pénzt ígér a miniszter a medvék által veszélyeztetett települések védelmére</t>
-  </si>
-  <si>
-    <t>Hargita megye: megvan az év első 112-s medveészlelése</t>
-  </si>
-  <si>
-    <t>Aktívak a medvék Székelyudvarhely környékén</t>
-  </si>
-  <si>
-    <t>Lemondott a vadásztársaság az emberre támadó hidegkúti medve kilövéséről</t>
-  </si>
-  <si>
-    <t>Amíg elérhető közelségben van az ételmaradék, addig a medvék jelenlétére is számítani kell</t>
-  </si>
-  <si>
-    <t>Medveradar: Zetelakán és Farkaslakán voltak a legaktívabbak tavaly a nagyvadak</t>
-  </si>
-  <si>
-    <t>Gyergyószentmiklós utcáin kóborolt egy medve</t>
-  </si>
-  <si>
-    <t>Feldúlva találták a sírhelyeket, illetve azok környékét a Vasláb községhez tartozó hevederi temetőben. A nyomok alapján medvejárásra gyanakodnak.</t>
-  </si>
-  <si>
-    <t>Elutasította a Marosvásárhelyi Táblabíróság a Zetelaki Területtulajdonosi Társulás keresetét, amelyet a társulás a Környezetvédelmi Minisztérium ellen indított a vadgazdálkodási szabályozások alkalmazásának elmulasztása miatt. A társulás vezetője fellebbezést tervez.</t>
-  </si>
-  <si>
-    <t>Az állatvédők és az Európai Bizottság akadályozta meg, hogy a barnamedve öt évre lekerüljön a szigorúan védett állatfajok listájáról Romániában – állítja Benkő Erika RMDSZ-képviselő. </t>
-  </si>
-  <si>
-    <t>A háromszéki Zabolán tartott terepszemlét Costel Alexe környezetvédelmi miniszter, aki a látogatást követően arról számol be, hogy körvonalazódott egy olyan finanszírozási program, amely lehetővé teszi a medvék által veszélyeztetett települések védelmét.</t>
-  </si>
-  <si>
-    <t>Medvét látott a kertjében egy parajdi férfi a Sóhát utcában szombaton délután. A nagyvadat a gyümölcsfáknál fedezte fel, mintegy száz méterre a lakóháztól. Az esetet a 112-n jelentette, a helyszínre egy csendőri és egy mentőegység szállt ki.</t>
-  </si>
-  <si>
-    <t>Noha a magasabban fekvő térségekben már téli álmot alszanak a medvék, más területeken ez nem így van. Székelyudvarhely környékén például legalább tizenegy medve aktív jelenleg is, ezért a vadászok óvatosságra intenek.</t>
-  </si>
-  <si>
-    <t>Megúszta a kilövést a Hidegkúton emberre támadó medve, az illetékes vadásztársaságnál lemondtak arról, hogy a vad ártalmatlanítására rendkívüli jóváhagyást igényeljenek a környezetvédelmi minisztériumtól.</t>
-  </si>
-  <si>
-    <t>A szeméttárolók vonzzák a székelyudvarhelyi Cserehát lakónegyedbe az aktív nagyvadakat, ezért a Nagy-Küküllő Vadász- és Sporthorgász Egyesület medvebiztos kukákat rendelt, amelyeket a szemételszállító vállalattal egyeztetve helyezne ki. A medvék befogásával is próbálkoznak.</t>
-  </si>
-  <si>
-    <t>A kezdeti fellendülés után kissé lankadt az aktivitás a székelyföldi medveradar és -térkép néven emlegetett medveészlelő portálon, amelyet tavaly márciusban hozott létre Csala Dénes adatblogger. Ettől eltekintve a több mint 700 bejegyzést számláló medvetérkép a legszerteágazóbb adatbázisnak számít.</t>
-  </si>
-  <si>
-    <t>Egy városszéli üzemanyagtöltő állomásnál felbukkant medve miatt riasztották keddre virradóan a hatóságokat Gyergyószentmiklóson. Míg a csendőrök a nagyvadat kutatták, a vészhelyzeti felügyelőség a Ro-Alert rendszeren figyelmeztette a lakókat a veszélyre. A medvét végül megtalálták és elűzték.</t>
+    <t>Elpusztult egy medve Etéd határában, orvvadászat gyanújával vizsgálódik a rendőrség</t>
+  </si>
+  <si>
+    <t>Célkeresztben a „medvetörvény” – a vadászok szerint a szaktárca összemossa a fogalmakat</t>
+  </si>
+  <si>
+    <t>Tehetetlenek a lakók, az ablakból kénytelenek végignézni, ahogy a medvék elpusztítják a haszonállataikat</t>
+  </si>
+  <si>
+    <t>Három juhot ölt meg a medve egy farcádi gazda udvarán</t>
+  </si>
+  <si>
+    <t>Áthelyezik egy másik területre a Tusnádfürdőre napi rendszerességgel bejáró medvét</t>
+  </si>
+  <si>
+    <t>Medvék miatt riasztották a hatóságokat és ébresztették fel álmukból a környéken élőket</t>
+  </si>
+  <si>
+    <t>Külön megelőzési kvótát és a medvekárok kifizetését kérik</t>
+  </si>
+  <si>
+    <t>A kormorán lekerülhet a védett fajok listájáról, a medve viszont már nem?</t>
+  </si>
+  <si>
+    <t>Medve hatolt be egy tusnádfürdői portára</t>
+  </si>
+  <si>
+    <t>Hárombocsos anyamedve bukkant fel Gyergyószentmiklósnál</t>
+  </si>
+  <si>
+    <t>Boncolás után úgy vélik, autó üthette el az elpusztult medvét</t>
+  </si>
+  <si>
+    <t>A villanypásztor sem állította meg a medvét</t>
+  </si>
+  <si>
+    <t>Sérült medve miatt riasztották a hatóságokat Etéd határába hétfőn. Különleges intézkedésre nem volt szükség, az állat ugyanis időközben kimúlt.</t>
+  </si>
+  <si>
+    <t>A többéves tiltás után tavaly ugyan megszületett a törvény a medvekilövési kvóták jóváhagyásáról, ám úgy tűnik, a gyakorlatban ez nem történik meg. A beavatkozás és megelőzés fogalmakat összemosva alkotott rendelet-tervezetet a környezetvédelmi minisztérium a medvekilövések szabályozására.</t>
+  </si>
+  <si>
+    <t>Nemcsak éjszaka, hanem nappal is több medve jár be a háromszéki Zágon község falvaiba. Az emberek rettegnek, az életüket féltik, miközben a vadak számos háziállatot elpusztítottak már. Állandó a csendőri jelenlét, a Ro-Alert rendszeren keresztül egymás érik a vészhelyzeti riasztások.</t>
+  </si>
+  <si>
+    <t>Három juhot ölt meg a medve a hétfőről keddre virradó éjszaka a Hargita megyei Farcádon, egy gazda udvarán. A helybélieket a Ro-Alert rendszeren figyelmeztették a veszélyről.</t>
+  </si>
+  <si>
+    <t>A hatóságok kérésére át fogják helyezni egy másik területre azt a medvét, amely majdnem minden nap lelátogat a nappali órákban Tusnádfürdőre és a település utcáin kószál élelmet keresve. A helyi hatóságok várják a környezetvédelmi minisztérium ilyen irányú engedélyét.</t>
+  </si>
+  <si>
+    <t>Vaslábon egy ház udvarára, míg a Székelyudvarhelyhez tartozó Szejkefürdőn szintén egy háztartás udvarára járt be a medve vasárnap este. Mindkét esetben riasztották a hatóságokat, valamint figyelmeztetést küldtek a környéken élőknek a RO-Alert rendszeren keresztül.</t>
+  </si>
+  <si>
+    <t>A környezetvédelmi minisztérium a közvitára bocsátott rendelettervezetében összemossa a barnamedve kilövésére vonatkozó beavatkozási és megelőzési kvótát, és a vadkárok kifizetése is késik. Fejér László Ödön háromszéki szenátor levélben fordult Costel Alexe környezetvédelmi miniszterhez.</t>
+  </si>
+  <si>
+    <t>Képmutatásnak tartja Benkő Erika RMDSZ parlamenti képviselő, hogy a kormorán lekerülhet a védett fajok listájáról, a medve pedig nem. A parlamentbe benyújtott tervezet alapján levennék a kormoránt a szigorúan védett fajok listájáról, mert a madár túl sok halat eszik.</t>
+  </si>
+  <si>
+    <t>Egy tusnádfürdői portára ment be egy medve csütörtökön késő este negyed tizenegy körül. Behatolt a pincébe, és betört egy kis ablakot a ház hátsó részén.</t>
+  </si>
+  <si>
+    <t>Gyergyószentmiklós közelébe „tévedt” medvék miatt riasztották a hatóságokat péntek este. A lakókat a Ro-Alert rendszeren figyelmeztették a veszélyre.</t>
+  </si>
+  <si>
+    <t>A tetemen elvégzett boncolás eredményei szerint szinte biztosan egy autó üthette el azt a medvét, amelyet két hete találtak meg Kőrispatak határában a megyei úttól nem messze. A rendőrség még nyomoz az ügyben.</t>
+  </si>
+  <si>
+    <t>Nem először tört be medve az etédi Kelemen család portájára, ahol ezúttal egy bárányt ölt meg. A községben egyébként csak ebben az esztendőben már közel húsz hasonló eset történt, egyelőre azonban nincs megoldás a problémára. A vadászok kérni fogják a problémás egyed kilövését.</t>
+  </si>
+  <si>
+    <t>Etéd</t>
+  </si>
+  <si>
+    <t>Zágon</t>
+  </si>
+  <si>
+    <t>Farcád</t>
+  </si>
+  <si>
+    <t>Tusnádfürdő</t>
   </si>
   <si>
     <t>Vasláb</t>
   </si>
   <si>
-    <t>Zetelaka</t>
-  </si>
-  <si>
-    <t>Sepsiszentgyörgy</t>
-  </si>
-  <si>
-    <t>Zabola</t>
-  </si>
-  <si>
-    <t>Parajd</t>
-  </si>
-  <si>
-    <t>Székelyudvarhely</t>
-  </si>
-  <si>
-    <t>Hidegkút</t>
-  </si>
-  <si>
-    <t>Csíkszereda</t>
-  </si>
-  <si>
     <t>Gyergyószentmiklós</t>
+  </si>
+  <si>
+    <t>Kőrispatak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,14 +313,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -355,7 +359,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,27 +391,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,24 +425,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -632,19 +600,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -691,31 +654,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
-        <v>43824</v>
+        <v>43948</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -724,37 +687,37 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>46.646074800000008</v>
+        <v>46.4483931</v>
       </c>
       <c r="O2">
-        <v>25.623710500000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25.0531787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
-        <v>43825</v>
+        <v>43955</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -768,44 +731,35 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
-        <v>57</v>
-      </c>
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3">
-        <v>46.391030800000003</v>
-      </c>
-      <c r="O3">
-        <v>25.367929100000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
-        <v>43834</v>
+        <v>43956</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -814,88 +768,88 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>45.860937499999999</v>
+        <v>45.771657</v>
       </c>
       <c r="O4">
-        <v>25.788579599999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>26.1242507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
-        <v>43836</v>
+        <v>43956</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>45.887702999999988</v>
+        <v>46.3070915</v>
       </c>
       <c r="O5">
-        <v>26.189789000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25.2360821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
-        <v>43841</v>
+        <v>43959</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -904,43 +858,43 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>46.555342899999999</v>
+        <v>46.1460752</v>
       </c>
       <c r="O6">
-        <v>25.127272300000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25.8569589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
-        <v>43843</v>
+        <v>43962</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -949,37 +903,37 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>46.304999600000002</v>
+        <v>46.64607480000001</v>
       </c>
       <c r="O7">
-        <v>25.292647899999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25.6237105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
-        <v>43846</v>
+        <v>43963</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -993,38 +947,29 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>62</v>
-      </c>
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8">
-        <v>46.335918399999997</v>
-      </c>
-      <c r="O8">
-        <v>24.894142599999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
-        <v>43851</v>
+        <v>43964</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1038,44 +983,35 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
-        <v>61</v>
-      </c>
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9">
-        <v>46.304999600000002</v>
-      </c>
-      <c r="O9">
-        <v>25.292647899999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
-        <v>43856</v>
+        <v>43966</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1084,43 +1020,43 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>46.369557399999998</v>
+        <v>46.1460752</v>
       </c>
       <c r="O10">
-        <v>25.795365499999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25.8569589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="B11" s="2">
-        <v>43858</v>
+        <v>43966</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1129,42 +1065,135 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>46.7212112</v>
+      </c>
+      <c r="O11">
+        <v>25.5855275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2">
+        <v>43969</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>46.4178123</v>
+      </c>
+      <c r="O12">
+        <v>24.9703704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2">
+        <v>43976</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
         <v>64</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>46.721211199999999</v>
-      </c>
-      <c r="O11">
-        <v>25.585527500000001</v>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>46.4483931</v>
+      </c>
+      <c r="O13">
+        <v>25.0531787</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="D5" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+    <hyperlink ref="D7" r:id="rId12"/>
+    <hyperlink ref="C8" r:id="rId13"/>
+    <hyperlink ref="D8" r:id="rId14"/>
+    <hyperlink ref="C9" r:id="rId15"/>
+    <hyperlink ref="D9" r:id="rId16"/>
+    <hyperlink ref="C10" r:id="rId17"/>
+    <hyperlink ref="D10" r:id="rId18"/>
+    <hyperlink ref="C11" r:id="rId19"/>
+    <hyperlink ref="D11" r:id="rId20"/>
+    <hyperlink ref="C12" r:id="rId21"/>
+    <hyperlink ref="D12" r:id="rId22"/>
+    <hyperlink ref="C13" r:id="rId23"/>
+    <hyperlink ref="D13" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/data/szekelyhon_data.xlsx
+++ b/data/szekelyhon_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="315">
   <si>
     <t>date</t>
   </si>
@@ -61,18 +61,75 @@
     <t>checked</t>
   </si>
   <si>
+    <t>https://szekelyhon.ro/aktualis/nem-pontosak-a-belugyi-tarca-medvetamadasokra-vonatkozo-adatai-n-allitja-egy-politikus</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/feldulva-talaltak-a-sirhelyeket</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/elutasitotta-medveugyben-a-zetelaki-terulettulajdonosi-tarsulas-keresetet-a-tablabirosag</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ki-akadalyozta-meg-hogy-a-barnamedve-lekeruljon-a-szigoruan-vedett-allatfajok-listajarol-romaniaban</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/penzt-iger-a-miniszter-a-medvek-altal-veszelyeztetett-telepulesek-vedelmere</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/hargita-megye-megvan-az-ev-elso-112-s-medveeszlelese</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/aktivak-a-medvek-szekelyudvarhely-kornyeken</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medveradar-zetelakan-es-farkaslakan-voltak-a-legaktivabbak-tavaly-a-nagyvadak</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/gyergyoszentmiklos-utcain-koborolt-egy-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/lakott-teruletektol-tavol-engedtek-szabadon-a-szekelyudvarhelyen-befogott-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/meg-nem-tudni-hogy-mennyi-medvet-lehet-majd-kiloni</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ujra-garazdalkodnak-a-medvek-maros-megyeben</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kilovesi-engedelyt-kertek-a-maros-megyeben-garazdalkodo-medvere</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ket-medvet-latott-egy-no-a-haza-kozeleben-egyet-talaltak-a-helyszinen-a-csendorok</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/egy-honap-sem-kell-es-megnovekednek-a-medvekarok-a-populacio-tulszaporodasa-miatt</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/juhokat-oltek-es-baranyokat-vittek-el-a-nagyvadak</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/figyelmezteto-lovesekkel-kergettek-el-a-szekelyudvarhelyre-bejaro-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/harom-medve-jart-be-egy-ulkei-gazdasagba</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/harom-medve-egy-csikbankfalvi-portan</t>
+  </si>
+  <si>
     <t>https://szekelyhon.ro/aktualis/elpusztult-egy-medve-eted-hataraban-orvvadaszat-gyanujaval-vizsgalodik-a-rendorseg</t>
   </si>
   <si>
     <t>https://szekelyhon.ro/aktualis/celkeresztben-a-bmedvetorvenyr-n-a-vadaszok-szerint-a-szaktarca-osszemossa-a-fogalmakat</t>
   </si>
   <si>
+    <t>https://szekelyhon.ro/aktualis/harom-juhot-olt-meg-a-medve-egy-farcadi-gazda-udvaran</t>
+  </si>
+  <si>
     <t>https://szekelyhon.ro/aktualis/tehetetlenek-a-lakok-az-ablakbol-kenytelenek-vegignezni-ahogy-a-medvek-elpusztitjak-a-haszonallataikat</t>
   </si>
   <si>
-    <t>https://szekelyhon.ro/aktualis/harom-juhot-olt-meg-a-medve-egy-farcadi-gazda-udvaran</t>
-  </si>
-  <si>
     <t>https://szekelyhon.ro/aktualis/athelyezik-egy-masik-teruletre-a-tusnadfurdore-napi-rendszeresseggel-bejaro-medvet</t>
   </si>
   <si>
@@ -97,18 +154,183 @@
     <t>https://szekelyhon.ro/aktualis/a-villanypasztor-sem-allitotta-meg-a-medvet</t>
   </si>
   <si>
+    <t>https://szekelyhon.ro/aktualis/tyukokat-olt-a-medve-vaslabon</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/fara-maszott-medvebocsot-mentettek-meg</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ketbocsos-anyamedvet-zavartak-el-a-csendorok-a-tusnadfurdoi-vonatallomas-kozelebol</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvebocsot-pusztithatott-el-egy-masik-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/fara-menekultek-a-medvebocsok-mikozben-anyjuk-egy-masik-medvevel-verekedett</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/barmely-napszakban-a-varos-barmely-pontjan-felbukkanhatnak-a-medvek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvenagyuzem-tusnadfurdon</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/uzletnel-jart-a-medve-hiaba-kergettek-el-visszatert</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/fenyes-nappal-fogtak-be-egy-serult-medvet-szekelyudvarhelyen</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/visszaengedtek-az-erdobe-a-szekelyudvarhelyen-befogott-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/maradj-otthon-ezuttal-medve-miatt</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvejaras-tusnadfurdon-marosfon-es-csobotfalvan</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/lakossagi-panasz-hianyaban-semmit-sem-tehetnek-a-csikszeredaban-garazdalkodo-medve-ellen</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/mar-egy-egyszeru-kirandulas-is-veszelyesse-valt-a-medveproblemak-miatt</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medve-jarkalt-csikszereda-utcain</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/gyarapodo-medvekarok-szekelyudvarhelyen-es-kornyeken</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ket-medve-a-szekelyudvarhelyi-szaszok-taboraban</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tejjel-taplaltak-a-magara-hagyott-medvebocsot</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tobb-medve-is-bejar-csikszeredaba-egyikre-mar-kilovesi-engedelyt-kertek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvet-gazoltak-el-csikszereda-kozeleben</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/vilag/megbirsagoltatna-a-kornyezetvedelmi-miniszter-azokat-akik-medveket-etetnek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/nyilt-levelben-fordult-az-orszag-vezetoihez-a-medvejaras-miatt-tusnadfurdo-polgarmestere</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/nagy-volt-a-medvejaras-hetvegen-hargita-megyeben</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ket-medve-is-bement-szekelyudvarhelyre</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medveket-kergettek-el-a-hatosagiak-szekelyudvarhelyen</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tobb-mint-tiz-tehenet-oltek-meg-a-medvek-a-gyergyoszentmikloshoz-tartozo-legelokon</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvekerdes-megoldas-helyett-munkacsoportot-iger-a-miniszter</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kerulik-a-lakott-telepuleseket-a-vadonba-visszaengedett-medvek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kovasznai-gondok-a-medvek-nem-felnek-az-embertol-a-turistak-nem-felnek-a-medvektol</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/erdeigyumolcs-ultetvennyel-tartanak-tavol-az-uduloteleptol-a-gyilkostoi-medveket</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/magyarorszagi-medveotthonba-kerulhet-nehany-a-tusnadfurdoi-medvek-kozul</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medveparkot-hoznanak-letre</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/beperelte-a-miniszteriumot-egy-medvetamadas-serultje-elso-fokon-karteritesre-jogosult</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/masodik-napja-hogy-a-borvizforras-kornyeken-koszalo-medvere-figyelmeztetnek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/iskolaudvarrol-kellett-kiuzni-egy-medvet-csikszeredaban</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/elejtettek-a-csikszeredaban-tobbszor-is-felbukkano-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/a-foterig-mereszkedett-a-csikszeredaban-felbukkant-ujabb-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/egyik-utan-a-masik-n-miert-latni-gyakran-medvet-csikszeredaban</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_medvek-szentimren.png</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/10_kiemelesek/sm_feldult-temeto-vaslab-9.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-18.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-3.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/03_oktober/03/sm_medve-elutottek-ebe-3.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-8.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-24.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2013/12_januar/sm_medvek_kr_10.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-78.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-12.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/vasarhely/aktualis/2020/10_marcius/sm_medve3.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/vasarhely/aktualis/2020/11_februar/sm_medvezoo_16_hv.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-6.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetamadas-ebe-31.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2015/07_junius/sm_kukazo-medvek-vn-022.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/dronfoci/sm_dji-dronfoci-csikszentgyorgy-domokos-pnt-3.jpg</t>
+  </si>
+  <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetetem-eted-ebe-04.jpg</t>
   </si>
   <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-90.jpg</t>
   </si>
   <si>
+    <t>https://media.szekelyhon.ro/pictures/vasarhely/aktualis/2020/11_februar/sm_medvezoo_06_hv.jpg</t>
+  </si>
+  <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-89.jpg</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/vasarhely/aktualis/2020/11_februar/sm_medvezoo_06_hv.jpg</t>
-  </si>
-  <si>
     <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-4.jpg</t>
   </si>
   <si>
@@ -133,21 +355,168 @@
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/08-maj/sm_eted-medvetamadas-ebe-64.jpg</t>
   </si>
   <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetamadas-ebe-41.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/12_kiemelesek/sm_medvebocs1-mentes.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/05_augusztus/sm_elgazolt_medvebocs_ga-8.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/2019_kepvalogatas/sm_52_kukazomedvek-tusnadfurdo-pnt-13.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_medve-tusnadfurdon-junius-pnt-7.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_medve-tusnadfurdon-junius-pnt-8.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_medve-a-fan-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/07-juni/sm_medvebocs-befogas-ebe-106.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/07-juni/sm_medvebocs-elengedes-ebe-66.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/12_kiemelesek/sm_roalert-medve-oroszhegy.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_maci-korhazmellett-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_malom-utca-vn-004.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_medve-tusnadfurdon-junius-pnt-5.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/12_kiemelesek/sm_medve-fortuna.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-53.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_medvebocs-tusnadfurdo-hataraban01.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/06_julius/sm_elgazolt-medve-13a-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_tusnadfurdoi-anyamedve-pnt-4.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_tusnadfurdoi-anyamedve-pnt-2.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_tusnadfurdoi-anyamedve-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/04_szeptember/02/sm_szentimre_utca_belo-14.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/06-juli/sm_medve_udvarhely_belo-5.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/08_majus/03/sm_medvetamadas-kapolnas-ba-16.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/06-juli/sm_medve_udvarhely_belo-10.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/gyergyo/aktualis/2020/sm_gyilkos-to_vendeglok.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/07-juni/sm_medvebocs-befogas-ebe-112.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/05_augusztus/02/sm_medvehajto-csendorok-nyereg-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/07_junius/02/sm_medveles-bogoz-ba-87.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/05_augusztus/sm_medvekiloves-csikszereda-gn_-26.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/05_augusztus/02/sm_medvegif.gif</t>
+  </si>
+  <si>
     <t>Székelyhon</t>
   </si>
   <si>
+    <t>Nem pontosak a belügyi tárca medvetámadásokra vonatkozó adatai – állítja egy politikus</t>
+  </si>
+  <si>
+    <t>Feldúlva találták a sírhelyeket</t>
+  </si>
+  <si>
+    <t>Elutasította medveügyben a Zetelaki Területtulajdonosi Társulás keresetét a táblabíróság</t>
+  </si>
+  <si>
+    <t>Ki akadályozta meg, hogy a barnamedve lekerüljön a szigorúan védett állatfajok listájáról Romániában?</t>
+  </si>
+  <si>
+    <t>Pénzt ígér a miniszter a medvék által veszélyeztetett települések védelmére</t>
+  </si>
+  <si>
+    <t>Hargita megye: megvan az év első 112-s medveészlelése</t>
+  </si>
+  <si>
+    <t>Aktívak a medvék Székelyudvarhely környékén</t>
+  </si>
+  <si>
+    <t>Medveradar: Zetelakán és Farkaslakán voltak a legaktívabbak tavaly a nagyvadak</t>
+  </si>
+  <si>
+    <t>Gyergyószentmiklós utcáin kóborolt egy medve</t>
+  </si>
+  <si>
+    <t>Lakott területektől távol engedték szabadon a Székelyudvarhelyen befogott medvét</t>
+  </si>
+  <si>
+    <t>Még nem tudni, hogy mennyi medvét lehet majd kilőni</t>
+  </si>
+  <si>
+    <t>Újra garázdálkodnak a medvék Maros megyében</t>
+  </si>
+  <si>
+    <t>Kilövési engedélyt kértek a Maros megyében garázdálkodó medvére</t>
+  </si>
+  <si>
+    <t>Két medvét látott egy nő a háza közelében, egyet találtak a helyszínen a csendőrök</t>
+  </si>
+  <si>
+    <t>Egy hónap sem kell, és megnövekednek a medvekárok a populáció túlszaporodása miatt</t>
+  </si>
+  <si>
+    <t>Juhokat öltek és bárányokat vittek el a nagyvadak</t>
+  </si>
+  <si>
+    <t>Figyelmeztető lövésekkel kergették el a Székelyudvarhelyre betérő medvét</t>
+  </si>
+  <si>
+    <t>Három medve járt be egy ülkei gazdaságba</t>
+  </si>
+  <si>
+    <t>Három medve egy csíkbánkfalvi portán</t>
+  </si>
+  <si>
     <t>Elpusztult egy medve Etéd határában, orvvadászat gyanújával vizsgálódik a rendőrség</t>
   </si>
   <si>
     <t>Célkeresztben a „medvetörvény” – a vadászok szerint a szaktárca összemossa a fogalmakat</t>
   </si>
   <si>
+    <t>Három juhot ölt meg a medve egy farcádi gazda udvarán</t>
+  </si>
+  <si>
     <t>Tehetetlenek a lakók, az ablakból kénytelenek végignézni, ahogy a medvék elpusztítják a haszonállataikat</t>
   </si>
   <si>
-    <t>Három juhot ölt meg a medve egy farcádi gazda udvarán</t>
-  </si>
-  <si>
     <t>Áthelyezik egy másik területre a Tusnádfürdőre napi rendszerességgel bejáró medvét</t>
   </si>
   <si>
@@ -172,18 +541,189 @@
     <t>A villanypásztor sem állította meg a medvét</t>
   </si>
   <si>
+    <t>Tyúkokat ölt a medve Vaslábon</t>
+  </si>
+  <si>
+    <t>Fára mászott medvebocsot mentettek meg</t>
+  </si>
+  <si>
+    <t>Kétbocsos anyamedvét zavartak el a csendőrök a tusnádfürdői vonatállomás közeléből</t>
+  </si>
+  <si>
+    <t>Medvebocsot pusztíthatott el egy másik medve</t>
+  </si>
+  <si>
+    <t>Két anyamedve verekedett össze Tusnádfürdőn, egy bocs áldozatul esett</t>
+  </si>
+  <si>
+    <t>Bármely napszakban, a város bármely pontján felbukkanhatnak a medvék</t>
+  </si>
+  <si>
+    <t>Medvenagyüzem Tusnádfürdőn</t>
+  </si>
+  <si>
+    <t>Üzletnél járt a medve, hiába kergették el, visszatért</t>
+  </si>
+  <si>
+    <t>Fényes nappal fogtak be egy sérült medvét Székelyudvarhelyen</t>
+  </si>
+  <si>
+    <t>Visszaengedték az erdőbe a Székelyudvarhelyen befogott medvét</t>
+  </si>
+  <si>
+    <t>Maradj otthon, ezúttal medve miatt</t>
+  </si>
+  <si>
+    <t>Medvejárás Tusnádfürdőn, Marosfőn és Csobotfalván</t>
+  </si>
+  <si>
+    <t>Lakossági panasz hiányában semmit sem tehetnek a Csíkszeredában garázdálkodó medve ellen</t>
+  </si>
+  <si>
+    <t>Már egy egyszerű kirándulás is veszélyessé vált a medveproblémák miatt</t>
+  </si>
+  <si>
+    <t>Medve járkált Csíkszereda utcáin</t>
+  </si>
+  <si>
+    <t>Gyarapodó medvekárok Székelyudvarhelyen és környékén</t>
+  </si>
+  <si>
+    <t>Két medve a székelyudvarhelyi Szászok táborában</t>
+  </si>
+  <si>
+    <t>Tejjel táplálták a magára hagyott medvebocsot</t>
+  </si>
+  <si>
+    <t>Több medve is bejár Csíkszeredába, egyikre már kilövési engedélyt kértek</t>
+  </si>
+  <si>
+    <t>Medvét gázoltak el Csíkszereda közelében</t>
+  </si>
+  <si>
+    <t>Megbírságoltatná a környezetvédelmi miniszter azokat, akik medvéket etetnek</t>
+  </si>
+  <si>
+    <t>Nyílt levélben fordult az ország vezetőihez a medvejárás miatt Tusnádfürdő polgármestere</t>
+  </si>
+  <si>
+    <t>Nagy volt a medvejárás hétvégén Hargita megyében</t>
+  </si>
+  <si>
+    <t>Két medve is bement Székelyudvarhelyre</t>
+  </si>
+  <si>
+    <t>Medvéket kergettek el a hatóságiak Székelyudvarhelyen</t>
+  </si>
+  <si>
+    <t>Több mint tíz tehenet öltek meg a medvék a Gyergyószentmiklóshoz tartozó legelőkön</t>
+  </si>
+  <si>
+    <t>Medvekérdés: megoldás helyett munkacsoportot ígér a miniszter</t>
+  </si>
+  <si>
+    <t>Kerülik a lakott településeket a vadonba visszaengedett medvék</t>
+  </si>
+  <si>
+    <t>Kovásznai gondok: a medvék nem félnek az embertől, a turisták nem félnek a medvéktől</t>
+  </si>
+  <si>
+    <t>Erdeigyümölcs-ültetvénnyel tartanák távol az üdülőteleptől a gyilkostói medvéket</t>
+  </si>
+  <si>
+    <t>Magyarországi medveotthonba kerülhet néhány a tusnádfürdői medvék közül</t>
+  </si>
+  <si>
+    <t>Medveparkot hoznának létre</t>
+  </si>
+  <si>
+    <t>Beperelte a minisztériumot egy medvetámadás sérültje, első fokon kártérítésre jogosult</t>
+  </si>
+  <si>
+    <t>Második napja, hogy a borvízforrás környékén kószáló medvére figyelmeztetnek</t>
+  </si>
+  <si>
+    <t>Iskolaudvarról kellett kiűzni egy medvét Csíkszeredában</t>
+  </si>
+  <si>
+    <t>Elejtették a Csíkszeredában többször is felbukkanó medvét</t>
+  </si>
+  <si>
+    <t>A főtérig merészkedett a Csíkszeredában felbukkant újabb medve</t>
+  </si>
+  <si>
+    <t>Egyik a másik után – miért látni gyakran medvét Csíkszeredában?</t>
+  </si>
+  <si>
+    <t>Nem pontosak a belügyminisztérium kimutatásai a medvetámadásokról – állítja a Népi Mozgalom Párt Maros megyei képviselője, Marius Paşcan. A politikus által kikért adatok szerint az országban Hargita megyében van a legtöbb medve, közel kétezer.</t>
+  </si>
+  <si>
+    <t>Feldúlva találták a sírhelyeket, illetve azok környékét a Vasláb községhez tartozó hevederi temetőben. A nyomok alapján medvejárásra gyanakodnak.</t>
+  </si>
+  <si>
+    <t>Elutasította a Marosvásárhelyi Táblabíróság a Zetelaki Területtulajdonosi Társulás keresetét, amelyet a társulás a Környezetvédelmi Minisztérium ellen indított a vadgazdálkodási szabályozások alkalmazásának elmulasztása miatt. A társulás vezetője fellebbezést tervez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Az állatvédők és az Európai Bizottság akadályozta meg, hogy a barnamedve öt évre lekerüljön a szigorúan védett állatfajok listájáról Romániában – állítja Benkő Erika RMDSZ-képviselő. </t>
+  </si>
+  <si>
+    <t>A háromszéki Zabolán tartott terepszemlét Costel Alexe környezetvédelmi miniszter, aki a látogatást követően arról számol be, hogy körvonalazódott egy olyan finanszírozási program, amely lehetővé teszi a medvék által veszélyeztetett települések védelmét.</t>
+  </si>
+  <si>
+    <t>Medvét látott a kertjében egy parajdi férfi a Sóhát utcában szombaton délután. A nagyvadat a gyümölcsfáknál fedezte fel, mintegy száz méterre a lakóháztól. Az esetet a 112-n jelentette, a helyszínre egy csendőri és egy mentőegység szállt ki.</t>
+  </si>
+  <si>
+    <t>Noha a magasabban fekvő térségekben már téli álmot alszanak a medvék, más területeken ez nem így van. Székelyudvarhely környékén például legalább tizenegy medve aktív jelenleg is, ezért a vadászok óvatosságra intenek.</t>
+  </si>
+  <si>
+    <t>A kezdeti fellendülés után kissé lankadt az aktivitás a székelyföldi medveradar és -térkép néven emlegetett medveészlelő portálon, amelyet tavaly márciusban hozott létre Csala Dénes adatblogger. Ettől eltekintve a több mint 700 bejegyzést számláló medvetérkép a legszerteágazóbb adatbázisnak számít.</t>
+  </si>
+  <si>
+    <t>Egy városszéli üzemanyagtöltő állomásnál felbukkant medve miatt riasztották keddre virradóan a hatóságokat Gyergyószentmiklóson. Míg a csendőrök a nagyvadat kutatták, a vészhelyzeti felügyelőség a Ro-Alert rendszeren figyelmeztette a lakókat a veszélyre. A medvét végül megtalálták és elűzték.</t>
+  </si>
+  <si>
+    <t>Medvét fogott a székelyudvarhelyi Cserehát lakótelep közelében a Nagy-Küküllő Vadász- és Sporthorgász Egyesület az ebből a célból megépített csapdájával. A vadat a Hargita-hegység lábához szállították, majd szabadon engedték. A cél az volt, hogy a kilövés helyett új esélyt adjanak a fiatal nagyvadnak.</t>
+  </si>
+  <si>
+    <t>A vadászok számításai szerint országszerte legalább ötszáz medve kilövésére ad jóváhagyást idén a környezetvédelmi minisztérium a vadszámfelmérések eredménye alapján. A medvevadászat 2016-ban elrendelt teljes betiltása óta először hagyhatja jóvá idén a kilövési kereteket a szaktárca.</t>
+  </si>
+  <si>
+    <t>Hétvégén több Maros megyei településéről is jelezték, hogy medve járt a gazdaságokban, állatokat pusztított el.</t>
+  </si>
+  <si>
+    <t>Az elmúlt néhány nap alatt immár nyolc helyen okozott kárt a medve Maros megyében. Szerdán a prefektus összehívta a sürgősségi esetek parancsnokságát, és elhatározták, hogy kilövési engedélyt kérnek egy nagyvadra.</t>
+  </si>
+  <si>
+    <t>Csendőröket mozgósítottak és Ro-Alert vészhelyzeti üzenetet küldtek hétfőn éjfélkor Vaslábon, miután egy nő két medvét látott lakóháza udvarának közelében.</t>
+  </si>
+  <si>
+    <t>Gyergyó-, Csík- és Udvarhelyszéken is aktívak már a medvék – van olyan település is, ahol háziállatokra támadtak, de egyelőre ez nem jellemző. A vadásztársulatok vezetői szerint a későbbiekben azonban a tavalyinál is több probléma lesz.</t>
+  </si>
+  <si>
+    <t>Két bocs és egy anyamedve garázdálkodott szerdán hajnalban egy székelyszenttamási gazdaságban, ahol több juhot és bárányt is megölt. A gazda maga is látta a támadókat, reflektorokkal és kiabálással próbálta elriasztani, de azok csak a pusztítás után távoztak.</t>
+  </si>
+  <si>
+    <t>Egy nagyjából hároméves medve kóborolt szerda éjjel a székelyudvarhelyi II. Rákóczi Ferenc utcában – az esetet a Ro-Alert telefonos riasztórendszer is jelezte.</t>
+  </si>
+  <si>
+    <t>Három medve járt be péntek éjszaka egy, az Oroszhegyhez tartozó ülkei háztartásba, feltételezhetően egy anyamedve, két bocsával – tájékoztat közleményben a Hargita Megyei Csendőr-felügyelőség.</t>
+  </si>
+  <si>
+    <t>Három medve járt be hétfőn koraeste egy csíkbánkfalvi portára. A medvék jelenlétét egy helyi lakos jelentette a 112-es egységes hívószámon 19 óra 37 perckor.</t>
+  </si>
+  <si>
     <t>Sérült medve miatt riasztották a hatóságokat Etéd határába hétfőn. Különleges intézkedésre nem volt szükség, az állat ugyanis időközben kimúlt.</t>
   </si>
   <si>
     <t>A többéves tiltás után tavaly ugyan megszületett a törvény a medvekilövési kvóták jóváhagyásáról, ám úgy tűnik, a gyakorlatban ez nem történik meg. A beavatkozás és megelőzés fogalmakat összemosva alkotott rendelet-tervezetet a környezetvédelmi minisztérium a medvekilövések szabályozására.</t>
   </si>
   <si>
+    <t>Három juhot ölt meg a medve a hétfőről keddre virradó éjszaka a Hargita megyei Farcádon, egy gazda udvarán. A helybélieket a Ro-Alert rendszeren figyelmeztették a veszélyről.</t>
+  </si>
+  <si>
     <t>Nemcsak éjszaka, hanem nappal is több medve jár be a háromszéki Zágon község falvaiba. Az emberek rettegnek, az életüket féltik, miközben a vadak számos háziállatot elpusztítottak már. Állandó a csendőri jelenlét, a Ro-Alert rendszeren keresztül egymás érik a vészhelyzeti riasztások.</t>
   </si>
   <si>
-    <t>Három juhot ölt meg a medve a hétfőről keddre virradó éjszaka a Hargita megyei Farcádon, egy gazda udvarán. A helybélieket a Ro-Alert rendszeren figyelmeztették a veszélyről.</t>
-  </si>
-  <si>
     <t>A hatóságok kérésére át fogják helyezni egy másik területre azt a medvét, amely majdnem minden nap lelátogat a nappali órákban Tusnádfürdőre és a település utcáin kószál élelmet keresve. A helyi hatóságok várják a környezetvédelmi minisztérium ilyen irányú engedélyét.</t>
   </si>
   <si>
@@ -208,25 +748,217 @@
     <t>Nem először tört be medve az etédi Kelemen család portájára, ahol ezúttal egy bárányt ölt meg. A községben egyébként csak ebben az esztendőben már közel húsz hasonló eset történt, egyelőre azonban nincs megoldás a problémára. A vadászok kérni fogják a problémás egyed kilövését.</t>
   </si>
   <si>
+    <t>Betört egy vaslábi portára és több tyúkot pusztított el egy medve péntekre virradóan – tájékoztatott a Hargita Megyei Csendőr-felügyelőség.</t>
+  </si>
+  <si>
+    <t>Fára mászott és az ágakról lejönni nem tudó medvebocsnak segítettek szombaton késő délután a Maros megyei Libánfalván.</t>
+  </si>
+  <si>
+    <t>Kétbocsos anyamedvét zavartak el hétfő délután a csendőrök a tusnádfürdői állomás közeléből – tájékoztat közleményben a Hargita megyei csendőr-felügyelőség. A hatóságokat a 112-es egységes segélyhívószámon értesítették az állatok jelenlétéről.</t>
+  </si>
+  <si>
+    <t>Rendőrök találtak rá egy elpusztult medvebocsra az erdővidéki Bardóc közelében, a patakparton. A környezetőrséget értesítették, a felügyelők pedig azt állapították meg, hogy az állat halálát egy másik, nagyobb medve okozhatta.</t>
+  </si>
+  <si>
+    <t>Két anyamedve verekedett össze Tusnádfürdő egyik sétányán, mindkét állatnak három-három bocsa volt, amelyek mind felmenekültek a fákra. Egyikük azonban lemászott vagy leesett a fáról, és a másik anyamedve megölte.</t>
+  </si>
+  <si>
+    <t>Egyre több medve jár be napi rendszerességgel Tusnádfürdőre, az évek óta fennálló probléma pedig súlyosbodni látszik, mivel a szeméttárolóknál kihelyezett villanypásztorok miatt kiszámíthatatlanná vált, hol és mikor bukkannak fel a nagyvadak.</t>
+  </si>
+  <si>
+    <t>Több medve-észlelés miatt is riasztották a Hargita megyei csendőröket Tusnádfürdőről kedden este. A hatóságiak több medvét is elűztek a lakott területekről.</t>
+  </si>
+  <si>
+    <t>Öt esetben is közbe kellett lépniük a csendőröknek Tusnádfürdőn a medvék miatt vasárnap este és hétfőre virradóan.</t>
+  </si>
+  <si>
+    <t>Sérült fiatal medve tört be csütörtökön délelőtt egy székelyudvarhelyi háztartásba, majd egy magas fán keresett menedéket. A Nagy-Küküllő Vadász- és Sporthorgász Egyesület tagjai altatólövedékkel vették célba a vadat, hogy megvizsgálhassák a sérülését.</t>
+  </si>
+  <si>
+    <t>A szükséges kezelések után vadászterületük egy másik részén engedték szabadon a csütörtökön Székelyudvarhelyen befogott sérült medvét a Nagy-Küküllő Vadász- és Sporthorgász Egyesület szakemberei.</t>
+  </si>
+  <si>
+    <t>Medvét láttak Oroszhegyben, a 73-as házszám közelében – értesítették a környéken élőket, sőt még a székelyudvarhelyieket is a Ro-Alert révén.</t>
+  </si>
+  <si>
+    <t>Többször riasztották a hétvégén a Hargita megyei csendőröket a települések utcáin kószáló medvék miatt – tájékoztatott a Hargita Megyei Csendőr-felügyelőség hétfőn.</t>
+  </si>
+  <si>
+    <t>Megrongálta egy lakóház kerítését a Malom utcában a napok óta Csíkszereda környékén garázdálkodó medve. A területileg illetékes vadásztársaság kérni fogja a naponta felbukkanó nagyvad kilövését, ehhez azonban lakossági panaszokra van szükség.</t>
+  </si>
+  <si>
+    <t>Bűnügyi keresetet nyújtott be a környezetvédelmi tárca vezetője és egyik államtitkára ellen a Zetelaki Területtulajdonosi Társulás. Az indok: nem hagyta jóvá a szakminisztérium a prevenciós célú kilövési kvótát, amellyel orvosolható lenne a medvevadászat betiltása óta fokozódó probléma.</t>
+  </si>
+  <si>
+    <t>Egy medvét kaptak lencsevégre kedden kora este a csíkszeredai Fenyő utcában, a Fortuna-park közelében. A videót a Vadkárok Székelyföldön Facebook-oldalon tették közzé.</t>
+  </si>
+  <si>
+    <t>Legalább tíz medve okoz folyamatosan gondokat a székelyudvarhelyi portákon: kecskéket, juhokat és tyúkokat pusztítanak el, de a környéken már emberre is támadott egy nagyvad. A Nagy-Küküllő Vadász- és Sporthorgász Egyesület egyelőre a medvék befogására és áthelyezésére fekteti a hangsúlyt.</t>
+  </si>
+  <si>
+    <t>Két medvét észleltek Székelyudvarhelyen, a Szászok táborában – erről értesíti a helyieket a Ro-Alert alkalmazáson keresztül a vészhelyzeti felügyelőség.</t>
+  </si>
+  <si>
+    <t>Tusnádfürdő határában, az út szélén magára hagyott medvebocs miatt riasztották a csendőröket vasárnap reggel. A vadállatot a hatóságiak „látták el”, míg a helyszínre érkezett egy állatorvos, illetve a balánbányai medve-visszavadító központ illetékese.</t>
+  </si>
+  <si>
+    <t>Kilövési engedélyt kért a területileg illetékes vadásztársaság a Csíkszeredában egyre gyakrabban felbukkanó fiatal medvére. A megfigyeléseik során az is kiderült, hogy egy bocsos anyamedve is él a körkényen, vasárnap este pedig már lakott terület közelébe merészkedtek.</t>
+  </si>
+  <si>
+    <t>Medvét gázolt el egy autó Csíkszereda közelében, a 13A jelzésű országúton, a Domb-kanyar előtt csütörtök este. A balesetben a medve elpusztult, az autóban pedig anyagi kár keletkezett, senki nem sérült meg.</t>
+  </si>
+  <si>
+    <t>A medvéket etető személyek megbírságolását helyezte kilátásba Costel Alexe környezetvédelmi miniszter.</t>
+  </si>
+  <si>
+    <t>Az élethez és testi épséghez, illetve a tulajdonhoz való jogot veszélyeztetik a medvék Tusnádfürdőn – értékel az önkormányzati képviselő-testület nevében írt nyílt levelében Albert Tibor tusnádfürdői polgármester, aki a levelet az államelnöknek, a miniszterelnöknek, a szenátusnak és a képviselőháznak is.</t>
+  </si>
+  <si>
+    <t>A hétvége során hatszor riasztották a hatóságokat Hargita megye különböző településein medvék felbukkanása miatt.</t>
+  </si>
+  <si>
+    <t>Két medvére figyelmeztető RO-Alert jelzést küldtek a hatóságok a székelyudvarhelyieknek hétfőn koraeste.</t>
+  </si>
+  <si>
+    <t>Két, a Szentimre, illetve a Rózsa utcákban feltűnt fiatal medvét kellett elkergessenek a Székelyudvarhelyi Helyi Rendőrség, illetve a Nagy-Küküllő Vadász- és Sporthorgász Egyesület munkatársai hétfőn kora este.</t>
+  </si>
+  <si>
+    <t>Május közepe óta már legalább 11 szarvasmarha esett medvék támadásának áldozatul a Gyergyószentmiklóshoz tartozó legelőkön. Ezek azonban csak azok az esetek, melyeket a gazdák kártérítés reményében be is jelentettek.</t>
+  </si>
+  <si>
+    <t>Bár a módosított vadászati törvény értelmében május 15-ig kellett volna kiadja a környezetvédelmi minisztérium a medvekilövési kvótákat – beavatkozási és megelőzési kvótát egyaránt – ez nem történt meg.</t>
+  </si>
+  <si>
+    <t>Életben maradtak, ugyanakkor kerülik a településeket a Nagy-Küküllő Vadász- és Sporthorgász Egyesület által Székelyudvarhelyen befogott, majd a máshol szabadon engedett medvék. Más térségekben vagy nem végeztek hasonló áthelyezést, vagy távolabb vitték a nagyvadakat, így nem tudnak a további sorsukról.</t>
+  </si>
+  <si>
+    <t>Átiratokkal bombázza a hatóságokat Kovászna város önkormányzata, mert már tarthatatlanná vált a sok medve jelenléte a fürdővárosban. A másik probléma, hogy a turisták nem tartanak a vadállatoktól és a RO-Alert jelzés nyomán keresik őket a városban.</t>
+  </si>
+  <si>
+    <t>Elkerülik a medvék a Gyilkostó üdülőtelepet, javulnak a halak és denevérek életkörülményei, és új erdő is létesül – főbb pontokban ezt tervezi megvalósítani a Békás-szoros-Nagyhagymás Nemzeti Park. A közel három millió eurós pályázat előkészítése folyamatban van.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Tusnádfürdőre rendszeresen bejáró és garázdálkodó medvék közül többet is befogadna a magyarországi Veresegyházán működő medveotthon. Az ajánlatot a Környezetvédelmi Minisztériumnak is elküldték, engedélyezésre várnak.</t>
+  </si>
+  <si>
+    <t>A háztáji gazdaságokban garázdálkodó, az emberek közelében táplálékot kereső medvék számára több száz hektáros medveparkot szeretne létrehozni a Hargita megyei önkormányzat, a szükséges területet a közbirtokosságoktól bérelnék.</t>
+  </si>
+  <si>
+    <t>A Csíkszeredai Bíróság első fokon 24 ezer lejes összegű kártérítés kifizetésére kötelezte a környezetvédelmi minisztériumot egy sértett számára, akit két éve medve sebesített meg Tusnádfürdőn. Az elsőfokú ítélet ellen fellebbezést nyújtottak be, ezt még nem tárgyalták.</t>
+  </si>
+  <si>
+    <t>Akárcsak csütörtök este, péntek délután is felbukkant egy medve a csíksomlyói borvízforrás közelében. A környéken lévőket a Ro-Alert rendszeren figyelmeztették a veszélyre.</t>
+  </si>
+  <si>
+    <t>Medvét vett észre a csíkszeredai Márton Áron Főgimnázium udvarán egy férfi, és riasztotta a hatóságokat a 112-n szombat éjjel negyed egykor.</t>
+  </si>
+  <si>
+    <t>A Márton Áron Főgimnázium udvarán ejtették el szombaton késő este a Csíkszeredába napok óta bejáró medvét. A fiatal egyedre kilövési engedélyt kapott az illetékes vadásztársulat a környezetvédelmi minisztériumtól.</t>
+  </si>
+  <si>
+    <t>Miután szombat este kilőtték a múlt héten Csíkszereda és Csíksomlyó több pontján is felbukkant kis termetű medvét, egy másik egyed tűnt fel hétfőre virradóan a város utcáin. A nagyvad ezúttal a városközpontig, a Szabadság térre is bemerészkedett.</t>
+  </si>
+  <si>
+    <t>A fiatal medvék a területhiány miatt kénytelenek új élőhelyet keresni, ezért közelítik meg egyre gyakrabban a lakott területeket – véli a szakember azok után, hogy bebizonyosodott, Csíkszeredában nemcsak egy medve kószált az elmúlt napokban.</t>
+  </si>
+  <si>
+    <t>Heveder</t>
+  </si>
+  <si>
+    <t>Zetelaka</t>
+  </si>
+  <si>
+    <t>Sepsiszentgyörgy</t>
+  </si>
+  <si>
+    <t>Zabola</t>
+  </si>
+  <si>
+    <t>Parajd</t>
+  </si>
+  <si>
+    <t>Székelyudvarhely</t>
+  </si>
+  <si>
+    <t>Csíkszereda</t>
+  </si>
+  <si>
+    <t>Gyergyószentmiklós</t>
+  </si>
+  <si>
+    <t>Marosvásárhely</t>
+  </si>
+  <si>
+    <t>Vasláb</t>
+  </si>
+  <si>
+    <t>Székelyszenttamás</t>
+  </si>
+  <si>
+    <t>Ülke</t>
+  </si>
+  <si>
+    <t>Csíkbánkfalva</t>
+  </si>
+  <si>
     <t>Etéd</t>
   </si>
   <si>
+    <t>Haraly</t>
+  </si>
+  <si>
+    <t>Farcád</t>
+  </si>
+  <si>
     <t>Zágon</t>
   </si>
   <si>
-    <t>Farcád</t>
-  </si>
-  <si>
     <t>Tusnádfürdő</t>
   </si>
   <si>
-    <t>Vasláb</t>
-  </si>
-  <si>
-    <t>Gyergyószentmiklós</t>
-  </si>
-  <si>
     <t>Kőrispatak</t>
+  </si>
+  <si>
+    <t>Libánfalva</t>
+  </si>
+  <si>
+    <t>Bardoc</t>
+  </si>
+  <si>
+    <t>Oroszhegy</t>
+  </si>
+  <si>
+    <t>Csobotfalva</t>
+  </si>
+  <si>
+    <t>Marosfő</t>
+  </si>
+  <si>
+    <t>Balánbánya</t>
+  </si>
+  <si>
+    <t>Magura</t>
+  </si>
+  <si>
+    <t>Nyomát</t>
+  </si>
+  <si>
+    <t>Kovászna</t>
+  </si>
+  <si>
+    <t>Keresd</t>
+  </si>
+  <si>
+    <t>Kerelő</t>
+  </si>
+  <si>
+    <t>Csíksomlyó</t>
+  </si>
+  <si>
+    <t>Márkos</t>
+  </si>
+  <si>
+    <t>Márkod</t>
   </si>
 </sst>
 </file>
@@ -601,7 +1333,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,28 +1389,28 @@
     <row r="2" spans="1:15">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
-        <v>43948</v>
+        <v>43820</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -686,44 +1418,35 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
-        <v>64</v>
-      </c>
       <c r="M2">
         <v>0</v>
-      </c>
-      <c r="N2">
-        <v>46.4483931</v>
-      </c>
-      <c r="O2">
-        <v>25.0531787</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
-        <v>43955</v>
+        <v>43824</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -731,35 +1454,44 @@
       <c r="K3">
         <v>0</v>
       </c>
+      <c r="L3" t="s">
+        <v>282</v>
+      </c>
       <c r="M3">
         <v>0</v>
+      </c>
+      <c r="N3">
+        <v>46.660283</v>
+      </c>
+      <c r="O3">
+        <v>25.638678</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
-        <v>43956</v>
+        <v>43825</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -768,82 +1500,82 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>283</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>45.771657</v>
+        <v>46.3910308</v>
       </c>
       <c r="O4">
-        <v>26.1242507</v>
+        <v>25.3679291</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
-        <v>43956</v>
+        <v>43834</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>284</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>46.3070915</v>
+        <v>45.8609375</v>
       </c>
       <c r="O5">
-        <v>25.2360821</v>
+        <v>25.7885796</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
-        <v>43959</v>
+        <v>43836</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -858,37 +1590,37 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>46.1460752</v>
+        <v>45.88770299999999</v>
       </c>
       <c r="O6">
-        <v>25.8569589</v>
+        <v>26.189789</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
-        <v>43962</v>
+        <v>43841</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>218</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -903,43 +1635,43 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>286</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>46.64607480000001</v>
+        <v>46.5553429</v>
       </c>
       <c r="O7">
-        <v>25.6237105</v>
+        <v>25.1272723</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
-        <v>43963</v>
+        <v>43843</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -947,29 +1679,38 @@
       <c r="K8">
         <v>0</v>
       </c>
+      <c r="L8" t="s">
+        <v>287</v>
+      </c>
       <c r="M8">
         <v>0</v>
+      </c>
+      <c r="N8">
+        <v>46.3049996</v>
+      </c>
+      <c r="O8">
+        <v>25.2926479</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
-        <v>43964</v>
+        <v>43856</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>220</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -983,35 +1724,44 @@
       <c r="K9">
         <v>0</v>
       </c>
+      <c r="L9" t="s">
+        <v>288</v>
+      </c>
       <c r="M9">
         <v>0</v>
+      </c>
+      <c r="N9">
+        <v>46.3695574</v>
+      </c>
+      <c r="O9">
+        <v>25.7953655</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
-        <v>43966</v>
+        <v>43858</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1020,43 +1770,43 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>67</v>
+        <v>289</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>46.1460752</v>
+        <v>46.7212112</v>
       </c>
       <c r="O10">
-        <v>25.8569589</v>
+        <v>25.5855275</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="B11" s="2">
-        <v>43966</v>
+        <v>43864</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>222</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1065,43 +1815,43 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>287</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>46.7212112</v>
+        <v>46.3049996</v>
       </c>
       <c r="O11">
-        <v>25.5855275</v>
+        <v>25.2926479</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
-        <v>43969</v>
+        <v>43884</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1109,38 +1859,29 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12" t="s">
-        <v>70</v>
-      </c>
       <c r="M12">
         <v>0</v>
-      </c>
-      <c r="N12">
-        <v>46.4178123</v>
-      </c>
-      <c r="O12">
-        <v>24.9703704</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
-        <v>43976</v>
+        <v>43892</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1149,22 +1890,3118 @@
         <v>3</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
+        <v>290</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>46.5385862</v>
+      </c>
+      <c r="O13">
+        <v>24.5514392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2">
+        <v>43894</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>290</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>46.5385862</v>
+      </c>
+      <c r="O14">
+        <v>24.5514392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2">
+        <v>43900</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>291</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>46.64607480000001</v>
+      </c>
+      <c r="O15">
+        <v>25.6237105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" t="s">
+        <v>228</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>292</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>46.3479377</v>
+      </c>
+      <c r="O17">
+        <v>25.2877551</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>229</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>287</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>46.3049996</v>
+      </c>
+      <c r="O18">
+        <v>25.2926479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2">
+        <v>43939</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>230</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>293</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>46.35615240000001</v>
+      </c>
+      <c r="O19">
+        <v>25.2854512</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>231</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>294</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>46.3016939</v>
+      </c>
+      <c r="O20">
+        <v>25.9432296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>295</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>46.4483931</v>
+      </c>
+      <c r="O21">
+        <v>25.0531787</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2">
+        <v>43955</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" t="s">
+        <v>233</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>296</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>45.9259335</v>
+      </c>
+      <c r="O22">
+        <v>26.2051396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2">
+        <v>43956</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>297</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>46.3070915</v>
+      </c>
+      <c r="O23">
+        <v>25.2360821</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2">
+        <v>43956</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" t="s">
+        <v>235</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>298</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>45.771657</v>
+      </c>
+      <c r="O24">
+        <v>26.1242507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2">
+        <v>43959</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" t="s">
+        <v>236</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>299</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>46.1460752</v>
+      </c>
+      <c r="O25">
+        <v>25.8569589</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2">
+        <v>43962</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>291</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>46.64607480000001</v>
+      </c>
+      <c r="O26">
+        <v>25.6237105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2">
+        <v>43963</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" t="s">
+        <v>238</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2">
+        <v>43964</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>284</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>45.8609375</v>
+      </c>
+      <c r="O28">
+        <v>25.7885796</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2">
+        <v>43966</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" t="s">
+        <v>240</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>299</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>46.1460752</v>
+      </c>
+      <c r="O29">
+        <v>25.8569589</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2">
+        <v>43966</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" t="s">
+        <v>241</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>289</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>46.7212112</v>
+      </c>
+      <c r="O30">
+        <v>25.5855275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2">
+        <v>43969</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" t="s">
+        <v>242</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>300</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>46.4178123</v>
+      </c>
+      <c r="O31">
+        <v>24.9703704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2">
+        <v>43976</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" t="s">
+        <v>243</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>295</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>46.4483931</v>
+      </c>
+      <c r="O32">
+        <v>25.0531787</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2">
+        <v>43980</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" t="s">
+        <v>175</v>
+      </c>
+      <c r="G33" t="s">
+        <v>244</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>291</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>46.64607480000001</v>
+      </c>
+      <c r="O33">
+        <v>25.6237105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2">
+        <v>43982</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" t="s">
+        <v>245</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>46.7704043</v>
+      </c>
+      <c r="O34">
+        <v>24.9322946</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2">
+        <v>43983</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" t="s">
+        <v>246</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>299</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>46.1460752</v>
+      </c>
+      <c r="O35">
+        <v>25.8569589</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2">
+        <v>43984</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" t="s">
+        <v>247</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>302</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>46.1861773</v>
+      </c>
+      <c r="O36">
+        <v>25.6428551</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2">
+        <v>43986</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" t="s">
+        <v>248</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>299</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>46.1460752</v>
+      </c>
+      <c r="O37">
+        <v>25.8569589</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2">
+        <v>43990</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" t="s">
+        <v>180</v>
+      </c>
+      <c r="G38" t="s">
+        <v>249</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>299</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>46.1460752</v>
+      </c>
+      <c r="O38">
+        <v>25.8569589</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2">
+        <v>43992</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" t="s">
+        <v>181</v>
+      </c>
+      <c r="G39" t="s">
+        <v>250</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>299</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>46.1460752</v>
+      </c>
+      <c r="O39">
+        <v>25.8569589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2">
+        <v>43997</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" t="s">
+        <v>251</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>299</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>46.1460752</v>
+      </c>
+      <c r="O40">
+        <v>25.8569589</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2">
+        <v>44000</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" t="s">
+        <v>252</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>287</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>46.3049996</v>
+      </c>
+      <c r="O41">
+        <v>25.2926479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2">
+        <v>44001</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G42" t="s">
+        <v>253</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>287</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>46.3049996</v>
+      </c>
+      <c r="O42">
+        <v>25.2926479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2">
+        <v>44004</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43" t="s">
+        <v>254</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>303</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>45.8584727</v>
+      </c>
+      <c r="O43">
+        <v>23.6238345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2">
+        <v>44004</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" t="s">
+        <v>186</v>
+      </c>
+      <c r="G44" t="s">
+        <v>255</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>299</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>46.1460752</v>
+      </c>
+      <c r="O44">
+        <v>25.8569589</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2">
+        <v>44004</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" t="s">
+        <v>255</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>304</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>46.3828459</v>
+      </c>
+      <c r="O45">
+        <v>25.8306283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2">
+        <v>44004</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" t="s">
+        <v>186</v>
+      </c>
+      <c r="G46" t="s">
+        <v>255</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>305</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>46.6274576</v>
+      </c>
+      <c r="O46">
+        <v>25.712059</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2">
+        <v>44004</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" t="s">
+        <v>187</v>
+      </c>
+      <c r="G47" t="s">
+        <v>256</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>288</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>46.3695574</v>
+      </c>
+      <c r="O47">
+        <v>25.7953655</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2">
+        <v>44006</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" t="s">
+        <v>188</v>
+      </c>
+      <c r="G48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>283</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>46.3910308</v>
+      </c>
+      <c r="O48">
+        <v>25.3679291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2">
+        <v>44006</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" t="s">
+        <v>189</v>
+      </c>
+      <c r="G49" t="s">
+        <v>258</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>288</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>46.3695574</v>
+      </c>
+      <c r="O49">
+        <v>25.7953655</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2">
+        <v>44008</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" t="s">
+        <v>190</v>
+      </c>
+      <c r="G50" t="s">
+        <v>259</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>287</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>46.3049996</v>
+      </c>
+      <c r="O50">
+        <v>25.2926479</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2">
+        <v>44009</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" t="s">
+        <v>191</v>
+      </c>
+      <c r="G51" t="s">
+        <v>260</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>287</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>46.3049996</v>
+      </c>
+      <c r="O51">
+        <v>25.2926479</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2">
+        <v>44011</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" t="s">
+        <v>192</v>
+      </c>
+      <c r="G52" t="s">
+        <v>261</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>299</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>46.1460752</v>
+      </c>
+      <c r="O52">
+        <v>25.8569589</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2">
+        <v>44011</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" t="s">
+        <v>192</v>
+      </c>
+      <c r="G53" t="s">
+        <v>261</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>306</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>46.6585838</v>
+      </c>
+      <c r="O53">
+        <v>25.8076679</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2">
+        <v>44011</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" t="s">
+        <v>192</v>
+      </c>
+      <c r="G54" t="s">
+        <v>261</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>307</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>45.5245201</v>
+      </c>
+      <c r="O54">
+        <v>25.2967279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>46.4483931</v>
-      </c>
-      <c r="O13">
-        <v>25.0531787</v>
+      <c r="D55" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" t="s">
+        <v>193</v>
+      </c>
+      <c r="G55" t="s">
+        <v>262</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55" t="s">
+        <v>288</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>46.3695574</v>
+      </c>
+      <c r="O55">
+        <v>25.7953655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2">
+        <v>44014</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" t="s">
+        <v>194</v>
+      </c>
+      <c r="G56" t="s">
+        <v>263</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>288</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>46.3695574</v>
+      </c>
+      <c r="O56">
+        <v>25.7953655</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2">
+        <v>44018</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" t="s">
+        <v>195</v>
+      </c>
+      <c r="G57" t="s">
+        <v>264</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2">
+        <v>44020</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" t="s">
+        <v>196</v>
+      </c>
+      <c r="G58" t="s">
+        <v>265</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>299</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>46.1460752</v>
+      </c>
+      <c r="O58">
+        <v>25.8569589</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2">
+        <v>44025</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" t="s">
+        <v>197</v>
+      </c>
+      <c r="G59" t="s">
+        <v>266</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2">
+        <v>44025</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" t="s">
+        <v>198</v>
+      </c>
+      <c r="G60" t="s">
+        <v>267</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>287</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>46.3049996</v>
+      </c>
+      <c r="O60">
+        <v>25.2926479</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2">
+        <v>44025</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" t="s">
+        <v>199</v>
+      </c>
+      <c r="G61" t="s">
+        <v>268</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
+        <v>287</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>46.3049996</v>
+      </c>
+      <c r="O61">
+        <v>25.2926479</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2">
+        <v>44026</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" t="s">
+        <v>200</v>
+      </c>
+      <c r="G62" t="s">
+        <v>269</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>289</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>46.7212112</v>
+      </c>
+      <c r="O62">
+        <v>25.5855275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2">
+        <v>44027</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" t="s">
+        <v>201</v>
+      </c>
+      <c r="G63" t="s">
+        <v>270</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2">
+        <v>44030</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" t="s">
+        <v>202</v>
+      </c>
+      <c r="G64" t="s">
+        <v>271</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>287</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>46.3049996</v>
+      </c>
+      <c r="O64">
+        <v>25.2926479</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2">
+        <v>44031</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" t="s">
+        <v>203</v>
+      </c>
+      <c r="G65" t="s">
+        <v>272</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>308</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>46.5200523</v>
+      </c>
+      <c r="O65">
+        <v>24.7133953</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2">
+        <v>44031</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" t="s">
+        <v>203</v>
+      </c>
+      <c r="G66" t="s">
+        <v>272</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>309</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>46.7266774</v>
+      </c>
+      <c r="O66">
+        <v>25.7192348</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2">
+        <v>44042</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" t="s">
+        <v>143</v>
+      </c>
+      <c r="F67" t="s">
+        <v>204</v>
+      </c>
+      <c r="G67" t="s">
+        <v>273</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2">
+        <v>44052</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" t="s">
+        <v>205</v>
+      </c>
+      <c r="G68" t="s">
+        <v>274</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>299</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>46.1460752</v>
+      </c>
+      <c r="O68">
+        <v>25.8569589</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2">
+        <v>44057</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" t="s">
+        <v>206</v>
+      </c>
+      <c r="G69" t="s">
+        <v>275</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69" t="s">
+        <v>310</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>46.14333569999999</v>
+      </c>
+      <c r="O69">
+        <v>24.6921697</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2">
+        <v>44057</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E70" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" t="s">
+        <v>206</v>
+      </c>
+      <c r="G70" t="s">
+        <v>275</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70" t="s">
+        <v>311</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>46.4742555</v>
+      </c>
+      <c r="O70">
+        <v>24.3792474</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2">
+        <v>44061</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E71" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" t="s">
+        <v>207</v>
+      </c>
+      <c r="G71" t="s">
+        <v>276</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71" t="s">
+        <v>299</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>46.1460752</v>
+      </c>
+      <c r="O71">
+        <v>25.8569589</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2">
+        <v>44061</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E72" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G72" t="s">
+        <v>276</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>288</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>46.3695574</v>
+      </c>
+      <c r="O72">
+        <v>25.7953655</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2">
+        <v>44064</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E73" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" t="s">
+        <v>208</v>
+      </c>
+      <c r="G73" t="s">
+        <v>277</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>312</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>46.3753277</v>
+      </c>
+      <c r="O73">
+        <v>25.8192703</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2">
+        <v>44064</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" t="s">
+        <v>208</v>
+      </c>
+      <c r="G74" t="s">
+        <v>277</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>288</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>46.3695574</v>
+      </c>
+      <c r="O74">
+        <v>25.7953655</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2">
+        <v>44065</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E75" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" t="s">
+        <v>209</v>
+      </c>
+      <c r="G75" t="s">
+        <v>278</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>313</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>45.7201382</v>
+      </c>
+      <c r="O75">
+        <v>25.8599014</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2">
+        <v>44065</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E76" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" t="s">
+        <v>209</v>
+      </c>
+      <c r="G76" t="s">
+        <v>278</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>314</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>46.5962893</v>
+      </c>
+      <c r="O76">
+        <v>24.8631884</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2">
+        <v>44065</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77" t="s">
+        <v>143</v>
+      </c>
+      <c r="F77" t="s">
+        <v>209</v>
+      </c>
+      <c r="G77" t="s">
+        <v>278</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77" t="s">
+        <v>288</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>46.3695574</v>
+      </c>
+      <c r="O77">
+        <v>25.7953655</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2">
+        <v>44066</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E78" t="s">
+        <v>143</v>
+      </c>
+      <c r="F78" t="s">
+        <v>210</v>
+      </c>
+      <c r="G78" t="s">
+        <v>279</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>313</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>45.7201382</v>
+      </c>
+      <c r="O78">
+        <v>25.8599014</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2">
+        <v>44066</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E79" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" t="s">
+        <v>210</v>
+      </c>
+      <c r="G79" t="s">
+        <v>279</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>314</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>46.5962893</v>
+      </c>
+      <c r="O79">
+        <v>24.8631884</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="1"/>
+      <c r="B80" s="2">
+        <v>44066</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E80" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" t="s">
+        <v>210</v>
+      </c>
+      <c r="G80" t="s">
+        <v>279</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>288</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>46.3695574</v>
+      </c>
+      <c r="O80">
+        <v>25.7953655</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2">
+        <v>44067</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E81" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" t="s">
+        <v>211</v>
+      </c>
+      <c r="G81" t="s">
+        <v>280</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81" t="s">
+        <v>312</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>46.3753277</v>
+      </c>
+      <c r="O81">
+        <v>25.8192703</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2">
+        <v>44067</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E82" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" t="s">
+        <v>211</v>
+      </c>
+      <c r="G82" t="s">
+        <v>280</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82" t="s">
+        <v>288</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>46.3695574</v>
+      </c>
+      <c r="O82">
+        <v>25.7953655</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2">
+        <v>44067</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E83" t="s">
+        <v>143</v>
+      </c>
+      <c r="F83" t="s">
+        <v>212</v>
+      </c>
+      <c r="G83" t="s">
+        <v>281</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83" t="s">
+        <v>288</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>46.3695574</v>
+      </c>
+      <c r="O83">
+        <v>25.7953655</v>
       </c>
     </row>
   </sheetData>
@@ -1193,6 +5030,146 @@
     <hyperlink ref="D12" r:id="rId22"/>
     <hyperlink ref="C13" r:id="rId23"/>
     <hyperlink ref="D13" r:id="rId24"/>
+    <hyperlink ref="C14" r:id="rId25"/>
+    <hyperlink ref="D14" r:id="rId26"/>
+    <hyperlink ref="C15" r:id="rId27"/>
+    <hyperlink ref="D15" r:id="rId28"/>
+    <hyperlink ref="C16" r:id="rId29"/>
+    <hyperlink ref="D16" r:id="rId30"/>
+    <hyperlink ref="C17" r:id="rId31"/>
+    <hyperlink ref="D17" r:id="rId32"/>
+    <hyperlink ref="C18" r:id="rId33"/>
+    <hyperlink ref="D18" r:id="rId34"/>
+    <hyperlink ref="C19" r:id="rId35"/>
+    <hyperlink ref="D19" r:id="rId36"/>
+    <hyperlink ref="C20" r:id="rId37"/>
+    <hyperlink ref="D20" r:id="rId38"/>
+    <hyperlink ref="C21" r:id="rId39"/>
+    <hyperlink ref="D21" r:id="rId40"/>
+    <hyperlink ref="C22" r:id="rId41"/>
+    <hyperlink ref="D22" r:id="rId42"/>
+    <hyperlink ref="C23" r:id="rId43"/>
+    <hyperlink ref="D23" r:id="rId44"/>
+    <hyperlink ref="C24" r:id="rId45"/>
+    <hyperlink ref="D24" r:id="rId46"/>
+    <hyperlink ref="C25" r:id="rId47"/>
+    <hyperlink ref="D25" r:id="rId48"/>
+    <hyperlink ref="C26" r:id="rId49"/>
+    <hyperlink ref="D26" r:id="rId50"/>
+    <hyperlink ref="C27" r:id="rId51"/>
+    <hyperlink ref="D27" r:id="rId52"/>
+    <hyperlink ref="C28" r:id="rId53"/>
+    <hyperlink ref="D28" r:id="rId54"/>
+    <hyperlink ref="C29" r:id="rId55"/>
+    <hyperlink ref="D29" r:id="rId56"/>
+    <hyperlink ref="C30" r:id="rId57"/>
+    <hyperlink ref="D30" r:id="rId58"/>
+    <hyperlink ref="C31" r:id="rId59"/>
+    <hyperlink ref="D31" r:id="rId60"/>
+    <hyperlink ref="C32" r:id="rId61"/>
+    <hyperlink ref="D32" r:id="rId62"/>
+    <hyperlink ref="C33" r:id="rId63"/>
+    <hyperlink ref="D33" r:id="rId64"/>
+    <hyperlink ref="C34" r:id="rId65"/>
+    <hyperlink ref="D34" r:id="rId66"/>
+    <hyperlink ref="C35" r:id="rId67"/>
+    <hyperlink ref="D35" r:id="rId68"/>
+    <hyperlink ref="C36" r:id="rId69"/>
+    <hyperlink ref="D36" r:id="rId70"/>
+    <hyperlink ref="C37" r:id="rId71"/>
+    <hyperlink ref="D37" r:id="rId72"/>
+    <hyperlink ref="C38" r:id="rId73"/>
+    <hyperlink ref="D38" r:id="rId74"/>
+    <hyperlink ref="C39" r:id="rId75"/>
+    <hyperlink ref="D39" r:id="rId76"/>
+    <hyperlink ref="C40" r:id="rId77"/>
+    <hyperlink ref="D40" r:id="rId78"/>
+    <hyperlink ref="C41" r:id="rId79"/>
+    <hyperlink ref="D41" r:id="rId80"/>
+    <hyperlink ref="C42" r:id="rId81"/>
+    <hyperlink ref="D42" r:id="rId82"/>
+    <hyperlink ref="C43" r:id="rId83"/>
+    <hyperlink ref="D43" r:id="rId84"/>
+    <hyperlink ref="C44" r:id="rId85"/>
+    <hyperlink ref="D44" r:id="rId86"/>
+    <hyperlink ref="C45" r:id="rId87"/>
+    <hyperlink ref="D45" r:id="rId88"/>
+    <hyperlink ref="C46" r:id="rId89"/>
+    <hyperlink ref="D46" r:id="rId90"/>
+    <hyperlink ref="C47" r:id="rId91"/>
+    <hyperlink ref="D47" r:id="rId92"/>
+    <hyperlink ref="C48" r:id="rId93"/>
+    <hyperlink ref="D48" r:id="rId94"/>
+    <hyperlink ref="C49" r:id="rId95"/>
+    <hyperlink ref="D49" r:id="rId96"/>
+    <hyperlink ref="C50" r:id="rId97"/>
+    <hyperlink ref="D50" r:id="rId98"/>
+    <hyperlink ref="C51" r:id="rId99"/>
+    <hyperlink ref="D51" r:id="rId100"/>
+    <hyperlink ref="C52" r:id="rId101"/>
+    <hyperlink ref="D52" r:id="rId102"/>
+    <hyperlink ref="C53" r:id="rId103"/>
+    <hyperlink ref="D53" r:id="rId104"/>
+    <hyperlink ref="C54" r:id="rId105"/>
+    <hyperlink ref="D54" r:id="rId106"/>
+    <hyperlink ref="C55" r:id="rId107"/>
+    <hyperlink ref="D55" r:id="rId108"/>
+    <hyperlink ref="C56" r:id="rId109"/>
+    <hyperlink ref="D56" r:id="rId110"/>
+    <hyperlink ref="C57" r:id="rId111"/>
+    <hyperlink ref="D57" r:id="rId112"/>
+    <hyperlink ref="C58" r:id="rId113"/>
+    <hyperlink ref="D58" r:id="rId114"/>
+    <hyperlink ref="C59" r:id="rId115"/>
+    <hyperlink ref="D59" r:id="rId116"/>
+    <hyperlink ref="C60" r:id="rId117"/>
+    <hyperlink ref="D60" r:id="rId118"/>
+    <hyperlink ref="C61" r:id="rId119"/>
+    <hyperlink ref="D61" r:id="rId120"/>
+    <hyperlink ref="C62" r:id="rId121"/>
+    <hyperlink ref="D62" r:id="rId122"/>
+    <hyperlink ref="C63" r:id="rId123"/>
+    <hyperlink ref="D63" r:id="rId124"/>
+    <hyperlink ref="C64" r:id="rId125"/>
+    <hyperlink ref="D64" r:id="rId126"/>
+    <hyperlink ref="C65" r:id="rId127"/>
+    <hyperlink ref="D65" r:id="rId128"/>
+    <hyperlink ref="C66" r:id="rId129"/>
+    <hyperlink ref="D66" r:id="rId130"/>
+    <hyperlink ref="C67" r:id="rId131"/>
+    <hyperlink ref="D67" r:id="rId132"/>
+    <hyperlink ref="C68" r:id="rId133"/>
+    <hyperlink ref="D68" r:id="rId134"/>
+    <hyperlink ref="C69" r:id="rId135"/>
+    <hyperlink ref="D69" r:id="rId136"/>
+    <hyperlink ref="C70" r:id="rId137"/>
+    <hyperlink ref="D70" r:id="rId138"/>
+    <hyperlink ref="C71" r:id="rId139"/>
+    <hyperlink ref="D71" r:id="rId140"/>
+    <hyperlink ref="C72" r:id="rId141"/>
+    <hyperlink ref="D72" r:id="rId142"/>
+    <hyperlink ref="C73" r:id="rId143"/>
+    <hyperlink ref="D73" r:id="rId144"/>
+    <hyperlink ref="C74" r:id="rId145"/>
+    <hyperlink ref="D74" r:id="rId146"/>
+    <hyperlink ref="C75" r:id="rId147"/>
+    <hyperlink ref="D75" r:id="rId148"/>
+    <hyperlink ref="C76" r:id="rId149"/>
+    <hyperlink ref="D76" r:id="rId150"/>
+    <hyperlink ref="C77" r:id="rId151"/>
+    <hyperlink ref="D77" r:id="rId152"/>
+    <hyperlink ref="C78" r:id="rId153"/>
+    <hyperlink ref="D78" r:id="rId154"/>
+    <hyperlink ref="C79" r:id="rId155"/>
+    <hyperlink ref="D79" r:id="rId156"/>
+    <hyperlink ref="C80" r:id="rId157"/>
+    <hyperlink ref="D80" r:id="rId158"/>
+    <hyperlink ref="C81" r:id="rId159"/>
+    <hyperlink ref="D81" r:id="rId160"/>
+    <hyperlink ref="C82" r:id="rId161"/>
+    <hyperlink ref="D82" r:id="rId162"/>
+    <hyperlink ref="C83" r:id="rId163"/>
+    <hyperlink ref="D83" r:id="rId164"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/szekelyhon_data.xlsx
+++ b/data/szekelyhon_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>date</t>
   </si>
@@ -61,166 +61,88 @@
     <t>checked</t>
   </si>
   <si>
-    <t>https://szekelyhon.ro/aktualis/megtermett-medve-rohangalt-csikpalfalva-utcain</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/kutyat-juhokat-pusztitottak-a-medvek-csikszeken</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/egyre-tobb-medve-csatangol-szekelyudvarhelyen-ket-peldanyt-athelyeztetnenek</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/rendszeresen-garazdalkodik-egy-nagyvad-szekelyszentmihalyon</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/ez-a-medve-nem-csak-ugy-atszaladt-az-uton-n-ketszer-is-meggondolta</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/pasztorra-tamadt-egy-medve-csikbankfalva-kozeleben</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/a-kilovesi-keresek-szama-alapjan-is-szekelyfoldon-a-legsulyosabb-a-medveproblema</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/ha-ezt-a-medvek-tudnak</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/szakmai-tajekoztatas-mellett-segitseget-is-nyujtanak-a-medvekkel-kapcsolatos-problemak-eseten</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/kijarasi-korlatozas-a-medveknel-is</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/medveles-teruletere-tevedtek-olcson-n-mindossze-az-ijedtseggel-n-megusztak</t>
+    <t>https://szekelyhon.ro/aktualis/balanbanyai-udvarba-hatolt-be-egy-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvetamadas-tizenotezer-euro-karteritest-iteltek-meg-a-serultnek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/nem-fuznek-sok-remenyt-a-medvegondok-rendezesehez</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/vilag/egyszer-es-mindenkorra-rendezne-a-medvekerdest-kornyezetvedelmi-miniszterkent-tanczos-barna</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/megsem-szallitjak-el-a-medveket-tusnadfurdorol</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/nyugi-van-medvefronton-es-meg-ezutan-johet-bfuvezesr</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_tusnadfurdoi-anyamedve-pnt-3.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_medve-tusnadfurdon-junius-pnt-6.jpg</t>
   </si>
   <si>
     <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_medve-tusnadfurdon-junius-pnt-8.jpg</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/07-juni/sm_medvebocs-elengedes-ebe-66.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/06-juli/sm_medve_udvarhely_belo-5.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/04-szeptember/sm_szentmihaly--ebe-510.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/06-juli/sm_medve_udvarhely_belo-6.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/04_szeptember/02/sm_allattenyesztes_illusztracio_ga-3.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/06-juli/sm_medve_udvarhely_belo-9.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/04-szeptember/sm_szentmihaly--ebe-500.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_tusnadfurdoi-anyamedve-pnt-4.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetamadas-ebe-41.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-94.jpg</t>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/14_kiemelesek/sm_tanczos-barna-miniszter.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_tusnadfurdoi-anyamedve-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-90.jpg</t>
   </si>
   <si>
     <t>Székelyhon</t>
   </si>
   <si>
-    <t>Megtermett medve rohangált Csíkpálfalva utcáin</t>
-  </si>
-  <si>
-    <t>Kutyát és juhokat pusztítottak el a medvék Csíkszéken</t>
-  </si>
-  <si>
-    <t>Egyre több medve csatangol Székelyudvarhelyen, két példányt áthelyeztetnének</t>
-  </si>
-  <si>
-    <t>Rendszeresen garázdálkodik egy nagyvad Székelyszentmihályon</t>
-  </si>
-  <si>
-    <t>Ez a medve nem csak úgy átszaladt az úton – kétszer is meggondolta</t>
-  </si>
-  <si>
-    <t>Pásztorra támadt egy medve Csíkbánkfalva közelében</t>
-  </si>
-  <si>
-    <t>A kilövési kérések száma alapján is Székelyföldön a legsúlyosabb a medveprobléma</t>
-  </si>
-  <si>
-    <t>Ha ezt a medvék tudnák...</t>
-  </si>
-  <si>
-    <t>Szakmai tájékoztatás mellett segítséget is nyújtanak a medvékkel kapcsolatos problémák esetén</t>
-  </si>
-  <si>
-    <t>Kijárási korlátozás a medvéknél is?</t>
-  </si>
-  <si>
-    <t>Medveles területére tévedtek, olcsón – mindössze az ijedtséggel – megúszták</t>
-  </si>
-  <si>
-    <t>Csíkpálfalva utcáin rohanó nagytestű medvét filmeztek le kedd éjjel.</t>
-  </si>
-  <si>
-    <t>Egyre gyakrabban tűnnek fel és pusztítanak a medvék Csíkszereda környékén: kedd éjszaka Csíkpálfalván merészkedett lakott területre egy termetes egyed, majd szerda éjjel Taplocán egy kutya, Szépívezen pedig négy juh vált a nagyvadak áldozatává.</t>
-  </si>
-  <si>
-    <t>Jelenleg hét medve okoz folyamatosan károkat Székelyudvarhelyen, de ennél jóval több példányt lehet megszámolni, amelyeket láttak már a település határain belül. A vadásztársulat áthelyezési engedélyt kért két nagyvadra, amelyek közül az egyiket már el is szállították.</t>
-  </si>
-  <si>
-    <t>Napi szinten bejárt Székelyszentmihályra az elmúlt hetekben egy hím medve, amely már több háztartáshoz is betört, ahol nyulakat és szárnyasokat pusztított el. A vadászok kilövési engedélyért folyamodnak az ügyben.</t>
-  </si>
-  <si>
-    <t>Medvét láttak szombaton reggel hét óra előtt nem sokkal Csíkmindszenten, sőt videóra is vették, amint egy kis hezitálás után a nagyvad úgy dönt, átszalad az úton egy gépjármű előtt.</t>
-  </si>
-  <si>
-    <t>Súlyosan megsebesített egy medve egy tehénpásztort péntek este Csíkbánkfalva mellett. A 28 éves kászoni férfi egész testét zúzódások borítják, kar- és combcsonttörései miatt pedig műtétre szorul.</t>
-  </si>
-  <si>
-    <t>Nem kapott még választ a legfelsőbb bíróság melletti ügyészségre a környezetvédelmi minisztérium ellen június közepén benyújtott bűnügyi keresetére a Zetelaki Területtulajdonosi Társulás, amelyben a prevenciós célú medvekilövési kvóta hiánya ellen emeltek panaszt.</t>
-  </si>
-  <si>
-    <t>Nem engedélyezte a környezetvédelmi minisztérium a Székelyszentmihályon garázdálkodó medve ártalmatlanítását, amit azzal indokolnak, hogy kimerült a kilövési kvóta, ezért újabbat kell jóváhagyni. Addig viszont szünet van.</t>
-  </si>
-  <si>
-    <t>A lakosság tájékoztatása és segítése céljából hozták létre a Hargita Megyei Nagyragadozó Platform nevű Facebook-oldalt, amelyen főként a medvékkel kapcsolatosan osztanak meg fontos tudnivalókat a témában jártas szakemberek, akik szükség esetén gyakorlati segítséget is nyújtanak.</t>
-  </si>
-  <si>
-    <t>Elhanyagolható mennyiségű medvekárt jelentettek ősszel a vadásztársulatoknál, ami annak köszönhető, hogy bőséges gyümölcs- és makktermés volt az erdőkben, így ott maradtak a nagyvadak. Ez persze csak egy szerencsés évnek mondható, hiszen egyre csak gyarapodik az állomány.</t>
-  </si>
-  <si>
-    <t>Tragédiába is torkolhatott volna az eset, de egy hatalmas ijedtséggel megúszták vasárnap délelőtti sétájukat azok a marosvásárhelyi turisták, akik a Borzont melletti Baricz kanyar közelében egy medveles udvarára tévedtek. Mások okulására is elmesélték a történteket.</t>
-  </si>
-  <si>
-    <t>Csíkpálfalva</t>
-  </si>
-  <si>
-    <t>Csíkszereda</t>
-  </si>
-  <si>
-    <t>Csíkszépvíz</t>
-  </si>
-  <si>
-    <t>Székelyudvarhely</t>
-  </si>
-  <si>
-    <t>Székelyszentmihály</t>
-  </si>
-  <si>
-    <t>Csíkmindszent</t>
-  </si>
-  <si>
-    <t>Csíkbánkfalva</t>
+    <t>Balánbányai udvarba hatolt be egy medve</t>
+  </si>
+  <si>
+    <t>Medvetámadás: tizenötezer euró kártérítést ítéltek meg a sérültnek</t>
+  </si>
+  <si>
+    <t>Nem fűznek sok reményt a medvegondok rendezéséhez</t>
+  </si>
+  <si>
+    <t>Egyszer s mindenkorra rendezné a medvekérdést környezetvédelmi miniszterként Tánczos Barna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mégsem szállítják el a medvéket Tusnádfürdőről</t>
+  </si>
+  <si>
+    <t>Nyugi van medvefronton, és még ezután jöhet a „füvezés”</t>
+  </si>
+  <si>
+    <t>A háza udvarán ólálkodó medve miatt riasztotta a hatóságokat Balánbányán egy nő szombaton nem sokkal éjfél után – tájékoztat közleményben a Hargita megyei csendőr-felügyelőség.</t>
+  </si>
+  <si>
+    <t>A Hargita Megyei Törvényszék másodfokú határozata a korábbinál nagyobb összegű kártérítés kifizetésére kötelezte a környezetvédelmi minisztériumot egy Tusnádfürdőn történt medvetámadás sérültje számára. Ez az ítélet sem végleges, további fellebbezésre van lehetőség.</t>
+  </si>
+  <si>
+    <t>Mindeddig nem ért el eredményt a környezetvédelmi minisztérium ellen benyújtott bűnügyi kereset ügyében a Zetelaki Területtulajdonosi Társulás. Az ügyészség nemrég elutasította a prevenciós célú medvekilövési kvóta jóváhagyásának az elmulasztása miatt kezdeményezett keresetet.</t>
+  </si>
+  <si>
+    <t>Egyebek mellett a medveprobléma rendezését, a kártérítések kifizetését és a törvénytelen fakitermelés visszaszorítását tartja fő feladatainak Tánczos Barna frissen kinevezett környezetvédelmi miniszter, aki emellett szenátori munkáját is ellátja a továbbiakban.</t>
+  </si>
+  <si>
+    <t>Nem fogják be és nem szállítják el Magyarországra a Tusnádfürdőre rendszeresen bejáró medvéket, ahogy ezt tavaly szerették volna. Szigorú eljárásoknak, karanténkötelezettségnek kellene megfelelni, amely a gyakorlatban nehezen alkalmazható – tudtuk meg.</t>
+  </si>
+  <si>
+    <t>Noha a medvék jó része nem alszik téli álmot, az utóbbi időszakban mégsem okoztak károkat. Volt elég élelem az erdőn, sőt még most is van, illetve a szakember szerint tavasszal a nagyvadak rendszerint zöld füvet legelnek, megtisztítva a szervezetüket a tél lejártával.</t>
+  </si>
+  <si>
+    <t>Balánbánya</t>
+  </si>
+  <si>
+    <t>Tusnádfürdő</t>
   </si>
   <si>
     <t>Zetelaka</t>
-  </si>
-  <si>
-    <t>Borzont</t>
   </si>
 </sst>
 </file>
@@ -595,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,28 +573,28 @@
     <row r="2" spans="1:15">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
-        <v>44069</v>
+        <v>44170</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -681,142 +603,139 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>46.3948378</v>
+        <v>46.6585838</v>
       </c>
       <c r="O2">
-        <v>25.8341045</v>
+        <v>25.8076679</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
-        <v>44070</v>
+        <v>44185</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>46.3695574</v>
+        <v>46.1460752</v>
       </c>
       <c r="O3">
-        <v>25.7953655</v>
+        <v>25.8569589</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
-        <v>44070</v>
+        <v>44192</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>46.3948378</v>
+        <v>46.3910308</v>
       </c>
       <c r="O4">
-        <v>25.8341045</v>
+        <v>25.3679291</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
-        <v>44070</v>
+        <v>44195</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
         <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>62</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -825,28 +744,28 @@
     <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
-        <v>44078</v>
+        <v>44201</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -855,43 +774,43 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>46.3049996</v>
+        <v>46.1460752</v>
       </c>
       <c r="O6">
-        <v>25.2926479</v>
+        <v>25.8569589</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
-        <v>44091</v>
+        <v>44206</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -899,314 +818,8 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
-        <v>64</v>
-      </c>
       <c r="M7">
         <v>0</v>
-      </c>
-      <c r="N7">
-        <v>46.3600801</v>
-      </c>
-      <c r="O7">
-        <v>25.1764254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2">
-        <v>44093</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>46.3280569</v>
-      </c>
-      <c r="O8">
-        <v>25.8874208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2">
-        <v>44100</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>46.3016939</v>
-      </c>
-      <c r="O9">
-        <v>25.9432296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2">
-        <v>44110</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>46.3910308</v>
-      </c>
-      <c r="O10">
-        <v>25.3679291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2">
-        <v>44111</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>46.3600801</v>
-      </c>
-      <c r="O11">
-        <v>25.1764254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2">
-        <v>44118</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2">
-        <v>44147</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2">
-        <v>44152</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>68</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>46.6917445</v>
-      </c>
-      <c r="O14">
-        <v>25.4429835</v>
       </c>
     </row>
   </sheetData>
@@ -1223,20 +836,6 @@
     <hyperlink ref="D6" r:id="rId10"/>
     <hyperlink ref="C7" r:id="rId11"/>
     <hyperlink ref="D7" r:id="rId12"/>
-    <hyperlink ref="C8" r:id="rId13"/>
-    <hyperlink ref="D8" r:id="rId14"/>
-    <hyperlink ref="C9" r:id="rId15"/>
-    <hyperlink ref="D9" r:id="rId16"/>
-    <hyperlink ref="C10" r:id="rId17"/>
-    <hyperlink ref="D10" r:id="rId18"/>
-    <hyperlink ref="C11" r:id="rId19"/>
-    <hyperlink ref="D11" r:id="rId20"/>
-    <hyperlink ref="C12" r:id="rId21"/>
-    <hyperlink ref="D12" r:id="rId22"/>
-    <hyperlink ref="C13" r:id="rId23"/>
-    <hyperlink ref="D13" r:id="rId24"/>
-    <hyperlink ref="C14" r:id="rId25"/>
-    <hyperlink ref="D14" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
